--- a/data/nelly_trends_monthly.xlsx
+++ b/data/nelly_trends_monthly.xlsx
@@ -469,16 +469,16 @@
         <v>42400</v>
       </c>
       <c r="B2" t="n">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C2" t="n">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D2" t="n">
         <v>84</v>
       </c>
       <c r="E2" t="n">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3">
@@ -489,13 +489,13 @@
         <v>77</v>
       </c>
       <c r="C3" t="n">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D3" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E3" t="n">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4">
@@ -503,13 +503,13 @@
         <v>42460</v>
       </c>
       <c r="B4" t="n">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C4" t="n">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D4" t="n">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E4" t="n">
         <v>83</v>
@@ -520,16 +520,16 @@
         <v>42490</v>
       </c>
       <c r="B5" t="n">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C5" t="n">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D5" t="n">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E5" t="n">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6">
@@ -540,10 +540,10 @@
         <v>100</v>
       </c>
       <c r="C6" t="n">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D6" t="n">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E6" t="n">
         <v>100</v>
@@ -554,10 +554,10 @@
         <v>42551</v>
       </c>
       <c r="B7" t="n">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C7" t="n">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D7" t="n">
         <v>70</v>
@@ -571,16 +571,16 @@
         <v>42582</v>
       </c>
       <c r="B8" t="n">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C8" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D8" t="n">
         <v>55</v>
       </c>
       <c r="E8" t="n">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9">
@@ -591,10 +591,10 @@
         <v>68</v>
       </c>
       <c r="C9" t="n">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D9" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E9" t="n">
         <v>71</v>
@@ -605,16 +605,16 @@
         <v>42643</v>
       </c>
       <c r="B10" t="n">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C10" t="n">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D10" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E10" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11">
@@ -622,13 +622,13 @@
         <v>42674</v>
       </c>
       <c r="B11" t="n">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C11" t="n">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D11" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E11" t="n">
         <v>82</v>
@@ -639,10 +639,10 @@
         <v>42704</v>
       </c>
       <c r="B12" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C12" t="n">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="D12" t="n">
         <v>82</v>
@@ -656,16 +656,16 @@
         <v>42735</v>
       </c>
       <c r="B13" t="n">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="C13" t="n">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D13" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E13" t="n">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14">
@@ -673,10 +673,10 @@
         <v>42766</v>
       </c>
       <c r="B14" t="n">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C14" t="n">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D14" t="n">
         <v>60</v>
@@ -690,16 +690,16 @@
         <v>42794</v>
       </c>
       <c r="B15" t="n">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C15" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D15" t="n">
         <v>65</v>
       </c>
       <c r="E15" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16">
@@ -707,16 +707,16 @@
         <v>42825</v>
       </c>
       <c r="B16" t="n">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C16" t="n">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D16" t="n">
         <v>76</v>
       </c>
       <c r="E16" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17">
@@ -724,10 +724,10 @@
         <v>42855</v>
       </c>
       <c r="B17" t="n">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C17" t="n">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D17" t="n">
         <v>87</v>
@@ -741,10 +741,10 @@
         <v>42886</v>
       </c>
       <c r="B18" t="n">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C18" t="n">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="D18" t="n">
         <v>76</v>
@@ -758,13 +758,13 @@
         <v>42916</v>
       </c>
       <c r="B19" t="n">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C19" t="n">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D19" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E19" t="n">
         <v>71</v>
@@ -775,13 +775,13 @@
         <v>42947</v>
       </c>
       <c r="B20" t="n">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C20" t="n">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D20" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E20" t="n">
         <v>65</v>
@@ -795,7 +795,7 @@
         <v>71</v>
       </c>
       <c r="C21" t="n">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D21" t="n">
         <v>61</v>
@@ -809,10 +809,10 @@
         <v>43008</v>
       </c>
       <c r="B22" t="n">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C22" t="n">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D22" t="n">
         <v>71</v>
@@ -826,10 +826,10 @@
         <v>43039</v>
       </c>
       <c r="B23" t="n">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C23" t="n">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D23" t="n">
         <v>77</v>
@@ -843,16 +843,16 @@
         <v>43069</v>
       </c>
       <c r="B24" t="n">
+        <v>86</v>
+      </c>
+      <c r="C24" t="n">
+        <v>82</v>
+      </c>
+      <c r="D24" t="n">
         <v>91</v>
       </c>
-      <c r="C24" t="n">
-        <v>88</v>
-      </c>
-      <c r="D24" t="n">
-        <v>92</v>
-      </c>
       <c r="E24" t="n">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="25">
@@ -860,13 +860,13 @@
         <v>43100</v>
       </c>
       <c r="B25" t="n">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C25" t="n">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D25" t="n">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E25" t="n">
         <v>65</v>
@@ -877,13 +877,13 @@
         <v>43131</v>
       </c>
       <c r="B26" t="n">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C26" t="n">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D26" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E26" t="n">
         <v>65</v>
@@ -894,16 +894,16 @@
         <v>43159</v>
       </c>
       <c r="B27" t="n">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C27" t="n">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D27" t="n">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E27" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="28">
@@ -911,16 +911,16 @@
         <v>43190</v>
       </c>
       <c r="B28" t="n">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C28" t="n">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D28" t="n">
         <v>91</v>
       </c>
       <c r="E28" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="29">
@@ -928,10 +928,10 @@
         <v>43220</v>
       </c>
       <c r="B29" t="n">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C29" t="n">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D29" t="n">
         <v>100</v>
@@ -945,10 +945,10 @@
         <v>43251</v>
       </c>
       <c r="B30" t="n">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C30" t="n">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="D30" t="n">
         <v>92</v>
@@ -962,16 +962,16 @@
         <v>43281</v>
       </c>
       <c r="B31" t="n">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C31" t="n">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D31" t="n">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E31" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="32">
@@ -979,10 +979,10 @@
         <v>43312</v>
       </c>
       <c r="B32" t="n">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C32" t="n">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D32" t="n">
         <v>74</v>
@@ -996,16 +996,16 @@
         <v>43343</v>
       </c>
       <c r="B33" t="n">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C33" t="n">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D33" t="n">
         <v>72</v>
       </c>
       <c r="E33" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="34">
@@ -1013,16 +1013,16 @@
         <v>43373</v>
       </c>
       <c r="B34" t="n">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C34" t="n">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D34" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E34" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="35">
@@ -1030,10 +1030,10 @@
         <v>43404</v>
       </c>
       <c r="B35" t="n">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C35" t="n">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D35" t="n">
         <v>81</v>
@@ -1047,16 +1047,16 @@
         <v>43434</v>
       </c>
       <c r="B36" t="n">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C36" t="n">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D36" t="n">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E36" t="n">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="37">
@@ -1064,10 +1064,10 @@
         <v>43465</v>
       </c>
       <c r="B37" t="n">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C37" t="n">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D37" t="n">
         <v>80</v>
@@ -1081,16 +1081,16 @@
         <v>43496</v>
       </c>
       <c r="B38" t="n">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C38" t="n">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D38" t="n">
         <v>76</v>
       </c>
       <c r="E38" t="n">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="39">
@@ -1098,16 +1098,16 @@
         <v>43524</v>
       </c>
       <c r="B39" t="n">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C39" t="n">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D39" t="n">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E39" t="n">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="40">
@@ -1115,16 +1115,16 @@
         <v>43555</v>
       </c>
       <c r="B40" t="n">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C40" t="n">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D40" t="n">
         <v>76</v>
       </c>
       <c r="E40" t="n">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="41">
@@ -1132,10 +1132,10 @@
         <v>43585</v>
       </c>
       <c r="B41" t="n">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C41" t="n">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D41" t="n">
         <v>87</v>
@@ -1149,16 +1149,16 @@
         <v>43616</v>
       </c>
       <c r="B42" t="n">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C42" t="n">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D42" t="n">
         <v>78</v>
       </c>
       <c r="E42" t="n">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="43">
@@ -1166,13 +1166,13 @@
         <v>43646</v>
       </c>
       <c r="B43" t="n">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C43" t="n">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D43" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E43" t="n">
         <v>76</v>
@@ -1183,10 +1183,10 @@
         <v>43677</v>
       </c>
       <c r="B44" t="n">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C44" t="n">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D44" t="n">
         <v>59</v>
@@ -1200,10 +1200,10 @@
         <v>43708</v>
       </c>
       <c r="B45" t="n">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C45" t="n">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D45" t="n">
         <v>60</v>
@@ -1217,16 +1217,16 @@
         <v>43738</v>
       </c>
       <c r="B46" t="n">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C46" t="n">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D46" t="n">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E46" t="n">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="47">
@@ -1234,13 +1234,13 @@
         <v>43769</v>
       </c>
       <c r="B47" t="n">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C47" t="n">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="D47" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E47" t="n">
         <v>66</v>
@@ -1251,7 +1251,7 @@
         <v>43799</v>
       </c>
       <c r="B48" t="n">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C48" t="n">
         <v>100</v>
@@ -1260,7 +1260,7 @@
         <v>84</v>
       </c>
       <c r="E48" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="49">
@@ -1268,10 +1268,10 @@
         <v>43830</v>
       </c>
       <c r="B49" t="n">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C49" t="n">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D49" t="n">
         <v>76</v>
@@ -1285,16 +1285,16 @@
         <v>43861</v>
       </c>
       <c r="B50" t="n">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C50" t="n">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D50" t="n">
         <v>64</v>
       </c>
       <c r="E50" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="51">
@@ -1305,7 +1305,7 @@
         <v>57</v>
       </c>
       <c r="C51" t="n">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D51" t="n">
         <v>63</v>
@@ -1319,7 +1319,7 @@
         <v>43921</v>
       </c>
       <c r="B52" t="n">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C52" t="n">
         <v>67</v>
@@ -1339,10 +1339,10 @@
         <v>61</v>
       </c>
       <c r="C53" t="n">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="D53" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E53" t="n">
         <v>59</v>
@@ -1353,10 +1353,10 @@
         <v>43982</v>
       </c>
       <c r="B54" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C54" t="n">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D54" t="n">
         <v>62</v>
@@ -1370,10 +1370,10 @@
         <v>44012</v>
       </c>
       <c r="B55" t="n">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C55" t="n">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="D55" t="n">
         <v>66</v>
@@ -1387,13 +1387,13 @@
         <v>44043</v>
       </c>
       <c r="B56" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C56" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D56" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E56" t="n">
         <v>66</v>
@@ -1404,16 +1404,16 @@
         <v>44074</v>
       </c>
       <c r="B57" t="n">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C57" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D57" t="n">
         <v>49</v>
       </c>
       <c r="E57" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="58">
@@ -1421,10 +1421,10 @@
         <v>44104</v>
       </c>
       <c r="B58" t="n">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C58" t="n">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D58" t="n">
         <v>43</v>
@@ -1438,13 +1438,13 @@
         <v>44135</v>
       </c>
       <c r="B59" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C59" t="n">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D59" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E59" t="n">
         <v>51</v>
@@ -1455,13 +1455,13 @@
         <v>44165</v>
       </c>
       <c r="B60" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C60" t="n">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D60" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E60" t="n">
         <v>62</v>
@@ -1472,10 +1472,10 @@
         <v>44196</v>
       </c>
       <c r="B61" t="n">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C61" t="n">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D61" t="n">
         <v>47</v>
@@ -1492,13 +1492,13 @@
         <v>36</v>
       </c>
       <c r="C62" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D62" t="n">
         <v>39</v>
       </c>
       <c r="E62" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="63">
@@ -1509,10 +1509,10 @@
         <v>36</v>
       </c>
       <c r="C63" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D63" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E63" t="n">
         <v>45</v>
@@ -1523,16 +1523,16 @@
         <v>44286</v>
       </c>
       <c r="B64" t="n">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C64" t="n">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D64" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E64" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="65">
@@ -1540,16 +1540,16 @@
         <v>44316</v>
       </c>
       <c r="B65" t="n">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C65" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D65" t="n">
         <v>40</v>
       </c>
       <c r="E65" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="66">
@@ -1557,10 +1557,10 @@
         <v>44347</v>
       </c>
       <c r="B66" t="n">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C66" t="n">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D66" t="n">
         <v>43</v>
@@ -1574,16 +1574,16 @@
         <v>44377</v>
       </c>
       <c r="B67" t="n">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C67" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D67" t="n">
         <v>45</v>
       </c>
       <c r="E67" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="68">
@@ -1591,16 +1591,16 @@
         <v>44408</v>
       </c>
       <c r="B68" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C68" t="n">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D68" t="n">
         <v>30</v>
       </c>
       <c r="E68" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="69">
@@ -1608,16 +1608,16 @@
         <v>44439</v>
       </c>
       <c r="B69" t="n">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C69" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D69" t="n">
         <v>38</v>
       </c>
       <c r="E69" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="70">
@@ -1625,16 +1625,16 @@
         <v>44469</v>
       </c>
       <c r="B70" t="n">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C70" t="n">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D70" t="n">
         <v>36</v>
       </c>
       <c r="E70" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="71">
@@ -1642,10 +1642,10 @@
         <v>44500</v>
       </c>
       <c r="B71" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C71" t="n">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D71" t="n">
         <v>43</v>
@@ -1659,10 +1659,10 @@
         <v>44530</v>
       </c>
       <c r="B72" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C72" t="n">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D72" t="n">
         <v>48</v>
@@ -1676,16 +1676,16 @@
         <v>44561</v>
       </c>
       <c r="B73" t="n">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C73" t="n">
         <v>68</v>
       </c>
       <c r="D73" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E73" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="74">
@@ -1693,10 +1693,10 @@
         <v>44592</v>
       </c>
       <c r="B74" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C74" t="n">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D74" t="n">
         <v>32</v>
@@ -1713,13 +1713,13 @@
         <v>35</v>
       </c>
       <c r="C75" t="n">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D75" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E75" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="76">
@@ -1727,13 +1727,13 @@
         <v>44651</v>
       </c>
       <c r="B76" t="n">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C76" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D76" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E76" t="n">
         <v>57</v>
@@ -1744,7 +1744,7 @@
         <v>44681</v>
       </c>
       <c r="B77" t="n">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C77" t="n">
         <v>54</v>
@@ -1761,16 +1761,16 @@
         <v>44712</v>
       </c>
       <c r="B78" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C78" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D78" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E78" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="79">
@@ -1781,13 +1781,13 @@
         <v>41</v>
       </c>
       <c r="C79" t="n">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D79" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E79" t="n">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="80">
@@ -1795,13 +1795,13 @@
         <v>44773</v>
       </c>
       <c r="B80" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C80" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D80" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E80" t="n">
         <v>47</v>
@@ -1815,7 +1815,7 @@
         <v>32</v>
       </c>
       <c r="C81" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D81" t="n">
         <v>28</v>
@@ -1829,13 +1829,13 @@
         <v>44834</v>
       </c>
       <c r="B82" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C82" t="n">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D82" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E82" t="n">
         <v>49</v>
@@ -1846,16 +1846,16 @@
         <v>44865</v>
       </c>
       <c r="B83" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C83" t="n">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D83" t="n">
         <v>30</v>
       </c>
       <c r="E83" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="84">
@@ -1863,10 +1863,10 @@
         <v>44895</v>
       </c>
       <c r="B84" t="n">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C84" t="n">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D84" t="n">
         <v>39</v>
@@ -1883,10 +1883,10 @@
         <v>36</v>
       </c>
       <c r="C85" t="n">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D85" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E85" t="n">
         <v>41</v>
@@ -1897,16 +1897,16 @@
         <v>44957</v>
       </c>
       <c r="B86" t="n">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C86" t="n">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D86" t="n">
         <v>31</v>
       </c>
       <c r="E86" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="87">
@@ -1917,7 +1917,7 @@
         <v>29</v>
       </c>
       <c r="C87" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D87" t="n">
         <v>28</v>
@@ -1931,13 +1931,13 @@
         <v>45016</v>
       </c>
       <c r="B88" t="n">
+        <v>31</v>
+      </c>
+      <c r="C88" t="n">
+        <v>35</v>
+      </c>
+      <c r="D88" t="n">
         <v>33</v>
-      </c>
-      <c r="C88" t="n">
-        <v>37</v>
-      </c>
-      <c r="D88" t="n">
-        <v>32</v>
       </c>
       <c r="E88" t="n">
         <v>48</v>
@@ -1948,10 +1948,10 @@
         <v>45046</v>
       </c>
       <c r="B89" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C89" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D89" t="n">
         <v>40</v>
@@ -1965,10 +1965,10 @@
         <v>45077</v>
       </c>
       <c r="B90" t="n">
+        <v>38</v>
+      </c>
+      <c r="C90" t="n">
         <v>41</v>
-      </c>
-      <c r="C90" t="n">
-        <v>43</v>
       </c>
       <c r="D90" t="n">
         <v>29</v>
@@ -1982,10 +1982,10 @@
         <v>45107</v>
       </c>
       <c r="B91" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C91" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D91" t="n">
         <v>29</v>
@@ -2002,7 +2002,7 @@
         <v>23</v>
       </c>
       <c r="C92" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D92" t="n">
         <v>24</v>
@@ -2016,13 +2016,13 @@
         <v>45169</v>
       </c>
       <c r="B93" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C93" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D93" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E93" t="n">
         <v>31</v>
@@ -2033,16 +2033,16 @@
         <v>45199</v>
       </c>
       <c r="B94" t="n">
+        <v>29</v>
+      </c>
+      <c r="C94" t="n">
+        <v>34</v>
+      </c>
+      <c r="D94" t="n">
         <v>30</v>
       </c>
-      <c r="C94" t="n">
-        <v>35</v>
-      </c>
-      <c r="D94" t="n">
-        <v>31</v>
-      </c>
       <c r="E94" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="95">
@@ -2050,10 +2050,10 @@
         <v>45230</v>
       </c>
       <c r="B95" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C95" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D95" t="n">
         <v>33</v>
@@ -2070,10 +2070,10 @@
         <v>39</v>
       </c>
       <c r="C96" t="n">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D96" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E96" t="n">
         <v>32</v>
@@ -2084,13 +2084,13 @@
         <v>45291</v>
       </c>
       <c r="B97" t="n">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C97" t="n">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D97" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E97" t="n">
         <v>24</v>
@@ -2101,16 +2101,16 @@
         <v>45322</v>
       </c>
       <c r="B98" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C98" t="n">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D98" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E98" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="99">
@@ -2118,10 +2118,10 @@
         <v>45351</v>
       </c>
       <c r="B99" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C99" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D99" t="n">
         <v>31</v>
@@ -2138,13 +2138,13 @@
         <v>30</v>
       </c>
       <c r="C100" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D100" t="n">
         <v>39</v>
       </c>
       <c r="E100" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="101">
@@ -2152,16 +2152,16 @@
         <v>45412</v>
       </c>
       <c r="B101" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C101" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D101" t="n">
         <v>43</v>
       </c>
       <c r="E101" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="102">
@@ -2169,13 +2169,13 @@
         <v>45443</v>
       </c>
       <c r="B102" t="n">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C102" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D102" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E102" t="n">
         <v>43</v>
@@ -2186,10 +2186,10 @@
         <v>45473</v>
       </c>
       <c r="B103" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C103" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D103" t="n">
         <v>41</v>
@@ -2203,13 +2203,13 @@
         <v>45504</v>
       </c>
       <c r="B104" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C104" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D104" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E104" t="n">
         <v>33</v>
@@ -2220,10 +2220,10 @@
         <v>45535</v>
       </c>
       <c r="B105" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C105" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D105" t="n">
         <v>37</v>
@@ -2237,10 +2237,10 @@
         <v>45565</v>
       </c>
       <c r="B106" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C106" t="n">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D106" t="n">
         <v>47</v>
@@ -2254,10 +2254,10 @@
         <v>45596</v>
       </c>
       <c r="B107" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C107" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D107" t="n">
         <v>54</v>
@@ -2271,13 +2271,13 @@
         <v>45626</v>
       </c>
       <c r="B108" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C108" t="n">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D108" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E108" t="n">
         <v>35</v>
@@ -2288,16 +2288,16 @@
         <v>45657</v>
       </c>
       <c r="B109" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C109" t="n">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D109" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E109" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="110">
@@ -2305,16 +2305,16 @@
         <v>45688</v>
       </c>
       <c r="B110" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C110" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D110" t="n">
         <v>51</v>
       </c>
       <c r="E110" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="111">
@@ -2325,7 +2325,7 @@
         <v>31</v>
       </c>
       <c r="C111" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D111" t="n">
         <v>45</v>
@@ -2339,10 +2339,10 @@
         <v>45747</v>
       </c>
       <c r="B112" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C112" t="n">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D112" t="n">
         <v>53</v>
@@ -2356,13 +2356,13 @@
         <v>45777</v>
       </c>
       <c r="B113" t="n">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C113" t="n">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D113" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E113" t="n">
         <v>40</v>
@@ -2373,13 +2373,13 @@
         <v>45808</v>
       </c>
       <c r="B114" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C114" t="n">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D114" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E114" t="n">
         <v>38</v>
@@ -2390,10 +2390,10 @@
         <v>45838</v>
       </c>
       <c r="B115" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C115" t="n">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D115" t="n">
         <v>43</v>
@@ -2407,16 +2407,16 @@
         <v>45869</v>
       </c>
       <c r="B116" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C116" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D116" t="n">
         <v>32</v>
       </c>
       <c r="E116" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="117">
@@ -2424,13 +2424,13 @@
         <v>45900</v>
       </c>
       <c r="B117" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C117" t="n">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D117" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E117" t="n">
         <v>44</v>
@@ -2441,16 +2441,16 @@
         <v>45930</v>
       </c>
       <c r="B118" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C118" t="n">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D118" t="n">
         <v>46</v>
       </c>
       <c r="E118" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="119">
@@ -2458,16 +2458,16 @@
         <v>45961</v>
       </c>
       <c r="B119" t="n">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C119" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D119" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E119" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/data/nelly_trends_monthly.xlsx
+++ b/data/nelly_trends_monthly.xlsx
@@ -469,16 +469,16 @@
         <v>42400</v>
       </c>
       <c r="B2" t="n">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C2" t="n">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="D2" t="n">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E2" t="n">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3">
@@ -486,10 +486,10 @@
         <v>42429</v>
       </c>
       <c r="B3" t="n">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C3" t="n">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="D3" t="n">
         <v>77</v>
@@ -503,13 +503,13 @@
         <v>42460</v>
       </c>
       <c r="B4" t="n">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C4" t="n">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="D4" t="n">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E4" t="n">
         <v>83</v>
@@ -520,13 +520,13 @@
         <v>42490</v>
       </c>
       <c r="B5" t="n">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="C5" t="n">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="D5" t="n">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E5" t="n">
         <v>94</v>
@@ -540,10 +540,10 @@
         <v>100</v>
       </c>
       <c r="C6" t="n">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="D6" t="n">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E6" t="n">
         <v>100</v>
@@ -554,13 +554,13 @@
         <v>42551</v>
       </c>
       <c r="B7" t="n">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="C7" t="n">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="D7" t="n">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E7" t="n">
         <v>78</v>
@@ -571,16 +571,16 @@
         <v>42582</v>
       </c>
       <c r="B8" t="n">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="C8" t="n">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D8" t="n">
         <v>55</v>
       </c>
       <c r="E8" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9">
@@ -588,13 +588,13 @@
         <v>42613</v>
       </c>
       <c r="B9" t="n">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C9" t="n">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="D9" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E9" t="n">
         <v>71</v>
@@ -605,16 +605,16 @@
         <v>42643</v>
       </c>
       <c r="B10" t="n">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C10" t="n">
+        <v>66</v>
+      </c>
+      <c r="D10" t="n">
         <v>60</v>
       </c>
-      <c r="D10" t="n">
-        <v>59</v>
-      </c>
       <c r="E10" t="n">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11">
@@ -622,13 +622,13 @@
         <v>42674</v>
       </c>
       <c r="B11" t="n">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C11" t="n">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="D11" t="n">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E11" t="n">
         <v>82</v>
@@ -639,16 +639,16 @@
         <v>42704</v>
       </c>
       <c r="B12" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="C12" t="n">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="D12" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E12" t="n">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="13">
@@ -656,16 +656,16 @@
         <v>42735</v>
       </c>
       <c r="B13" t="n">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="C13" t="n">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="D13" t="n">
         <v>76</v>
       </c>
       <c r="E13" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14">
@@ -673,13 +673,13 @@
         <v>42766</v>
       </c>
       <c r="B14" t="n">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C14" t="n">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="D14" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E14" t="n">
         <v>74</v>
@@ -690,16 +690,16 @@
         <v>42794</v>
       </c>
       <c r="B15" t="n">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C15" t="n">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D15" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E15" t="n">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16">
@@ -707,16 +707,16 @@
         <v>42825</v>
       </c>
       <c r="B16" t="n">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="C16" t="n">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="D16" t="n">
         <v>76</v>
       </c>
       <c r="E16" t="n">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17">
@@ -724,16 +724,16 @@
         <v>42855</v>
       </c>
       <c r="B17" t="n">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="C17" t="n">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="D17" t="n">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E17" t="n">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18">
@@ -741,10 +741,10 @@
         <v>42886</v>
       </c>
       <c r="B18" t="n">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="C18" t="n">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D18" t="n">
         <v>76</v>
@@ -758,10 +758,10 @@
         <v>42916</v>
       </c>
       <c r="B19" t="n">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="C19" t="n">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="D19" t="n">
         <v>72</v>
@@ -775,16 +775,16 @@
         <v>42947</v>
       </c>
       <c r="B20" t="n">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C20" t="n">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="D20" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E20" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21">
@@ -792,13 +792,13 @@
         <v>42978</v>
       </c>
       <c r="B21" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C21" t="n">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="D21" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E21" t="n">
         <v>60</v>
@@ -809,16 +809,16 @@
         <v>43008</v>
       </c>
       <c r="B22" t="n">
+        <v>79</v>
+      </c>
+      <c r="C22" t="n">
         <v>72</v>
       </c>
-      <c r="C22" t="n">
-        <v>65</v>
-      </c>
       <c r="D22" t="n">
+        <v>72</v>
+      </c>
+      <c r="E22" t="n">
         <v>71</v>
-      </c>
-      <c r="E22" t="n">
-        <v>72</v>
       </c>
     </row>
     <row r="23">
@@ -826,16 +826,16 @@
         <v>43039</v>
       </c>
       <c r="B23" t="n">
+        <v>80</v>
+      </c>
+      <c r="C23" t="n">
+        <v>77</v>
+      </c>
+      <c r="D23" t="n">
+        <v>78</v>
+      </c>
+      <c r="E23" t="n">
         <v>73</v>
-      </c>
-      <c r="C23" t="n">
-        <v>72</v>
-      </c>
-      <c r="D23" t="n">
-        <v>77</v>
-      </c>
-      <c r="E23" t="n">
-        <v>74</v>
       </c>
     </row>
     <row r="24">
@@ -843,16 +843,16 @@
         <v>43069</v>
       </c>
       <c r="B24" t="n">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="C24" t="n">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="D24" t="n">
         <v>91</v>
       </c>
       <c r="E24" t="n">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="25">
@@ -860,10 +860,10 @@
         <v>43100</v>
       </c>
       <c r="B25" t="n">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C25" t="n">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D25" t="n">
         <v>87</v>
@@ -877,16 +877,16 @@
         <v>43131</v>
       </c>
       <c r="B26" t="n">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C26" t="n">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="D26" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E26" t="n">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="27">
@@ -897,13 +897,13 @@
         <v>57</v>
       </c>
       <c r="C27" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="D27" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E27" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="28">
@@ -911,16 +911,16 @@
         <v>43190</v>
       </c>
       <c r="B28" t="n">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C28" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D28" t="n">
         <v>91</v>
       </c>
       <c r="E28" t="n">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="29">
@@ -928,10 +928,10 @@
         <v>43220</v>
       </c>
       <c r="B29" t="n">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="C29" t="n">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="D29" t="n">
         <v>100</v>
@@ -948,13 +948,13 @@
         <v>87</v>
       </c>
       <c r="C30" t="n">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="D30" t="n">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E30" t="n">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="31">
@@ -962,16 +962,16 @@
         <v>43281</v>
       </c>
       <c r="B31" t="n">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C31" t="n">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="D31" t="n">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E31" t="n">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="32">
@@ -979,10 +979,10 @@
         <v>43312</v>
       </c>
       <c r="B32" t="n">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C32" t="n">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="D32" t="n">
         <v>74</v>
@@ -996,16 +996,16 @@
         <v>43343</v>
       </c>
       <c r="B33" t="n">
+        <v>61</v>
+      </c>
+      <c r="C33" t="n">
         <v>58</v>
       </c>
-      <c r="C33" t="n">
-        <v>53</v>
-      </c>
       <c r="D33" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E33" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="34">
@@ -1013,16 +1013,16 @@
         <v>43373</v>
       </c>
       <c r="B34" t="n">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C34" t="n">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="D34" t="n">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E34" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="35">
@@ -1030,10 +1030,10 @@
         <v>43404</v>
       </c>
       <c r="B35" t="n">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="C35" t="n">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="D35" t="n">
         <v>81</v>
@@ -1047,13 +1047,13 @@
         <v>43434</v>
       </c>
       <c r="B36" t="n">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C36" t="n">
+        <v>93</v>
+      </c>
+      <c r="D36" t="n">
         <v>86</v>
-      </c>
-      <c r="D36" t="n">
-        <v>85</v>
       </c>
       <c r="E36" t="n">
         <v>72</v>
@@ -1064,16 +1064,16 @@
         <v>43465</v>
       </c>
       <c r="B37" t="n">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="C37" t="n">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="D37" t="n">
         <v>80</v>
       </c>
       <c r="E37" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="38">
@@ -1081,13 +1081,13 @@
         <v>43496</v>
       </c>
       <c r="B38" t="n">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C38" t="n">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="D38" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E38" t="n">
         <v>60</v>
@@ -1098,16 +1098,16 @@
         <v>43524</v>
       </c>
       <c r="B39" t="n">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C39" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="D39" t="n">
         <v>77</v>
       </c>
       <c r="E39" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="40">
@@ -1115,10 +1115,10 @@
         <v>43555</v>
       </c>
       <c r="B40" t="n">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="C40" t="n">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="D40" t="n">
         <v>76</v>
@@ -1132,16 +1132,16 @@
         <v>43585</v>
       </c>
       <c r="B41" t="n">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C41" t="n">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="D41" t="n">
         <v>87</v>
       </c>
       <c r="E41" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="42">
@@ -1149,10 +1149,10 @@
         <v>43616</v>
       </c>
       <c r="B42" t="n">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C42" t="n">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="D42" t="n">
         <v>78</v>
@@ -1166,16 +1166,16 @@
         <v>43646</v>
       </c>
       <c r="B43" t="n">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C43" t="n">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="D43" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E43" t="n">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="44">
@@ -1183,16 +1183,16 @@
         <v>43677</v>
       </c>
       <c r="B44" t="n">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C44" t="n">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="D44" t="n">
         <v>59</v>
       </c>
       <c r="E44" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="45">
@@ -1200,16 +1200,16 @@
         <v>43708</v>
       </c>
       <c r="B45" t="n">
+        <v>61</v>
+      </c>
+      <c r="C45" t="n">
+        <v>72</v>
+      </c>
+      <c r="D45" t="n">
+        <v>61</v>
+      </c>
+      <c r="E45" t="n">
         <v>57</v>
-      </c>
-      <c r="C45" t="n">
-        <v>67</v>
-      </c>
-      <c r="D45" t="n">
-        <v>60</v>
-      </c>
-      <c r="E45" t="n">
-        <v>56</v>
       </c>
     </row>
     <row r="46">
@@ -1217,16 +1217,16 @@
         <v>43738</v>
       </c>
       <c r="B46" t="n">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C46" t="n">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D46" t="n">
         <v>64</v>
       </c>
       <c r="E46" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="47">
@@ -1234,10 +1234,10 @@
         <v>43769</v>
       </c>
       <c r="B47" t="n">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="C47" t="n">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="D47" t="n">
         <v>67</v>
@@ -1251,13 +1251,13 @@
         <v>43799</v>
       </c>
       <c r="B48" t="n">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="C48" t="n">
         <v>100</v>
       </c>
       <c r="D48" t="n">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E48" t="n">
         <v>68</v>
@@ -1268,16 +1268,16 @@
         <v>43830</v>
       </c>
       <c r="B49" t="n">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="C49" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="D49" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E49" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="50">
@@ -1285,16 +1285,16 @@
         <v>43861</v>
       </c>
       <c r="B50" t="n">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C50" t="n">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="D50" t="n">
         <v>64</v>
       </c>
       <c r="E50" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="51">
@@ -1302,13 +1302,13 @@
         <v>43890</v>
       </c>
       <c r="B51" t="n">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C51" t="n">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="D51" t="n">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E51" t="n">
         <v>59</v>
@@ -1319,10 +1319,10 @@
         <v>43921</v>
       </c>
       <c r="B52" t="n">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C52" t="n">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D52" t="n">
         <v>58</v>
@@ -1336,13 +1336,13 @@
         <v>43951</v>
       </c>
       <c r="B53" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C53" t="n">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="D53" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E53" t="n">
         <v>59</v>
@@ -1353,16 +1353,16 @@
         <v>43982</v>
       </c>
       <c r="B54" t="n">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="C54" t="n">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="D54" t="n">
         <v>62</v>
       </c>
       <c r="E54" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="55">
@@ -1370,16 +1370,16 @@
         <v>44012</v>
       </c>
       <c r="B55" t="n">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C55" t="n">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D55" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E55" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="56">
@@ -1387,10 +1387,10 @@
         <v>44043</v>
       </c>
       <c r="B56" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C56" t="n">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D56" t="n">
         <v>44</v>
@@ -1404,10 +1404,10 @@
         <v>44074</v>
       </c>
       <c r="B57" t="n">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C57" t="n">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="D57" t="n">
         <v>49</v>
@@ -1421,10 +1421,10 @@
         <v>44104</v>
       </c>
       <c r="B58" t="n">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="C58" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D58" t="n">
         <v>43</v>
@@ -1438,16 +1438,16 @@
         <v>44135</v>
       </c>
       <c r="B59" t="n">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C59" t="n">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="D59" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E59" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="60">
@@ -1455,16 +1455,16 @@
         <v>44165</v>
       </c>
       <c r="B60" t="n">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C60" t="n">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="D60" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E60" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="61">
@@ -1472,16 +1472,16 @@
         <v>44196</v>
       </c>
       <c r="B61" t="n">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C61" t="n">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="D61" t="n">
         <v>47</v>
       </c>
       <c r="E61" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="62">
@@ -1489,10 +1489,10 @@
         <v>44227</v>
       </c>
       <c r="B62" t="n">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C62" t="n">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D62" t="n">
         <v>39</v>
@@ -1509,13 +1509,13 @@
         <v>36</v>
       </c>
       <c r="C63" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D63" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E63" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="64">
@@ -1523,16 +1523,16 @@
         <v>44286</v>
       </c>
       <c r="B64" t="n">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C64" t="n">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="D64" t="n">
         <v>38</v>
       </c>
       <c r="E64" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="65">
@@ -1540,10 +1540,10 @@
         <v>44316</v>
       </c>
       <c r="B65" t="n">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C65" t="n">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="D65" t="n">
         <v>40</v>
@@ -1557,16 +1557,16 @@
         <v>44347</v>
       </c>
       <c r="B66" t="n">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C66" t="n">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="D66" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E66" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="67">
@@ -1574,10 +1574,10 @@
         <v>44377</v>
       </c>
       <c r="B67" t="n">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="C67" t="n">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="D67" t="n">
         <v>45</v>
@@ -1591,16 +1591,16 @@
         <v>44408</v>
       </c>
       <c r="B68" t="n">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C68" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D68" t="n">
         <v>30</v>
       </c>
       <c r="E68" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="69">
@@ -1608,16 +1608,16 @@
         <v>44439</v>
       </c>
       <c r="B69" t="n">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C69" t="n">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D69" t="n">
         <v>38</v>
       </c>
       <c r="E69" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="70">
@@ -1625,10 +1625,10 @@
         <v>44469</v>
       </c>
       <c r="B70" t="n">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C70" t="n">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="D70" t="n">
         <v>36</v>
@@ -1642,10 +1642,10 @@
         <v>44500</v>
       </c>
       <c r="B71" t="n">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C71" t="n">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="D71" t="n">
         <v>43</v>
@@ -1659,16 +1659,16 @@
         <v>44530</v>
       </c>
       <c r="B72" t="n">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C72" t="n">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="D72" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E72" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="73">
@@ -1676,10 +1676,10 @@
         <v>44561</v>
       </c>
       <c r="B73" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C73" t="n">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="D73" t="n">
         <v>43</v>
@@ -1693,10 +1693,10 @@
         <v>44592</v>
       </c>
       <c r="B74" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C74" t="n">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="D74" t="n">
         <v>32</v>
@@ -1710,16 +1710,16 @@
         <v>44620</v>
       </c>
       <c r="B75" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C75" t="n">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="D75" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E75" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="76">
@@ -1727,10 +1727,10 @@
         <v>44651</v>
       </c>
       <c r="B76" t="n">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C76" t="n">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D76" t="n">
         <v>43</v>
@@ -1744,16 +1744,16 @@
         <v>44681</v>
       </c>
       <c r="B77" t="n">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C77" t="n">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D77" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E77" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="78">
@@ -1761,16 +1761,16 @@
         <v>44712</v>
       </c>
       <c r="B78" t="n">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C78" t="n">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D78" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E78" t="n">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="79">
@@ -1778,10 +1778,10 @@
         <v>44742</v>
       </c>
       <c r="B79" t="n">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C79" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="D79" t="n">
         <v>37</v>
@@ -1795,13 +1795,13 @@
         <v>44773</v>
       </c>
       <c r="B80" t="n">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C80" t="n">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D80" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E80" t="n">
         <v>47</v>
@@ -1812,10 +1812,10 @@
         <v>44804</v>
       </c>
       <c r="B81" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C81" t="n">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D81" t="n">
         <v>28</v>
@@ -1829,10 +1829,10 @@
         <v>44834</v>
       </c>
       <c r="B82" t="n">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C82" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D82" t="n">
         <v>30</v>
@@ -1846,10 +1846,10 @@
         <v>44865</v>
       </c>
       <c r="B83" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C83" t="n">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D83" t="n">
         <v>30</v>
@@ -1863,16 +1863,16 @@
         <v>44895</v>
       </c>
       <c r="B84" t="n">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C84" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D84" t="n">
         <v>39</v>
       </c>
       <c r="E84" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="85">
@@ -1880,13 +1880,13 @@
         <v>44926</v>
       </c>
       <c r="B85" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C85" t="n">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D85" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E85" t="n">
         <v>41</v>
@@ -1897,10 +1897,10 @@
         <v>44957</v>
       </c>
       <c r="B86" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C86" t="n">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D86" t="n">
         <v>31</v>
@@ -1914,10 +1914,10 @@
         <v>44985</v>
       </c>
       <c r="B87" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C87" t="n">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D87" t="n">
         <v>28</v>
@@ -1931,16 +1931,16 @@
         <v>45016</v>
       </c>
       <c r="B88" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C88" t="n">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D88" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E88" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="89">
@@ -1948,16 +1948,16 @@
         <v>45046</v>
       </c>
       <c r="B89" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C89" t="n">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D89" t="n">
         <v>40</v>
       </c>
       <c r="E89" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="90">
@@ -1968,7 +1968,7 @@
         <v>38</v>
       </c>
       <c r="C90" t="n">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D90" t="n">
         <v>29</v>
@@ -1985,7 +1985,7 @@
         <v>34</v>
       </c>
       <c r="C91" t="n">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D91" t="n">
         <v>29</v>
@@ -1999,10 +1999,10 @@
         <v>45138</v>
       </c>
       <c r="B92" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C92" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D92" t="n">
         <v>24</v>
@@ -2016,13 +2016,13 @@
         <v>45169</v>
       </c>
       <c r="B93" t="n">
+        <v>29</v>
+      </c>
+      <c r="C93" t="n">
+        <v>33</v>
+      </c>
+      <c r="D93" t="n">
         <v>24</v>
-      </c>
-      <c r="C93" t="n">
-        <v>30</v>
-      </c>
-      <c r="D93" t="n">
-        <v>23</v>
       </c>
       <c r="E93" t="n">
         <v>31</v>
@@ -2033,10 +2033,10 @@
         <v>45199</v>
       </c>
       <c r="B94" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C94" t="n">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D94" t="n">
         <v>30</v>
@@ -2050,13 +2050,13 @@
         <v>45230</v>
       </c>
       <c r="B95" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C95" t="n">
+        <v>37</v>
+      </c>
+      <c r="D95" t="n">
         <v>34</v>
-      </c>
-      <c r="D95" t="n">
-        <v>33</v>
       </c>
       <c r="E95" t="n">
         <v>30</v>
@@ -2067,13 +2067,13 @@
         <v>45260</v>
       </c>
       <c r="B96" t="n">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C96" t="n">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="D96" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E96" t="n">
         <v>32</v>
@@ -2084,13 +2084,13 @@
         <v>45291</v>
       </c>
       <c r="B97" t="n">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C97" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D97" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E97" t="n">
         <v>24</v>
@@ -2101,16 +2101,16 @@
         <v>45322</v>
       </c>
       <c r="B98" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C98" t="n">
+        <v>38</v>
+      </c>
+      <c r="D98" t="n">
         <v>33</v>
       </c>
-      <c r="D98" t="n">
-        <v>32</v>
-      </c>
       <c r="E98" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="99">
@@ -2118,10 +2118,10 @@
         <v>45351</v>
       </c>
       <c r="B99" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C99" t="n">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D99" t="n">
         <v>31</v>
@@ -2135,10 +2135,10 @@
         <v>45382</v>
       </c>
       <c r="B100" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C100" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D100" t="n">
         <v>39</v>
@@ -2152,16 +2152,16 @@
         <v>45412</v>
       </c>
       <c r="B101" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C101" t="n">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D101" t="n">
         <v>43</v>
       </c>
       <c r="E101" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="102">
@@ -2169,13 +2169,13 @@
         <v>45443</v>
       </c>
       <c r="B102" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C102" t="n">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D102" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E102" t="n">
         <v>43</v>
@@ -2186,10 +2186,10 @@
         <v>45473</v>
       </c>
       <c r="B103" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C103" t="n">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D103" t="n">
         <v>41</v>
@@ -2203,16 +2203,16 @@
         <v>45504</v>
       </c>
       <c r="B104" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C104" t="n">
+        <v>36</v>
+      </c>
+      <c r="D104" t="n">
+        <v>27</v>
+      </c>
+      <c r="E104" t="n">
         <v>32</v>
-      </c>
-      <c r="D104" t="n">
-        <v>26</v>
-      </c>
-      <c r="E104" t="n">
-        <v>33</v>
       </c>
     </row>
     <row r="105">
@@ -2220,10 +2220,10 @@
         <v>45535</v>
       </c>
       <c r="B105" t="n">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C105" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D105" t="n">
         <v>37</v>
@@ -2240,13 +2240,13 @@
         <v>33</v>
       </c>
       <c r="C106" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D106" t="n">
         <v>47</v>
       </c>
       <c r="E106" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="107">
@@ -2254,10 +2254,10 @@
         <v>45596</v>
       </c>
       <c r="B107" t="n">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C107" t="n">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D107" t="n">
         <v>54</v>
@@ -2271,13 +2271,13 @@
         <v>45626</v>
       </c>
       <c r="B108" t="n">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C108" t="n">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="D108" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E108" t="n">
         <v>35</v>
@@ -2288,16 +2288,16 @@
         <v>45657</v>
       </c>
       <c r="B109" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C109" t="n">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D109" t="n">
         <v>55</v>
       </c>
       <c r="E109" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="110">
@@ -2308,13 +2308,13 @@
         <v>31</v>
       </c>
       <c r="C110" t="n">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D110" t="n">
         <v>51</v>
       </c>
       <c r="E110" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="111">
@@ -2322,16 +2322,16 @@
         <v>45716</v>
       </c>
       <c r="B111" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C111" t="n">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D111" t="n">
         <v>45</v>
       </c>
       <c r="E111" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="112">
@@ -2339,13 +2339,13 @@
         <v>45747</v>
       </c>
       <c r="B112" t="n">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C112" t="n">
+        <v>58</v>
+      </c>
+      <c r="D112" t="n">
         <v>52</v>
-      </c>
-      <c r="D112" t="n">
-        <v>53</v>
       </c>
       <c r="E112" t="n">
         <v>35</v>
@@ -2356,10 +2356,10 @@
         <v>45777</v>
       </c>
       <c r="B113" t="n">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C113" t="n">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="D113" t="n">
         <v>51</v>
@@ -2373,16 +2373,16 @@
         <v>45808</v>
       </c>
       <c r="B114" t="n">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C114" t="n">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="D114" t="n">
         <v>52</v>
       </c>
       <c r="E114" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="115">
@@ -2390,13 +2390,13 @@
         <v>45838</v>
       </c>
       <c r="B115" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C115" t="n">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="D115" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E115" t="n">
         <v>33</v>
@@ -2407,10 +2407,10 @@
         <v>45869</v>
       </c>
       <c r="B116" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C116" t="n">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D116" t="n">
         <v>32</v>
@@ -2424,13 +2424,13 @@
         <v>45900</v>
       </c>
       <c r="B117" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C117" t="n">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="D117" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E117" t="n">
         <v>44</v>
@@ -2441,16 +2441,16 @@
         <v>45930</v>
       </c>
       <c r="B118" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C118" t="n">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D118" t="n">
         <v>46</v>
       </c>
       <c r="E118" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="119">
@@ -2458,16 +2458,16 @@
         <v>45961</v>
       </c>
       <c r="B119" t="n">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C119" t="n">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D119" t="n">
         <v>46</v>
       </c>
       <c r="E119" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/data/nelly_trends_monthly.xlsx
+++ b/data/nelly_trends_monthly.xlsx
@@ -469,16 +469,16 @@
         <v>42400</v>
       </c>
       <c r="B2" t="n">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C2" t="n">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="D2" t="n">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E2" t="n">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         <v>42429</v>
       </c>
       <c r="B3" t="n">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C3" t="n">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="D3" t="n">
         <v>77</v>
       </c>
       <c r="E3" t="n">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4">
@@ -506,10 +506,10 @@
         <v>79</v>
       </c>
       <c r="C4" t="n">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="D4" t="n">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E4" t="n">
         <v>83</v>
@@ -520,16 +520,16 @@
         <v>42490</v>
       </c>
       <c r="B5" t="n">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C5" t="n">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="D5" t="n">
         <v>88</v>
       </c>
       <c r="E5" t="n">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6">
@@ -540,7 +540,7 @@
         <v>100</v>
       </c>
       <c r="C6" t="n">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="D6" t="n">
         <v>82</v>
@@ -554,13 +554,13 @@
         <v>42551</v>
       </c>
       <c r="B7" t="n">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C7" t="n">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="D7" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E7" t="n">
         <v>78</v>
@@ -571,13 +571,13 @@
         <v>42582</v>
       </c>
       <c r="B8" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C8" t="n">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="D8" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E8" t="n">
         <v>70</v>
@@ -588,16 +588,16 @@
         <v>42613</v>
       </c>
       <c r="B9" t="n">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C9" t="n">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="D9" t="n">
         <v>51</v>
       </c>
       <c r="E9" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10">
@@ -605,16 +605,16 @@
         <v>42643</v>
       </c>
       <c r="B10" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C10" t="n">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="D10" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E10" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11">
@@ -622,16 +622,16 @@
         <v>42674</v>
       </c>
       <c r="B11" t="n">
+        <v>75</v>
+      </c>
+      <c r="C11" t="n">
+        <v>62</v>
+      </c>
+      <c r="D11" t="n">
+        <v>69</v>
+      </c>
+      <c r="E11" t="n">
         <v>81</v>
-      </c>
-      <c r="C11" t="n">
-        <v>69</v>
-      </c>
-      <c r="D11" t="n">
-        <v>70</v>
-      </c>
-      <c r="E11" t="n">
-        <v>82</v>
       </c>
     </row>
     <row r="12">
@@ -639,10 +639,10 @@
         <v>42704</v>
       </c>
       <c r="B12" t="n">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C12" t="n">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="D12" t="n">
         <v>81</v>
@@ -656,10 +656,10 @@
         <v>42735</v>
       </c>
       <c r="B13" t="n">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C13" t="n">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="D13" t="n">
         <v>76</v>
@@ -673,16 +673,16 @@
         <v>42766</v>
       </c>
       <c r="B14" t="n">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C14" t="n">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="D14" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E14" t="n">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15">
@@ -690,16 +690,16 @@
         <v>42794</v>
       </c>
       <c r="B15" t="n">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C15" t="n">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="D15" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E15" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="16">
@@ -707,13 +707,13 @@
         <v>42825</v>
       </c>
       <c r="B16" t="n">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="C16" t="n">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="D16" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E16" t="n">
         <v>76</v>
@@ -724,16 +724,16 @@
         <v>42855</v>
       </c>
       <c r="B17" t="n">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C17" t="n">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="D17" t="n">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E17" t="n">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18">
@@ -741,16 +741,16 @@
         <v>42886</v>
       </c>
       <c r="B18" t="n">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C18" t="n">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="D18" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E18" t="n">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="19">
@@ -758,16 +758,16 @@
         <v>42916</v>
       </c>
       <c r="B19" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C19" t="n">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="D19" t="n">
         <v>72</v>
       </c>
       <c r="E19" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20">
@@ -775,10 +775,10 @@
         <v>42947</v>
       </c>
       <c r="B20" t="n">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C20" t="n">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="D20" t="n">
         <v>61</v>
@@ -792,16 +792,16 @@
         <v>42978</v>
       </c>
       <c r="B21" t="n">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C21" t="n">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="D21" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E21" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22">
@@ -809,13 +809,13 @@
         <v>43008</v>
       </c>
       <c r="B22" t="n">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C22" t="n">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="D22" t="n">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E22" t="n">
         <v>71</v>
@@ -826,16 +826,16 @@
         <v>43039</v>
       </c>
       <c r="B23" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C23" t="n">
+        <v>66</v>
+      </c>
+      <c r="D23" t="n">
         <v>77</v>
       </c>
-      <c r="D23" t="n">
-        <v>78</v>
-      </c>
       <c r="E23" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="24">
@@ -843,16 +843,16 @@
         <v>43069</v>
       </c>
       <c r="B24" t="n">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C24" t="n">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="D24" t="n">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E24" t="n">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="25">
@@ -860,10 +860,10 @@
         <v>43100</v>
       </c>
       <c r="B25" t="n">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C25" t="n">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="D25" t="n">
         <v>87</v>
@@ -877,13 +877,13 @@
         <v>43131</v>
       </c>
       <c r="B26" t="n">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C26" t="n">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="D26" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E26" t="n">
         <v>66</v>
@@ -894,16 +894,16 @@
         <v>43159</v>
       </c>
       <c r="B27" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C27" t="n">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D27" t="n">
         <v>77</v>
       </c>
       <c r="E27" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="28">
@@ -911,16 +911,16 @@
         <v>43190</v>
       </c>
       <c r="B28" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C28" t="n">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D28" t="n">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E28" t="n">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="29">
@@ -928,16 +928,16 @@
         <v>43220</v>
       </c>
       <c r="B29" t="n">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C29" t="n">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="D29" t="n">
         <v>100</v>
       </c>
       <c r="E29" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="30">
@@ -945,10 +945,10 @@
         <v>43251</v>
       </c>
       <c r="B30" t="n">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C30" t="n">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="D30" t="n">
         <v>93</v>
@@ -962,13 +962,13 @@
         <v>43281</v>
       </c>
       <c r="B31" t="n">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C31" t="n">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="D31" t="n">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E31" t="n">
         <v>70</v>
@@ -979,13 +979,13 @@
         <v>43312</v>
       </c>
       <c r="B32" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C32" t="n">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="D32" t="n">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E32" t="n">
         <v>66</v>
@@ -996,16 +996,16 @@
         <v>43343</v>
       </c>
       <c r="B33" t="n">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C33" t="n">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="D33" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E33" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="34">
@@ -1013,10 +1013,10 @@
         <v>43373</v>
       </c>
       <c r="B34" t="n">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C34" t="n">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="D34" t="n">
         <v>75</v>
@@ -1030,10 +1030,10 @@
         <v>43404</v>
       </c>
       <c r="B35" t="n">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C35" t="n">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="D35" t="n">
         <v>81</v>
@@ -1047,16 +1047,16 @@
         <v>43434</v>
       </c>
       <c r="B36" t="n">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C36" t="n">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D36" t="n">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E36" t="n">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="37">
@@ -1064,13 +1064,13 @@
         <v>43465</v>
       </c>
       <c r="B37" t="n">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C37" t="n">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="D37" t="n">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E37" t="n">
         <v>58</v>
@@ -1081,16 +1081,16 @@
         <v>43496</v>
       </c>
       <c r="B38" t="n">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C38" t="n">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="D38" t="n">
         <v>75</v>
       </c>
       <c r="E38" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="39">
@@ -1101,10 +1101,10 @@
         <v>67</v>
       </c>
       <c r="C39" t="n">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D39" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E39" t="n">
         <v>63</v>
@@ -1115,16 +1115,16 @@
         <v>43555</v>
       </c>
       <c r="B40" t="n">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C40" t="n">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="D40" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E40" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="41">
@@ -1132,16 +1132,16 @@
         <v>43585</v>
       </c>
       <c r="B41" t="n">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C41" t="n">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="D41" t="n">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E41" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="42">
@@ -1149,13 +1149,13 @@
         <v>43616</v>
       </c>
       <c r="B42" t="n">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C42" t="n">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="D42" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E42" t="n">
         <v>77</v>
@@ -1166,16 +1166,16 @@
         <v>43646</v>
       </c>
       <c r="B43" t="n">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C43" t="n">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="D43" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E43" t="n">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="44">
@@ -1183,10 +1183,10 @@
         <v>43677</v>
       </c>
       <c r="B44" t="n">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C44" t="n">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="D44" t="n">
         <v>59</v>
@@ -1200,13 +1200,13 @@
         <v>43708</v>
       </c>
       <c r="B45" t="n">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C45" t="n">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="D45" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E45" t="n">
         <v>57</v>
@@ -1217,16 +1217,16 @@
         <v>43738</v>
       </c>
       <c r="B46" t="n">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C46" t="n">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="D46" t="n">
+        <v>63</v>
+      </c>
+      <c r="E46" t="n">
         <v>64</v>
-      </c>
-      <c r="E46" t="n">
-        <v>63</v>
       </c>
     </row>
     <row r="47">
@@ -1234,16 +1234,16 @@
         <v>43769</v>
       </c>
       <c r="B47" t="n">
+        <v>65</v>
+      </c>
+      <c r="C47" t="n">
+        <v>70</v>
+      </c>
+      <c r="D47" t="n">
         <v>66</v>
       </c>
-      <c r="C47" t="n">
-        <v>77</v>
-      </c>
-      <c r="D47" t="n">
-        <v>67</v>
-      </c>
       <c r="E47" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="48">
@@ -1251,16 +1251,16 @@
         <v>43799</v>
       </c>
       <c r="B48" t="n">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C48" t="n">
         <v>100</v>
       </c>
       <c r="D48" t="n">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E48" t="n">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="49">
@@ -1268,16 +1268,16 @@
         <v>43830</v>
       </c>
       <c r="B49" t="n">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C49" t="n">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="D49" t="n">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E49" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="50">
@@ -1285,10 +1285,10 @@
         <v>43861</v>
       </c>
       <c r="B50" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C50" t="n">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="D50" t="n">
         <v>64</v>
@@ -1302,16 +1302,16 @@
         <v>43890</v>
       </c>
       <c r="B51" t="n">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C51" t="n">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="D51" t="n">
         <v>64</v>
       </c>
       <c r="E51" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="52">
@@ -1319,16 +1319,16 @@
         <v>43921</v>
       </c>
       <c r="B52" t="n">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C52" t="n">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="D52" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E52" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="53">
@@ -1336,10 +1336,10 @@
         <v>43951</v>
       </c>
       <c r="B53" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C53" t="n">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="D53" t="n">
         <v>72</v>
@@ -1353,10 +1353,10 @@
         <v>43982</v>
       </c>
       <c r="B54" t="n">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C54" t="n">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="D54" t="n">
         <v>62</v>
@@ -1370,7 +1370,7 @@
         <v>44012</v>
       </c>
       <c r="B55" t="n">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C55" t="n">
         <v>82</v>
@@ -1387,13 +1387,13 @@
         <v>44043</v>
       </c>
       <c r="B56" t="n">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C56" t="n">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D56" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E56" t="n">
         <v>66</v>
@@ -1404,16 +1404,16 @@
         <v>44074</v>
       </c>
       <c r="B57" t="n">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C57" t="n">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="D57" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E57" t="n">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="58">
@@ -1421,10 +1421,10 @@
         <v>44104</v>
       </c>
       <c r="B58" t="n">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C58" t="n">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D58" t="n">
         <v>43</v>
@@ -1438,16 +1438,16 @@
         <v>44135</v>
       </c>
       <c r="B59" t="n">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C59" t="n">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="D59" t="n">
         <v>43</v>
       </c>
       <c r="E59" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="60">
@@ -1458,10 +1458,10 @@
         <v>60</v>
       </c>
       <c r="C60" t="n">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="D60" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E60" t="n">
         <v>61</v>
@@ -1472,16 +1472,16 @@
         <v>44196</v>
       </c>
       <c r="B61" t="n">
+        <v>50</v>
+      </c>
+      <c r="C61" t="n">
         <v>53</v>
-      </c>
-      <c r="C61" t="n">
-        <v>60</v>
       </c>
       <c r="D61" t="n">
         <v>47</v>
       </c>
       <c r="E61" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="62">
@@ -1489,10 +1489,10 @@
         <v>44227</v>
       </c>
       <c r="B62" t="n">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C62" t="n">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D62" t="n">
         <v>39</v>
@@ -1506,16 +1506,16 @@
         <v>44255</v>
       </c>
       <c r="B63" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C63" t="n">
+        <v>40</v>
+      </c>
+      <c r="D63" t="n">
+        <v>37</v>
+      </c>
+      <c r="E63" t="n">
         <v>45</v>
-      </c>
-      <c r="D63" t="n">
-        <v>38</v>
-      </c>
-      <c r="E63" t="n">
-        <v>46</v>
       </c>
     </row>
     <row r="64">
@@ -1523,13 +1523,13 @@
         <v>44286</v>
       </c>
       <c r="B64" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C64" t="n">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D64" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E64" t="n">
         <v>50</v>
@@ -1540,7 +1540,7 @@
         <v>44316</v>
       </c>
       <c r="B65" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C65" t="n">
         <v>64</v>
@@ -1549,7 +1549,7 @@
         <v>40</v>
       </c>
       <c r="E65" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="66">
@@ -1557,16 +1557,16 @@
         <v>44347</v>
       </c>
       <c r="B66" t="n">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C66" t="n">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="D66" t="n">
         <v>42</v>
       </c>
       <c r="E66" t="n">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="67">
@@ -1574,10 +1574,10 @@
         <v>44377</v>
       </c>
       <c r="B67" t="n">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C67" t="n">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="D67" t="n">
         <v>45</v>
@@ -1591,16 +1591,16 @@
         <v>44408</v>
       </c>
       <c r="B68" t="n">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C68" t="n">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D68" t="n">
         <v>30</v>
       </c>
       <c r="E68" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="69">
@@ -1608,16 +1608,16 @@
         <v>44439</v>
       </c>
       <c r="B69" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C69" t="n">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D69" t="n">
         <v>38</v>
       </c>
       <c r="E69" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="70">
@@ -1628,7 +1628,7 @@
         <v>58</v>
       </c>
       <c r="C70" t="n">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="D70" t="n">
         <v>36</v>
@@ -1642,10 +1642,10 @@
         <v>44500</v>
       </c>
       <c r="B71" t="n">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C71" t="n">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="D71" t="n">
         <v>43</v>
@@ -1659,16 +1659,16 @@
         <v>44530</v>
       </c>
       <c r="B72" t="n">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C72" t="n">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="D72" t="n">
         <v>49</v>
       </c>
       <c r="E72" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="73">
@@ -1676,10 +1676,10 @@
         <v>44561</v>
       </c>
       <c r="B73" t="n">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C73" t="n">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="D73" t="n">
         <v>43</v>
@@ -1693,10 +1693,10 @@
         <v>44592</v>
       </c>
       <c r="B74" t="n">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C74" t="n">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="D74" t="n">
         <v>32</v>
@@ -1710,10 +1710,10 @@
         <v>44620</v>
       </c>
       <c r="B75" t="n">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C75" t="n">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D75" t="n">
         <v>39</v>
@@ -1727,13 +1727,13 @@
         <v>44651</v>
       </c>
       <c r="B76" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C76" t="n">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D76" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E76" t="n">
         <v>57</v>
@@ -1744,16 +1744,16 @@
         <v>44681</v>
       </c>
       <c r="B77" t="n">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C77" t="n">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="D77" t="n">
         <v>45</v>
       </c>
       <c r="E77" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="78">
@@ -1761,10 +1761,10 @@
         <v>44712</v>
       </c>
       <c r="B78" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C78" t="n">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D78" t="n">
         <v>43</v>
@@ -1781,13 +1781,13 @@
         <v>43</v>
       </c>
       <c r="C79" t="n">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D79" t="n">
         <v>37</v>
       </c>
       <c r="E79" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="80">
@@ -1795,16 +1795,16 @@
         <v>44773</v>
       </c>
       <c r="B80" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C80" t="n">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D80" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E80" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="81">
@@ -1812,16 +1812,16 @@
         <v>44804</v>
       </c>
       <c r="B81" t="n">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C81" t="n">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D81" t="n">
         <v>28</v>
       </c>
       <c r="E81" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="82">
@@ -1829,16 +1829,16 @@
         <v>44834</v>
       </c>
       <c r="B82" t="n">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C82" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D82" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E82" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="83">
@@ -1846,16 +1846,16 @@
         <v>44865</v>
       </c>
       <c r="B83" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C83" t="n">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D83" t="n">
         <v>30</v>
       </c>
       <c r="E83" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="84">
@@ -1863,16 +1863,16 @@
         <v>44895</v>
       </c>
       <c r="B84" t="n">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C84" t="n">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="D84" t="n">
         <v>39</v>
       </c>
       <c r="E84" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="85">
@@ -1880,10 +1880,10 @@
         <v>44926</v>
       </c>
       <c r="B85" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C85" t="n">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="D85" t="n">
         <v>40</v>
@@ -1897,16 +1897,16 @@
         <v>44957</v>
       </c>
       <c r="B86" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C86" t="n">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D86" t="n">
         <v>31</v>
       </c>
       <c r="E86" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="87">
@@ -1914,10 +1914,10 @@
         <v>44985</v>
       </c>
       <c r="B87" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C87" t="n">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D87" t="n">
         <v>28</v>
@@ -1931,13 +1931,13 @@
         <v>45016</v>
       </c>
       <c r="B88" t="n">
+        <v>32</v>
+      </c>
+      <c r="C88" t="n">
+        <v>35</v>
+      </c>
+      <c r="D88" t="n">
         <v>33</v>
-      </c>
-      <c r="C88" t="n">
-        <v>39</v>
-      </c>
-      <c r="D88" t="n">
-        <v>32</v>
       </c>
       <c r="E88" t="n">
         <v>47</v>
@@ -1948,16 +1948,16 @@
         <v>45046</v>
       </c>
       <c r="B89" t="n">
+        <v>31</v>
+      </c>
+      <c r="C89" t="n">
         <v>35</v>
-      </c>
-      <c r="C89" t="n">
-        <v>41</v>
       </c>
       <c r="D89" t="n">
         <v>40</v>
       </c>
       <c r="E89" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="90">
@@ -1968,10 +1968,10 @@
         <v>38</v>
       </c>
       <c r="C90" t="n">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D90" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E90" t="n">
         <v>45</v>
@@ -1982,10 +1982,10 @@
         <v>45107</v>
       </c>
       <c r="B91" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C91" t="n">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D91" t="n">
         <v>29</v>
@@ -1999,13 +1999,13 @@
         <v>45138</v>
       </c>
       <c r="B92" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C92" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D92" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E92" t="n">
         <v>32</v>
@@ -2016,16 +2016,16 @@
         <v>45169</v>
       </c>
       <c r="B93" t="n">
+        <v>26</v>
+      </c>
+      <c r="C93" t="n">
         <v>29</v>
-      </c>
-      <c r="C93" t="n">
-        <v>33</v>
       </c>
       <c r="D93" t="n">
         <v>24</v>
       </c>
       <c r="E93" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="94">
@@ -2033,16 +2033,16 @@
         <v>45199</v>
       </c>
       <c r="B94" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C94" t="n">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D94" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E94" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="95">
@@ -2050,10 +2050,10 @@
         <v>45230</v>
       </c>
       <c r="B95" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C95" t="n">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D95" t="n">
         <v>34</v>
@@ -2067,16 +2067,16 @@
         <v>45260</v>
       </c>
       <c r="B96" t="n">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C96" t="n">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="D96" t="n">
         <v>41</v>
       </c>
       <c r="E96" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="97">
@@ -2084,10 +2084,10 @@
         <v>45291</v>
       </c>
       <c r="B97" t="n">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C97" t="n">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D97" t="n">
         <v>38</v>
@@ -2101,10 +2101,10 @@
         <v>45322</v>
       </c>
       <c r="B98" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C98" t="n">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D98" t="n">
         <v>33</v>
@@ -2118,10 +2118,10 @@
         <v>45351</v>
       </c>
       <c r="B99" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C99" t="n">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D99" t="n">
         <v>31</v>
@@ -2138,13 +2138,13 @@
         <v>31</v>
       </c>
       <c r="C100" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D100" t="n">
         <v>39</v>
       </c>
       <c r="E100" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="101">
@@ -2152,10 +2152,10 @@
         <v>45412</v>
       </c>
       <c r="B101" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C101" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D101" t="n">
         <v>43</v>
@@ -2172,10 +2172,10 @@
         <v>42</v>
       </c>
       <c r="C102" t="n">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D102" t="n">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E102" t="n">
         <v>43</v>
@@ -2186,10 +2186,10 @@
         <v>45473</v>
       </c>
       <c r="B103" t="n">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C103" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D103" t="n">
         <v>41</v>
@@ -2203,10 +2203,10 @@
         <v>45504</v>
       </c>
       <c r="B104" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C104" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D104" t="n">
         <v>27</v>
@@ -2220,10 +2220,10 @@
         <v>45535</v>
       </c>
       <c r="B105" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C105" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D105" t="n">
         <v>37</v>
@@ -2240,13 +2240,13 @@
         <v>33</v>
       </c>
       <c r="C106" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D106" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E106" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="107">
@@ -2254,10 +2254,10 @@
         <v>45596</v>
       </c>
       <c r="B107" t="n">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C107" t="n">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D107" t="n">
         <v>54</v>
@@ -2271,16 +2271,16 @@
         <v>45626</v>
       </c>
       <c r="B108" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C108" t="n">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="D108" t="n">
         <v>62</v>
       </c>
       <c r="E108" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="109">
@@ -2288,16 +2288,16 @@
         <v>45657</v>
       </c>
       <c r="B109" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C109" t="n">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D109" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E109" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="110">
@@ -2305,16 +2305,16 @@
         <v>45688</v>
       </c>
       <c r="B110" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C110" t="n">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D110" t="n">
         <v>51</v>
       </c>
       <c r="E110" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="111">
@@ -2322,16 +2322,16 @@
         <v>45716</v>
       </c>
       <c r="B111" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C111" t="n">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D111" t="n">
         <v>45</v>
       </c>
       <c r="E111" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="112">
@@ -2339,13 +2339,13 @@
         <v>45747</v>
       </c>
       <c r="B112" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C112" t="n">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="D112" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E112" t="n">
         <v>35</v>
@@ -2356,16 +2356,16 @@
         <v>45777</v>
       </c>
       <c r="B113" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C113" t="n">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="D113" t="n">
         <v>51</v>
       </c>
       <c r="E113" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="114">
@@ -2376,13 +2376,13 @@
         <v>43</v>
       </c>
       <c r="C114" t="n">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="D114" t="n">
         <v>52</v>
       </c>
       <c r="E114" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="115">
@@ -2390,16 +2390,16 @@
         <v>45838</v>
       </c>
       <c r="B115" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C115" t="n">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D115" t="n">
         <v>42</v>
       </c>
       <c r="E115" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="116">
@@ -2407,16 +2407,16 @@
         <v>45869</v>
       </c>
       <c r="B116" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C116" t="n">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D116" t="n">
         <v>32</v>
       </c>
       <c r="E116" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="117">
@@ -2424,10 +2424,10 @@
         <v>45900</v>
       </c>
       <c r="B117" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C117" t="n">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="D117" t="n">
         <v>53</v>
@@ -2441,13 +2441,13 @@
         <v>45930</v>
       </c>
       <c r="B118" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C118" t="n">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="D118" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E118" t="n">
         <v>36</v>
@@ -2458,13 +2458,13 @@
         <v>45961</v>
       </c>
       <c r="B119" t="n">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C119" t="n">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D119" t="n">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="E119" t="n">
         <v>35</v>

--- a/data/nelly_trends_monthly.xlsx
+++ b/data/nelly_trends_monthly.xlsx
@@ -469,16 +469,16 @@
         <v>42400</v>
       </c>
       <c r="B2" t="n">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C2" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D2" t="n">
         <v>84</v>
       </c>
       <c r="E2" t="n">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         <v>42429</v>
       </c>
       <c r="B3" t="n">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C3" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D3" t="n">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E3" t="n">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         <v>42460</v>
       </c>
       <c r="B4" t="n">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C4" t="n">
         <v>56</v>
@@ -512,7 +512,7 @@
         <v>82</v>
       </c>
       <c r="E4" t="n">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5">
@@ -520,16 +520,16 @@
         <v>42490</v>
       </c>
       <c r="B5" t="n">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C5" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D5" t="n">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E5" t="n">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6">
@@ -540,10 +540,10 @@
         <v>100</v>
       </c>
       <c r="C6" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D6" t="n">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E6" t="n">
         <v>100</v>
@@ -554,7 +554,7 @@
         <v>42551</v>
       </c>
       <c r="B7" t="n">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C7" t="n">
         <v>68</v>
@@ -563,7 +563,7 @@
         <v>70</v>
       </c>
       <c r="E7" t="n">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8">
@@ -574,13 +574,13 @@
         <v>70</v>
       </c>
       <c r="C8" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D8" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E8" t="n">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9">
@@ -588,16 +588,16 @@
         <v>42613</v>
       </c>
       <c r="B9" t="n">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C9" t="n">
         <v>51</v>
       </c>
       <c r="D9" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E9" t="n">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10">
@@ -605,16 +605,16 @@
         <v>42643</v>
       </c>
       <c r="B10" t="n">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C10" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D10" t="n">
         <v>59</v>
       </c>
       <c r="E10" t="n">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11">
@@ -625,13 +625,13 @@
         <v>75</v>
       </c>
       <c r="C11" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D11" t="n">
         <v>69</v>
       </c>
       <c r="E11" t="n">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12">
@@ -639,16 +639,16 @@
         <v>42704</v>
       </c>
       <c r="B12" t="n">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C12" t="n">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D12" t="n">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E12" t="n">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="13">
@@ -659,13 +659,13 @@
         <v>93</v>
       </c>
       <c r="C13" t="n">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D13" t="n">
         <v>76</v>
       </c>
       <c r="E13" t="n">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14">
@@ -673,13 +673,13 @@
         <v>42766</v>
       </c>
       <c r="B14" t="n">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C14" t="n">
         <v>58</v>
       </c>
       <c r="D14" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E14" t="n">
         <v>75</v>
@@ -690,10 +690,10 @@
         <v>42794</v>
       </c>
       <c r="B15" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C15" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D15" t="n">
         <v>65</v>
@@ -707,10 +707,10 @@
         <v>42825</v>
       </c>
       <c r="B16" t="n">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C16" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D16" t="n">
         <v>75</v>
@@ -724,16 +724,16 @@
         <v>42855</v>
       </c>
       <c r="B17" t="n">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="C17" t="n">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D17" t="n">
         <v>86</v>
       </c>
       <c r="E17" t="n">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18">
@@ -741,16 +741,16 @@
         <v>42886</v>
       </c>
       <c r="B18" t="n">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C18" t="n">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D18" t="n">
         <v>75</v>
       </c>
       <c r="E18" t="n">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="19">
@@ -758,10 +758,10 @@
         <v>42916</v>
       </c>
       <c r="B19" t="n">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C19" t="n">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D19" t="n">
         <v>72</v>
@@ -775,13 +775,13 @@
         <v>42947</v>
       </c>
       <c r="B20" t="n">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C20" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D20" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E20" t="n">
         <v>64</v>
@@ -792,16 +792,16 @@
         <v>42978</v>
       </c>
       <c r="B21" t="n">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C21" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D21" t="n">
+        <v>62</v>
+      </c>
+      <c r="E21" t="n">
         <v>61</v>
-      </c>
-      <c r="E21" t="n">
-        <v>59</v>
       </c>
     </row>
     <row r="22">
@@ -812,13 +812,13 @@
         <v>72</v>
       </c>
       <c r="C22" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D22" t="n">
         <v>70</v>
       </c>
       <c r="E22" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="23">
@@ -826,13 +826,13 @@
         <v>43039</v>
       </c>
       <c r="B23" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C23" t="n">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D23" t="n">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E23" t="n">
         <v>74</v>
@@ -843,16 +843,16 @@
         <v>43069</v>
       </c>
       <c r="B24" t="n">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C24" t="n">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D24" t="n">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E24" t="n">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="25">
@@ -860,16 +860,16 @@
         <v>43100</v>
       </c>
       <c r="B25" t="n">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C25" t="n">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D25" t="n">
         <v>87</v>
       </c>
       <c r="E25" t="n">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="26">
@@ -877,13 +877,13 @@
         <v>43131</v>
       </c>
       <c r="B26" t="n">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C26" t="n">
         <v>53</v>
       </c>
       <c r="D26" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E26" t="n">
         <v>66</v>
@@ -900,10 +900,10 @@
         <v>51</v>
       </c>
       <c r="D27" t="n">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E27" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="28">
@@ -911,7 +911,7 @@
         <v>43190</v>
       </c>
       <c r="B28" t="n">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C28" t="n">
         <v>49</v>
@@ -920,7 +920,7 @@
         <v>90</v>
       </c>
       <c r="E28" t="n">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="29">
@@ -928,16 +928,16 @@
         <v>43220</v>
       </c>
       <c r="B29" t="n">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="C29" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D29" t="n">
         <v>100</v>
       </c>
       <c r="E29" t="n">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="30">
@@ -945,16 +945,16 @@
         <v>43251</v>
       </c>
       <c r="B30" t="n">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C30" t="n">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D30" t="n">
         <v>93</v>
       </c>
       <c r="E30" t="n">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="31">
@@ -962,13 +962,13 @@
         <v>43281</v>
       </c>
       <c r="B31" t="n">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C31" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D31" t="n">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E31" t="n">
         <v>70</v>
@@ -979,16 +979,16 @@
         <v>43312</v>
       </c>
       <c r="B32" t="n">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C32" t="n">
         <v>54</v>
       </c>
       <c r="D32" t="n">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="E32" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="33">
@@ -999,13 +999,13 @@
         <v>59</v>
       </c>
       <c r="C33" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D33" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E33" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="34">
@@ -1013,10 +1013,10 @@
         <v>43373</v>
       </c>
       <c r="B34" t="n">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C34" t="n">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D34" t="n">
         <v>75</v>
@@ -1030,16 +1030,16 @@
         <v>43404</v>
       </c>
       <c r="B35" t="n">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C35" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D35" t="n">
         <v>81</v>
       </c>
       <c r="E35" t="n">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="36">
@@ -1047,16 +1047,16 @@
         <v>43434</v>
       </c>
       <c r="B36" t="n">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C36" t="n">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="D36" t="n">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E36" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="37">
@@ -1064,16 +1064,16 @@
         <v>43465</v>
       </c>
       <c r="B37" t="n">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C37" t="n">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="D37" t="n">
         <v>81</v>
       </c>
       <c r="E37" t="n">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="38">
@@ -1081,16 +1081,16 @@
         <v>43496</v>
       </c>
       <c r="B38" t="n">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C38" t="n">
         <v>60</v>
       </c>
       <c r="D38" t="n">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E38" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="39">
@@ -1098,13 +1098,13 @@
         <v>43524</v>
       </c>
       <c r="B39" t="n">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C39" t="n">
         <v>54</v>
       </c>
       <c r="D39" t="n">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E39" t="n">
         <v>63</v>
@@ -1121,7 +1121,7 @@
         <v>62</v>
       </c>
       <c r="D40" t="n">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E40" t="n">
         <v>63</v>
@@ -1132,13 +1132,13 @@
         <v>43585</v>
       </c>
       <c r="B41" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C41" t="n">
         <v>60</v>
       </c>
       <c r="D41" t="n">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E41" t="n">
         <v>65</v>
@@ -1149,16 +1149,16 @@
         <v>43616</v>
       </c>
       <c r="B42" t="n">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C42" t="n">
         <v>71</v>
       </c>
       <c r="D42" t="n">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E42" t="n">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="43">
@@ -1166,16 +1166,16 @@
         <v>43646</v>
       </c>
       <c r="B43" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C43" t="n">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D43" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E43" t="n">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="44">
@@ -1183,16 +1183,16 @@
         <v>43677</v>
       </c>
       <c r="B44" t="n">
+        <v>61</v>
+      </c>
+      <c r="C44" t="n">
+        <v>61</v>
+      </c>
+      <c r="D44" t="n">
+        <v>60</v>
+      </c>
+      <c r="E44" t="n">
         <v>62</v>
-      </c>
-      <c r="C44" t="n">
-        <v>60</v>
-      </c>
-      <c r="D44" t="n">
-        <v>59</v>
-      </c>
-      <c r="E44" t="n">
-        <v>61</v>
       </c>
     </row>
     <row r="45">
@@ -1209,7 +1209,7 @@
         <v>60</v>
       </c>
       <c r="E45" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="46">
@@ -1217,16 +1217,16 @@
         <v>43738</v>
       </c>
       <c r="B46" t="n">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C46" t="n">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="D46" t="n">
         <v>63</v>
       </c>
       <c r="E46" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="47">
@@ -1234,16 +1234,16 @@
         <v>43769</v>
       </c>
       <c r="B47" t="n">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C47" t="n">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D47" t="n">
         <v>66</v>
       </c>
       <c r="E47" t="n">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="48">
@@ -1251,7 +1251,7 @@
         <v>43799</v>
       </c>
       <c r="B48" t="n">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C48" t="n">
         <v>100</v>
@@ -1268,16 +1268,16 @@
         <v>43830</v>
       </c>
       <c r="B49" t="n">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C49" t="n">
         <v>76</v>
       </c>
       <c r="D49" t="n">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E49" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="50">
@@ -1288,7 +1288,7 @@
         <v>58</v>
       </c>
       <c r="C50" t="n">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="D50" t="n">
         <v>64</v>
@@ -1305,13 +1305,13 @@
         <v>56</v>
       </c>
       <c r="C51" t="n">
+        <v>66</v>
+      </c>
+      <c r="D51" t="n">
         <v>63</v>
       </c>
-      <c r="D51" t="n">
-        <v>64</v>
-      </c>
       <c r="E51" t="n">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="52">
@@ -1319,16 +1319,16 @@
         <v>43921</v>
       </c>
       <c r="B52" t="n">
+        <v>57</v>
+      </c>
+      <c r="C52" t="n">
+        <v>65</v>
+      </c>
+      <c r="D52" t="n">
         <v>58</v>
       </c>
-      <c r="C52" t="n">
-        <v>64</v>
-      </c>
-      <c r="D52" t="n">
-        <v>59</v>
-      </c>
       <c r="E52" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="53">
@@ -1336,16 +1336,16 @@
         <v>43951</v>
       </c>
       <c r="B53" t="n">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C53" t="n">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D53" t="n">
         <v>72</v>
       </c>
       <c r="E53" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="54">
@@ -1353,16 +1353,16 @@
         <v>43982</v>
       </c>
       <c r="B54" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C54" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D54" t="n">
         <v>62</v>
       </c>
       <c r="E54" t="n">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="55">
@@ -1373,13 +1373,13 @@
         <v>68</v>
       </c>
       <c r="C55" t="n">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D55" t="n">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E55" t="n">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="56">
@@ -1387,16 +1387,16 @@
         <v>44043</v>
       </c>
       <c r="B56" t="n">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C56" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D56" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E56" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="57">
@@ -1404,7 +1404,7 @@
         <v>44074</v>
       </c>
       <c r="B57" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C57" t="n">
         <v>60</v>
@@ -1421,16 +1421,16 @@
         <v>44104</v>
       </c>
       <c r="B58" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C58" t="n">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="D58" t="n">
         <v>43</v>
       </c>
       <c r="E58" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="59">
@@ -1438,16 +1438,16 @@
         <v>44135</v>
       </c>
       <c r="B59" t="n">
+        <v>61</v>
+      </c>
+      <c r="C59" t="n">
         <v>62</v>
-      </c>
-      <c r="C59" t="n">
-        <v>61</v>
       </c>
       <c r="D59" t="n">
         <v>43</v>
       </c>
       <c r="E59" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="60">
@@ -1455,16 +1455,16 @@
         <v>44165</v>
       </c>
       <c r="B60" t="n">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C60" t="n">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D60" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E60" t="n">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="61">
@@ -1472,10 +1472,10 @@
         <v>44196</v>
       </c>
       <c r="B61" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C61" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D61" t="n">
         <v>47</v>
@@ -1498,7 +1498,7 @@
         <v>39</v>
       </c>
       <c r="E62" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="63">
@@ -1506,7 +1506,7 @@
         <v>44255</v>
       </c>
       <c r="B63" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C63" t="n">
         <v>40</v>
@@ -1523,10 +1523,10 @@
         <v>44286</v>
       </c>
       <c r="B64" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C64" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D64" t="n">
         <v>37</v>
@@ -1540,16 +1540,16 @@
         <v>44316</v>
       </c>
       <c r="B65" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C65" t="n">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D65" t="n">
         <v>40</v>
       </c>
       <c r="E65" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="66">
@@ -1557,16 +1557,16 @@
         <v>44347</v>
       </c>
       <c r="B66" t="n">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C66" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D66" t="n">
         <v>42</v>
       </c>
       <c r="E66" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="67">
@@ -1574,16 +1574,16 @@
         <v>44377</v>
       </c>
       <c r="B67" t="n">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C67" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D67" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E67" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="68">
@@ -1591,16 +1591,16 @@
         <v>44408</v>
       </c>
       <c r="B68" t="n">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C68" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D68" t="n">
         <v>30</v>
       </c>
       <c r="E68" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="69">
@@ -1608,7 +1608,7 @@
         <v>44439</v>
       </c>
       <c r="B69" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C69" t="n">
         <v>48</v>
@@ -1617,7 +1617,7 @@
         <v>38</v>
       </c>
       <c r="E69" t="n">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="70">
@@ -1625,16 +1625,16 @@
         <v>44469</v>
       </c>
       <c r="B70" t="n">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C70" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D70" t="n">
         <v>36</v>
       </c>
       <c r="E70" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="71">
@@ -1642,16 +1642,16 @@
         <v>44500</v>
       </c>
       <c r="B71" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C71" t="n">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D71" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E71" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="72">
@@ -1659,16 +1659,16 @@
         <v>44530</v>
       </c>
       <c r="B72" t="n">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C72" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D72" t="n">
         <v>49</v>
       </c>
       <c r="E72" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="73">
@@ -1682,10 +1682,10 @@
         <v>66</v>
       </c>
       <c r="D73" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E73" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="74">
@@ -1693,10 +1693,10 @@
         <v>44592</v>
       </c>
       <c r="B74" t="n">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C74" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D74" t="n">
         <v>32</v>
@@ -1733,10 +1733,10 @@
         <v>49</v>
       </c>
       <c r="D76" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E76" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="77">
@@ -1744,16 +1744,16 @@
         <v>44681</v>
       </c>
       <c r="B77" t="n">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C77" t="n">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D77" t="n">
         <v>45</v>
       </c>
       <c r="E77" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="78">
@@ -1761,16 +1761,16 @@
         <v>44712</v>
       </c>
       <c r="B78" t="n">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C78" t="n">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D78" t="n">
         <v>43</v>
       </c>
       <c r="E78" t="n">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="79">
@@ -1778,7 +1778,7 @@
         <v>44742</v>
       </c>
       <c r="B79" t="n">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C79" t="n">
         <v>51</v>
@@ -1787,7 +1787,7 @@
         <v>37</v>
       </c>
       <c r="E79" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="80">
@@ -1795,16 +1795,16 @@
         <v>44773</v>
       </c>
       <c r="B80" t="n">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C80" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D80" t="n">
         <v>27</v>
       </c>
       <c r="E80" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="81">
@@ -1812,7 +1812,7 @@
         <v>44804</v>
       </c>
       <c r="B81" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C81" t="n">
         <v>42</v>
@@ -1821,7 +1821,7 @@
         <v>28</v>
       </c>
       <c r="E81" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="82">
@@ -1832,13 +1832,13 @@
         <v>37</v>
       </c>
       <c r="C82" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D82" t="n">
         <v>29</v>
       </c>
       <c r="E82" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="83">
@@ -1846,7 +1846,7 @@
         <v>44865</v>
       </c>
       <c r="B83" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C83" t="n">
         <v>49</v>
@@ -1863,16 +1863,16 @@
         <v>44895</v>
       </c>
       <c r="B84" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C84" t="n">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="D84" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E84" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="85">
@@ -1880,16 +1880,16 @@
         <v>44926</v>
       </c>
       <c r="B85" t="n">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C85" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D85" t="n">
         <v>40</v>
       </c>
       <c r="E85" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="86">
@@ -1900,7 +1900,7 @@
         <v>31</v>
       </c>
       <c r="C86" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D86" t="n">
         <v>31</v>
@@ -1914,10 +1914,10 @@
         <v>44985</v>
       </c>
       <c r="B87" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C87" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D87" t="n">
         <v>28</v>
@@ -1931,16 +1931,16 @@
         <v>45016</v>
       </c>
       <c r="B88" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C88" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D88" t="n">
         <v>33</v>
       </c>
       <c r="E88" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="89">
@@ -1948,7 +1948,7 @@
         <v>45046</v>
       </c>
       <c r="B89" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C89" t="n">
         <v>35</v>
@@ -1965,13 +1965,13 @@
         <v>45077</v>
       </c>
       <c r="B90" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C90" t="n">
         <v>41</v>
       </c>
       <c r="D90" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E90" t="n">
         <v>45</v>
@@ -1982,10 +1982,10 @@
         <v>45107</v>
       </c>
       <c r="B91" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C91" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D91" t="n">
         <v>29</v>
@@ -1999,13 +1999,13 @@
         <v>45138</v>
       </c>
       <c r="B92" t="n">
+        <v>23</v>
+      </c>
+      <c r="C92" t="n">
+        <v>26</v>
+      </c>
+      <c r="D92" t="n">
         <v>24</v>
-      </c>
-      <c r="C92" t="n">
-        <v>25</v>
-      </c>
-      <c r="D92" t="n">
-        <v>23</v>
       </c>
       <c r="E92" t="n">
         <v>32</v>
@@ -2016,10 +2016,10 @@
         <v>45169</v>
       </c>
       <c r="B93" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C93" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D93" t="n">
         <v>24</v>
@@ -2033,10 +2033,10 @@
         <v>45199</v>
       </c>
       <c r="B94" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C94" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D94" t="n">
         <v>31</v>
@@ -2050,7 +2050,7 @@
         <v>45230</v>
       </c>
       <c r="B95" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C95" t="n">
         <v>34</v>
@@ -2070,13 +2070,13 @@
         <v>38</v>
       </c>
       <c r="C96" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D96" t="n">
         <v>41</v>
       </c>
       <c r="E96" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="97">
@@ -2084,10 +2084,10 @@
         <v>45291</v>
       </c>
       <c r="B97" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C97" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D97" t="n">
         <v>38</v>
@@ -2110,7 +2110,7 @@
         <v>33</v>
       </c>
       <c r="E98" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="99">
@@ -2135,16 +2135,16 @@
         <v>45382</v>
       </c>
       <c r="B100" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C100" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D100" t="n">
         <v>39</v>
       </c>
       <c r="E100" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="101">
@@ -2152,13 +2152,13 @@
         <v>45412</v>
       </c>
       <c r="B101" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C101" t="n">
         <v>38</v>
       </c>
       <c r="D101" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E101" t="n">
         <v>36</v>
@@ -2169,13 +2169,13 @@
         <v>45443</v>
       </c>
       <c r="B102" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C102" t="n">
         <v>44</v>
       </c>
       <c r="D102" t="n">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E102" t="n">
         <v>43</v>
@@ -2195,7 +2195,7 @@
         <v>41</v>
       </c>
       <c r="E103" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="104">
@@ -2203,7 +2203,7 @@
         <v>45504</v>
       </c>
       <c r="B104" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C104" t="n">
         <v>32</v>
@@ -2212,7 +2212,7 @@
         <v>27</v>
       </c>
       <c r="E104" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="105">
@@ -2220,7 +2220,7 @@
         <v>45535</v>
       </c>
       <c r="B105" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C105" t="n">
         <v>35</v>
@@ -2229,7 +2229,7 @@
         <v>37</v>
       </c>
       <c r="E105" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="106">
@@ -2243,10 +2243,10 @@
         <v>40</v>
       </c>
       <c r="D106" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E106" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="107">
@@ -2254,10 +2254,10 @@
         <v>45596</v>
       </c>
       <c r="B107" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C107" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D107" t="n">
         <v>54</v>
@@ -2277,10 +2277,10 @@
         <v>59</v>
       </c>
       <c r="D108" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E108" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="109">
@@ -2288,16 +2288,16 @@
         <v>45657</v>
       </c>
       <c r="B109" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C109" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D109" t="n">
         <v>54</v>
       </c>
       <c r="E109" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="110">
@@ -2305,16 +2305,16 @@
         <v>45688</v>
       </c>
       <c r="B110" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C110" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D110" t="n">
         <v>51</v>
       </c>
       <c r="E110" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="111">
@@ -2322,10 +2322,10 @@
         <v>45716</v>
       </c>
       <c r="B111" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C111" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D111" t="n">
         <v>45</v>
@@ -2339,16 +2339,16 @@
         <v>45747</v>
       </c>
       <c r="B112" t="n">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C112" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D112" t="n">
         <v>53</v>
       </c>
       <c r="E112" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="113">
@@ -2356,13 +2356,13 @@
         <v>45777</v>
       </c>
       <c r="B113" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C113" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D113" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E113" t="n">
         <v>41</v>
@@ -2373,7 +2373,7 @@
         <v>45808</v>
       </c>
       <c r="B114" t="n">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C114" t="n">
         <v>53</v>
@@ -2399,7 +2399,7 @@
         <v>42</v>
       </c>
       <c r="E115" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="116">
@@ -2410,7 +2410,7 @@
         <v>30</v>
       </c>
       <c r="C116" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D116" t="n">
         <v>32</v>
@@ -2424,10 +2424,10 @@
         <v>45900</v>
       </c>
       <c r="B117" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C117" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D117" t="n">
         <v>53</v>
@@ -2441,7 +2441,7 @@
         <v>45930</v>
       </c>
       <c r="B118" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C118" t="n">
         <v>46</v>
@@ -2458,16 +2458,16 @@
         <v>45961</v>
       </c>
       <c r="B119" t="n">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C119" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D119" t="n">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="E119" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/data/nelly_trends_monthly.xlsx
+++ b/data/nelly_trends_monthly.xlsx
@@ -469,7 +469,7 @@
         <v>42400</v>
       </c>
       <c r="B2" t="n">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C2" t="n">
         <v>65</v>
@@ -486,7 +486,7 @@
         <v>42429</v>
       </c>
       <c r="B3" t="n">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C3" t="n">
         <v>53</v>
@@ -495,7 +495,7 @@
         <v>78</v>
       </c>
       <c r="E3" t="n">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4">
@@ -503,16 +503,16 @@
         <v>42460</v>
       </c>
       <c r="B4" t="n">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C4" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D4" t="n">
         <v>82</v>
       </c>
       <c r="E4" t="n">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5">
@@ -520,16 +520,16 @@
         <v>42490</v>
       </c>
       <c r="B5" t="n">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="C5" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D5" t="n">
         <v>89</v>
       </c>
       <c r="E5" t="n">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6">
@@ -537,10 +537,10 @@
         <v>42521</v>
       </c>
       <c r="B6" t="n">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C6" t="n">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D6" t="n">
         <v>83</v>
@@ -554,16 +554,16 @@
         <v>42551</v>
       </c>
       <c r="B7" t="n">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="C7" t="n">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D7" t="n">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E7" t="n">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8">
@@ -571,16 +571,16 @@
         <v>42582</v>
       </c>
       <c r="B8" t="n">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C8" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D8" t="n">
         <v>55</v>
       </c>
       <c r="E8" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9">
@@ -588,16 +588,16 @@
         <v>42613</v>
       </c>
       <c r="B9" t="n">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="C9" t="n">
+        <v>52</v>
+      </c>
+      <c r="D9" t="n">
         <v>51</v>
       </c>
-      <c r="D9" t="n">
-        <v>50</v>
-      </c>
       <c r="E9" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10">
@@ -605,7 +605,7 @@
         <v>42643</v>
       </c>
       <c r="B10" t="n">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C10" t="n">
         <v>60</v>
@@ -622,16 +622,16 @@
         <v>42674</v>
       </c>
       <c r="B11" t="n">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="C11" t="n">
         <v>63</v>
       </c>
       <c r="D11" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E11" t="n">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12">
@@ -639,16 +639,16 @@
         <v>42704</v>
       </c>
       <c r="B12" t="n">
+        <v>98</v>
+      </c>
+      <c r="C12" t="n">
         <v>93</v>
       </c>
-      <c r="C12" t="n">
-        <v>87</v>
-      </c>
       <c r="D12" t="n">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E12" t="n">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="13">
@@ -656,10 +656,10 @@
         <v>42735</v>
       </c>
       <c r="B13" t="n">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="C13" t="n">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D13" t="n">
         <v>76</v>
@@ -673,16 +673,16 @@
         <v>42766</v>
       </c>
       <c r="B14" t="n">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="C14" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D14" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E14" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15">
@@ -690,13 +690,13 @@
         <v>42794</v>
       </c>
       <c r="B15" t="n">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C15" t="n">
         <v>53</v>
       </c>
       <c r="D15" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E15" t="n">
         <v>69</v>
@@ -707,7 +707,7 @@
         <v>42825</v>
       </c>
       <c r="B16" t="n">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C16" t="n">
         <v>62</v>
@@ -724,16 +724,16 @@
         <v>42855</v>
       </c>
       <c r="B17" t="n">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C17" t="n">
         <v>66</v>
       </c>
       <c r="D17" t="n">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E17" t="n">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18">
@@ -741,16 +741,16 @@
         <v>42886</v>
       </c>
       <c r="B18" t="n">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C18" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D18" t="n">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E18" t="n">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="19">
@@ -758,7 +758,7 @@
         <v>42916</v>
       </c>
       <c r="B19" t="n">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C19" t="n">
         <v>71</v>
@@ -767,7 +767,7 @@
         <v>72</v>
       </c>
       <c r="E19" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20">
@@ -775,13 +775,13 @@
         <v>42947</v>
       </c>
       <c r="B20" t="n">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C20" t="n">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D20" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E20" t="n">
         <v>64</v>
@@ -792,16 +792,16 @@
         <v>42978</v>
       </c>
       <c r="B21" t="n">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C21" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D21" t="n">
         <v>62</v>
       </c>
       <c r="E21" t="n">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22">
@@ -809,13 +809,13 @@
         <v>43008</v>
       </c>
       <c r="B22" t="n">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C22" t="n">
         <v>65</v>
       </c>
       <c r="D22" t="n">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E22" t="n">
         <v>72</v>
@@ -826,10 +826,10 @@
         <v>43039</v>
       </c>
       <c r="B23" t="n">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C23" t="n">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D23" t="n">
         <v>78</v>
@@ -843,10 +843,10 @@
         <v>43069</v>
       </c>
       <c r="B24" t="n">
+        <v>84</v>
+      </c>
+      <c r="C24" t="n">
         <v>87</v>
-      </c>
-      <c r="C24" t="n">
-        <v>82</v>
       </c>
       <c r="D24" t="n">
         <v>91</v>
@@ -860,16 +860,16 @@
         <v>43100</v>
       </c>
       <c r="B25" t="n">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="C25" t="n">
         <v>68</v>
       </c>
       <c r="D25" t="n">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E25" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="26">
@@ -877,13 +877,13 @@
         <v>43131</v>
       </c>
       <c r="B26" t="n">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C26" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D26" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E26" t="n">
         <v>66</v>
@@ -894,16 +894,16 @@
         <v>43159</v>
       </c>
       <c r="B27" t="n">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C27" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D27" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E27" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="28">
@@ -911,16 +911,16 @@
         <v>43190</v>
       </c>
       <c r="B28" t="n">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C28" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D28" t="n">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E28" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="29">
@@ -928,10 +928,10 @@
         <v>43220</v>
       </c>
       <c r="B29" t="n">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="C29" t="n">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D29" t="n">
         <v>100</v>
@@ -945,16 +945,16 @@
         <v>43251</v>
       </c>
       <c r="B30" t="n">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C30" t="n">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D30" t="n">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E30" t="n">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="31">
@@ -962,13 +962,13 @@
         <v>43281</v>
       </c>
       <c r="B31" t="n">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C31" t="n">
         <v>67</v>
       </c>
       <c r="D31" t="n">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E31" t="n">
         <v>70</v>
@@ -979,16 +979,16 @@
         <v>43312</v>
       </c>
       <c r="B32" t="n">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C32" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D32" t="n">
         <v>75</v>
       </c>
       <c r="E32" t="n">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="33">
@@ -996,16 +996,16 @@
         <v>43343</v>
       </c>
       <c r="B33" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C33" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D33" t="n">
         <v>71</v>
       </c>
       <c r="E33" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="34">
@@ -1013,7 +1013,7 @@
         <v>43373</v>
       </c>
       <c r="B34" t="n">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="C34" t="n">
         <v>66</v>
@@ -1022,7 +1022,7 @@
         <v>75</v>
       </c>
       <c r="E34" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="35">
@@ -1030,7 +1030,7 @@
         <v>43404</v>
       </c>
       <c r="B35" t="n">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C35" t="n">
         <v>62</v>
@@ -1039,7 +1039,7 @@
         <v>81</v>
       </c>
       <c r="E35" t="n">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="36">
@@ -1047,16 +1047,16 @@
         <v>43434</v>
       </c>
       <c r="B36" t="n">
+        <v>77</v>
+      </c>
+      <c r="C36" t="n">
+        <v>83</v>
+      </c>
+      <c r="D36" t="n">
+        <v>86</v>
+      </c>
+      <c r="E36" t="n">
         <v>73</v>
-      </c>
-      <c r="C36" t="n">
-        <v>85</v>
-      </c>
-      <c r="D36" t="n">
-        <v>87</v>
-      </c>
-      <c r="E36" t="n">
-        <v>74</v>
       </c>
     </row>
     <row r="37">
@@ -1064,16 +1064,16 @@
         <v>43465</v>
       </c>
       <c r="B37" t="n">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C37" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D37" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E37" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="38">
@@ -1081,16 +1081,16 @@
         <v>43496</v>
       </c>
       <c r="B38" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C38" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D38" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E38" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="39">
@@ -1098,13 +1098,13 @@
         <v>43524</v>
       </c>
       <c r="B39" t="n">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C39" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D39" t="n">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E39" t="n">
         <v>63</v>
@@ -1115,10 +1115,10 @@
         <v>43555</v>
       </c>
       <c r="B40" t="n">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C40" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D40" t="n">
         <v>76</v>
@@ -1132,10 +1132,10 @@
         <v>43585</v>
       </c>
       <c r="B41" t="n">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C41" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D41" t="n">
         <v>87</v>
@@ -1149,16 +1149,16 @@
         <v>43616</v>
       </c>
       <c r="B42" t="n">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C42" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D42" t="n">
         <v>78</v>
       </c>
       <c r="E42" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="43">
@@ -1166,10 +1166,10 @@
         <v>43646</v>
       </c>
       <c r="B43" t="n">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C43" t="n">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D43" t="n">
         <v>82</v>
@@ -1183,16 +1183,16 @@
         <v>43677</v>
       </c>
       <c r="B44" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C44" t="n">
         <v>61</v>
       </c>
       <c r="D44" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E44" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="45">
@@ -1200,10 +1200,10 @@
         <v>43708</v>
       </c>
       <c r="B45" t="n">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C45" t="n">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D45" t="n">
         <v>60</v>
@@ -1217,16 +1217,16 @@
         <v>43738</v>
       </c>
       <c r="B46" t="n">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="C46" t="n">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="D46" t="n">
         <v>63</v>
       </c>
       <c r="E46" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="47">
@@ -1234,16 +1234,16 @@
         <v>43769</v>
       </c>
       <c r="B47" t="n">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C47" t="n">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D47" t="n">
         <v>66</v>
       </c>
       <c r="E47" t="n">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="48">
@@ -1251,7 +1251,7 @@
         <v>43799</v>
       </c>
       <c r="B48" t="n">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C48" t="n">
         <v>100</v>
@@ -1260,7 +1260,7 @@
         <v>84</v>
       </c>
       <c r="E48" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="49">
@@ -1268,13 +1268,13 @@
         <v>43830</v>
       </c>
       <c r="B49" t="n">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C49" t="n">
         <v>76</v>
       </c>
       <c r="D49" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E49" t="n">
         <v>59</v>
@@ -1285,10 +1285,10 @@
         <v>43861</v>
       </c>
       <c r="B50" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C50" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D50" t="n">
         <v>64</v>
@@ -1302,16 +1302,16 @@
         <v>43890</v>
       </c>
       <c r="B51" t="n">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="C51" t="n">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D51" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E51" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="52">
@@ -1319,16 +1319,16 @@
         <v>43921</v>
       </c>
       <c r="B52" t="n">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C52" t="n">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D52" t="n">
         <v>58</v>
       </c>
       <c r="E52" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="53">
@@ -1336,16 +1336,16 @@
         <v>43951</v>
       </c>
       <c r="B53" t="n">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C53" t="n">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="D53" t="n">
         <v>72</v>
       </c>
       <c r="E53" t="n">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="54">
@@ -1353,16 +1353,16 @@
         <v>43982</v>
       </c>
       <c r="B54" t="n">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C54" t="n">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="D54" t="n">
         <v>62</v>
       </c>
       <c r="E54" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="55">
@@ -1370,16 +1370,16 @@
         <v>44012</v>
       </c>
       <c r="B55" t="n">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C55" t="n">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D55" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E55" t="n">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="56">
@@ -1387,16 +1387,16 @@
         <v>44043</v>
       </c>
       <c r="B56" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C56" t="n">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="D56" t="n">
         <v>44</v>
       </c>
       <c r="E56" t="n">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="57">
@@ -1404,16 +1404,16 @@
         <v>44074</v>
       </c>
       <c r="B57" t="n">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C57" t="n">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D57" t="n">
         <v>48</v>
       </c>
       <c r="E57" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="58">
@@ -1421,16 +1421,16 @@
         <v>44104</v>
       </c>
       <c r="B58" t="n">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C58" t="n">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D58" t="n">
         <v>43</v>
       </c>
       <c r="E58" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="59">
@@ -1438,10 +1438,10 @@
         <v>44135</v>
       </c>
       <c r="B59" t="n">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C59" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D59" t="n">
         <v>43</v>
@@ -1455,16 +1455,16 @@
         <v>44165</v>
       </c>
       <c r="B60" t="n">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C60" t="n">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D60" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E60" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="61">
@@ -1472,7 +1472,7 @@
         <v>44196</v>
       </c>
       <c r="B61" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C61" t="n">
         <v>54</v>
@@ -1498,7 +1498,7 @@
         <v>39</v>
       </c>
       <c r="E62" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="63">
@@ -1506,13 +1506,13 @@
         <v>44255</v>
       </c>
       <c r="B63" t="n">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C63" t="n">
         <v>40</v>
       </c>
       <c r="D63" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E63" t="n">
         <v>45</v>
@@ -1523,13 +1523,13 @@
         <v>44286</v>
       </c>
       <c r="B64" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C64" t="n">
         <v>51</v>
       </c>
       <c r="D64" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E64" t="n">
         <v>50</v>
@@ -1540,10 +1540,10 @@
         <v>44316</v>
       </c>
       <c r="B65" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C65" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D65" t="n">
         <v>40</v>
@@ -1557,16 +1557,16 @@
         <v>44347</v>
       </c>
       <c r="B66" t="n">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C66" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D66" t="n">
         <v>42</v>
       </c>
       <c r="E66" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="67">
@@ -1574,7 +1574,7 @@
         <v>44377</v>
       </c>
       <c r="B67" t="n">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C67" t="n">
         <v>58</v>
@@ -1583,7 +1583,7 @@
         <v>44</v>
       </c>
       <c r="E67" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="68">
@@ -1591,7 +1591,7 @@
         <v>44408</v>
       </c>
       <c r="B68" t="n">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C68" t="n">
         <v>45</v>
@@ -1600,7 +1600,7 @@
         <v>30</v>
       </c>
       <c r="E68" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="69">
@@ -1608,16 +1608,16 @@
         <v>44439</v>
       </c>
       <c r="B69" t="n">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C69" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D69" t="n">
         <v>38</v>
       </c>
       <c r="E69" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="70">
@@ -1625,7 +1625,7 @@
         <v>44469</v>
       </c>
       <c r="B70" t="n">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C70" t="n">
         <v>59</v>
@@ -1634,7 +1634,7 @@
         <v>36</v>
       </c>
       <c r="E70" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="71">
@@ -1642,16 +1642,16 @@
         <v>44500</v>
       </c>
       <c r="B71" t="n">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C71" t="n">
         <v>57</v>
       </c>
       <c r="D71" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E71" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="72">
@@ -1659,16 +1659,16 @@
         <v>44530</v>
       </c>
       <c r="B72" t="n">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C72" t="n">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D72" t="n">
         <v>49</v>
       </c>
       <c r="E72" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="73">
@@ -1676,16 +1676,16 @@
         <v>44561</v>
       </c>
       <c r="B73" t="n">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C73" t="n">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D73" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E73" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="74">
@@ -1693,7 +1693,7 @@
         <v>44592</v>
       </c>
       <c r="B74" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C74" t="n">
         <v>56</v>
@@ -1710,7 +1710,7 @@
         <v>44620</v>
       </c>
       <c r="B75" t="n">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C75" t="n">
         <v>52</v>
@@ -1719,7 +1719,7 @@
         <v>39</v>
       </c>
       <c r="E75" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="76">
@@ -1727,16 +1727,16 @@
         <v>44651</v>
       </c>
       <c r="B76" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C76" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D76" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E76" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="77">
@@ -1744,7 +1744,7 @@
         <v>44681</v>
       </c>
       <c r="B77" t="n">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="C77" t="n">
         <v>53</v>
@@ -1761,16 +1761,16 @@
         <v>44712</v>
       </c>
       <c r="B78" t="n">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C78" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D78" t="n">
         <v>43</v>
       </c>
       <c r="E78" t="n">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="79">
@@ -1778,7 +1778,7 @@
         <v>44742</v>
       </c>
       <c r="B79" t="n">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C79" t="n">
         <v>51</v>
@@ -1795,7 +1795,7 @@
         <v>44773</v>
       </c>
       <c r="B80" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C80" t="n">
         <v>38</v>
@@ -1812,7 +1812,7 @@
         <v>44804</v>
       </c>
       <c r="B81" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C81" t="n">
         <v>42</v>
@@ -1829,16 +1829,16 @@
         <v>44834</v>
       </c>
       <c r="B82" t="n">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C82" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D82" t="n">
         <v>29</v>
       </c>
       <c r="E82" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="83">
@@ -1846,10 +1846,10 @@
         <v>44865</v>
       </c>
       <c r="B83" t="n">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C83" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D83" t="n">
         <v>30</v>
@@ -1863,16 +1863,16 @@
         <v>44895</v>
       </c>
       <c r="B84" t="n">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C84" t="n">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="D84" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E84" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="85">
@@ -1880,16 +1880,16 @@
         <v>44926</v>
       </c>
       <c r="B85" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C85" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D85" t="n">
+        <v>39</v>
+      </c>
+      <c r="E85" t="n">
         <v>40</v>
-      </c>
-      <c r="E85" t="n">
-        <v>42</v>
       </c>
     </row>
     <row r="86">
@@ -1897,7 +1897,7 @@
         <v>44957</v>
       </c>
       <c r="B86" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C86" t="n">
         <v>43</v>
@@ -1914,7 +1914,7 @@
         <v>44985</v>
       </c>
       <c r="B87" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C87" t="n">
         <v>37</v>
@@ -1931,10 +1931,10 @@
         <v>45016</v>
       </c>
       <c r="B88" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C88" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D88" t="n">
         <v>33</v>
@@ -1948,10 +1948,10 @@
         <v>45046</v>
       </c>
       <c r="B89" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C89" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D89" t="n">
         <v>40</v>
@@ -1965,16 +1965,16 @@
         <v>45077</v>
       </c>
       <c r="B90" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C90" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D90" t="n">
         <v>31</v>
       </c>
       <c r="E90" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="91">
@@ -1982,7 +1982,7 @@
         <v>45107</v>
       </c>
       <c r="B91" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C91" t="n">
         <v>38</v>
@@ -2016,7 +2016,7 @@
         <v>45169</v>
       </c>
       <c r="B93" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C93" t="n">
         <v>30</v>
@@ -2025,7 +2025,7 @@
         <v>24</v>
       </c>
       <c r="E93" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="94">
@@ -2033,7 +2033,7 @@
         <v>45199</v>
       </c>
       <c r="B94" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C94" t="n">
         <v>34</v>
@@ -2042,7 +2042,7 @@
         <v>31</v>
       </c>
       <c r="E94" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="95">
@@ -2050,13 +2050,13 @@
         <v>45230</v>
       </c>
       <c r="B95" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C95" t="n">
         <v>34</v>
       </c>
       <c r="D95" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E95" t="n">
         <v>30</v>
@@ -2067,7 +2067,7 @@
         <v>45260</v>
       </c>
       <c r="B96" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C96" t="n">
         <v>51</v>
@@ -2076,7 +2076,7 @@
         <v>41</v>
       </c>
       <c r="E96" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="97">
@@ -2084,10 +2084,10 @@
         <v>45291</v>
       </c>
       <c r="B97" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C97" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D97" t="n">
         <v>38</v>
@@ -2101,7 +2101,7 @@
         <v>45322</v>
       </c>
       <c r="B98" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C98" t="n">
         <v>33</v>
@@ -2110,7 +2110,7 @@
         <v>33</v>
       </c>
       <c r="E98" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="99">
@@ -2121,7 +2121,7 @@
         <v>26</v>
       </c>
       <c r="C99" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D99" t="n">
         <v>31</v>
@@ -2135,7 +2135,7 @@
         <v>45382</v>
       </c>
       <c r="B100" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C100" t="n">
         <v>36</v>
@@ -2144,7 +2144,7 @@
         <v>39</v>
       </c>
       <c r="E100" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="101">
@@ -2152,16 +2152,16 @@
         <v>45412</v>
       </c>
       <c r="B101" t="n">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C101" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D101" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E101" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="102">
@@ -2169,13 +2169,13 @@
         <v>45443</v>
       </c>
       <c r="B102" t="n">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C102" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D102" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E102" t="n">
         <v>43</v>
@@ -2186,7 +2186,7 @@
         <v>45473</v>
       </c>
       <c r="B103" t="n">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C103" t="n">
         <v>38</v>
@@ -2195,7 +2195,7 @@
         <v>41</v>
       </c>
       <c r="E103" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="104">
@@ -2203,13 +2203,13 @@
         <v>45504</v>
       </c>
       <c r="B104" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C104" t="n">
         <v>32</v>
       </c>
       <c r="D104" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E104" t="n">
         <v>33</v>
@@ -2220,7 +2220,7 @@
         <v>45535</v>
       </c>
       <c r="B105" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C105" t="n">
         <v>35</v>
@@ -2229,7 +2229,7 @@
         <v>37</v>
       </c>
       <c r="E105" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="106">
@@ -2237,16 +2237,16 @@
         <v>45565</v>
       </c>
       <c r="B106" t="n">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C106" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D106" t="n">
         <v>47</v>
       </c>
       <c r="E106" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="107">
@@ -2254,7 +2254,7 @@
         <v>45596</v>
       </c>
       <c r="B107" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C107" t="n">
         <v>44</v>
@@ -2271,10 +2271,10 @@
         <v>45626</v>
       </c>
       <c r="B108" t="n">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C108" t="n">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D108" t="n">
         <v>61</v>
@@ -2288,7 +2288,7 @@
         <v>45657</v>
       </c>
       <c r="B109" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C109" t="n">
         <v>43</v>
@@ -2305,13 +2305,13 @@
         <v>45688</v>
       </c>
       <c r="B110" t="n">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C110" t="n">
         <v>46</v>
       </c>
       <c r="D110" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E110" t="n">
         <v>34</v>
@@ -2322,7 +2322,7 @@
         <v>45716</v>
       </c>
       <c r="B111" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C111" t="n">
         <v>38</v>
@@ -2331,7 +2331,7 @@
         <v>45</v>
       </c>
       <c r="E111" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="112">
@@ -2339,16 +2339,16 @@
         <v>45747</v>
       </c>
       <c r="B112" t="n">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C112" t="n">
+        <v>53</v>
+      </c>
+      <c r="D112" t="n">
         <v>52</v>
       </c>
-      <c r="D112" t="n">
-        <v>53</v>
-      </c>
       <c r="E112" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="113">
@@ -2356,16 +2356,16 @@
         <v>45777</v>
       </c>
       <c r="B113" t="n">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="C113" t="n">
         <v>50</v>
       </c>
       <c r="D113" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E113" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="114">
@@ -2373,7 +2373,7 @@
         <v>45808</v>
       </c>
       <c r="B114" t="n">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C114" t="n">
         <v>53</v>
@@ -2390,10 +2390,10 @@
         <v>45838</v>
       </c>
       <c r="B115" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C115" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D115" t="n">
         <v>42</v>
@@ -2407,7 +2407,7 @@
         <v>45869</v>
       </c>
       <c r="B116" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C116" t="n">
         <v>38</v>
@@ -2424,7 +2424,7 @@
         <v>45900</v>
       </c>
       <c r="B117" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C117" t="n">
         <v>54</v>
@@ -2433,7 +2433,7 @@
         <v>53</v>
       </c>
       <c r="E117" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="118">
@@ -2441,10 +2441,10 @@
         <v>45930</v>
       </c>
       <c r="B118" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C118" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D118" t="n">
         <v>45</v>
@@ -2458,16 +2458,16 @@
         <v>45961</v>
       </c>
       <c r="B119" t="n">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C119" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D119" t="n">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E119" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/data/nelly_trends_monthly.xlsx
+++ b/data/nelly_trends_monthly.xlsx
@@ -1,40 +1,67 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10928"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oscarsandberg/Documents/Programmering/flossan/Scraper/data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8162E63B-6794-5742-8F4E-092D3D7B15F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Nelly_SE</t>
+  </si>
+  <si>
+    <t>Nelly_NO</t>
+  </si>
+  <si>
+    <t>Nelly_DK</t>
+  </si>
+  <si>
+    <t>Nelly_FI</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -49,94 +76,44 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -424,2049 +401,2036 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E119"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" topLeftCell="A95" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Date</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Nelly_SE</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Nelly_NO</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Nelly_DK</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Nelly_FI</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
         <v>42400</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>73</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>65</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>84</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>92</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
         <v>42429</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>79</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>53</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>78</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>85</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
         <v>42460</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>82</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>57</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>82</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
         <v>83</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
         <v>42490</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>92</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>63</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>89</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
         <v>93</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
         <v>42521</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>99</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>66</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>83</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
         <v>100</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
         <v>42551</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>89</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>69</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>71</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
         <v>77</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
         <v>42582</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>74</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>54</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>55</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8">
         <v>71</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
         <v>42613</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>71</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>52</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>51</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9">
         <v>70</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
         <v>42643</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>76</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>60</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10">
         <v>59</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10">
         <v>71</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
         <v>42674</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>83</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11">
         <v>63</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11">
         <v>68</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11">
         <v>81</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
         <v>42704</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12">
         <v>98</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12">
         <v>93</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D12">
         <v>81</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E12">
         <v>98</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="2">
         <v>42735</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13">
         <v>99</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13">
         <v>80</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D13">
         <v>76</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E13">
         <v>78</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="2">
         <v>42766</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14">
         <v>75</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14">
         <v>59</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D14">
         <v>60</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E14">
         <v>74</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="2">
         <v>42794</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15">
         <v>69</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C15">
         <v>53</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D15">
         <v>64</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E15">
         <v>69</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="2">
         <v>42825</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16">
         <v>84</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C16">
         <v>62</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D16">
         <v>75</v>
       </c>
-      <c r="E16" t="n">
+      <c r="E16">
         <v>76</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="2">
         <v>42855</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17">
         <v>86</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C17">
         <v>66</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D17">
         <v>85</v>
       </c>
-      <c r="E17" t="n">
+      <c r="E17">
         <v>83</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="2">
         <v>42886</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18">
         <v>100</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C18">
         <v>74</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D18">
         <v>76</v>
       </c>
-      <c r="E18" t="n">
+      <c r="E18">
         <v>91</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="2">
         <v>42916</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19">
         <v>92</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C19">
         <v>71</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D19">
         <v>72</v>
       </c>
-      <c r="E19" t="n">
+      <c r="E19">
         <v>71</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="2">
         <v>42947</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20">
         <v>70</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C20">
         <v>60</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D20">
         <v>61</v>
       </c>
-      <c r="E20" t="n">
+      <c r="E20">
         <v>64</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="2">
         <v>42978</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21">
         <v>72</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C21">
         <v>60</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D21">
         <v>62</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E21">
         <v>59</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="2">
         <v>43008</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22">
         <v>76</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C22">
         <v>65</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D22">
         <v>71</v>
       </c>
-      <c r="E22" t="n">
+      <c r="E22">
         <v>72</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="2">
         <v>43039</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B23">
         <v>78</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C23">
         <v>72</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D23">
         <v>78</v>
       </c>
-      <c r="E23" t="n">
+      <c r="E23">
         <v>74</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="2">
         <v>43069</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B24">
         <v>84</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C24">
         <v>87</v>
       </c>
-      <c r="D24" t="n">
+      <c r="D24">
         <v>91</v>
       </c>
-      <c r="E24" t="n">
+      <c r="E24">
         <v>96</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="2">
         <v>43100</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B25">
         <v>92</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C25">
         <v>68</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D25">
         <v>86</v>
       </c>
-      <c r="E25" t="n">
+      <c r="E25">
         <v>65</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="2">
         <v>43131</v>
       </c>
-      <c r="B26" t="n">
+      <c r="B26">
         <v>61</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C26">
         <v>54</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D26">
         <v>73</v>
       </c>
-      <c r="E26" t="n">
+      <c r="E26">
         <v>66</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="2">
         <v>43159</v>
       </c>
-      <c r="B27" t="n">
+      <c r="B27">
         <v>60</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C27">
         <v>52</v>
       </c>
-      <c r="D27" t="n">
+      <c r="D27">
         <v>77</v>
       </c>
-      <c r="E27" t="n">
+      <c r="E27">
         <v>62</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="2">
         <v>43190</v>
       </c>
-      <c r="B28" t="n">
+      <c r="B28">
         <v>72</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C28">
         <v>50</v>
       </c>
-      <c r="D28" t="n">
+      <c r="D28">
         <v>91</v>
       </c>
-      <c r="E28" t="n">
+      <c r="E28">
         <v>63</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="2">
         <v>43220</v>
       </c>
-      <c r="B29" t="n">
+      <c r="B29">
         <v>78</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C29">
         <v>62</v>
       </c>
-      <c r="D29" t="n">
+      <c r="D29">
         <v>100</v>
       </c>
-      <c r="E29" t="n">
+      <c r="E29">
         <v>75</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="2">
         <v>43251</v>
       </c>
-      <c r="B30" t="n">
+      <c r="B30">
         <v>90</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C30">
         <v>70</v>
       </c>
-      <c r="D30" t="n">
+      <c r="D30">
         <v>92</v>
       </c>
-      <c r="E30" t="n">
+      <c r="E30">
         <v>91</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="2">
         <v>43281</v>
       </c>
-      <c r="B31" t="n">
+      <c r="B31">
         <v>76</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C31">
         <v>67</v>
       </c>
-      <c r="D31" t="n">
+      <c r="D31">
         <v>92</v>
       </c>
-      <c r="E31" t="n">
+      <c r="E31">
         <v>70</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="2" t="n">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="2">
         <v>43312</v>
       </c>
-      <c r="B32" t="n">
+      <c r="B32">
         <v>63</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C32">
         <v>55</v>
       </c>
-      <c r="D32" t="n">
+      <c r="D32">
         <v>75</v>
       </c>
-      <c r="E32" t="n">
+      <c r="E32">
         <v>66</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="2" t="n">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="2">
         <v>43343</v>
       </c>
-      <c r="B33" t="n">
+      <c r="B33">
         <v>60</v>
       </c>
-      <c r="C33" t="n">
+      <c r="C33">
         <v>53</v>
       </c>
-      <c r="D33" t="n">
+      <c r="D33">
         <v>71</v>
       </c>
-      <c r="E33" t="n">
+      <c r="E33">
         <v>60</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" s="2" t="n">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" s="2">
         <v>43373</v>
       </c>
-      <c r="B34" t="n">
+      <c r="B34">
         <v>70</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C34">
         <v>66</v>
       </c>
-      <c r="D34" t="n">
+      <c r="D34">
         <v>75</v>
       </c>
-      <c r="E34" t="n">
+      <c r="E34">
         <v>59</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" s="2" t="n">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" s="2">
         <v>43404</v>
       </c>
-      <c r="B35" t="n">
+      <c r="B35">
         <v>66</v>
       </c>
-      <c r="C35" t="n">
+      <c r="C35">
         <v>62</v>
       </c>
-      <c r="D35" t="n">
+      <c r="D35">
         <v>81</v>
       </c>
-      <c r="E35" t="n">
+      <c r="E35">
         <v>68</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" s="2" t="n">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" s="2">
         <v>43434</v>
       </c>
-      <c r="B36" t="n">
+      <c r="B36">
         <v>77</v>
       </c>
-      <c r="C36" t="n">
+      <c r="C36">
         <v>83</v>
       </c>
-      <c r="D36" t="n">
+      <c r="D36">
         <v>86</v>
       </c>
-      <c r="E36" t="n">
+      <c r="E36">
         <v>73</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" s="2" t="n">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" s="2">
         <v>43465</v>
       </c>
-      <c r="B37" t="n">
+      <c r="B37">
         <v>74</v>
       </c>
-      <c r="C37" t="n">
+      <c r="C37">
         <v>77</v>
       </c>
-      <c r="D37" t="n">
+      <c r="D37">
         <v>80</v>
       </c>
-      <c r="E37" t="n">
+      <c r="E37">
         <v>59</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" s="2" t="n">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" s="2">
         <v>43496</v>
       </c>
-      <c r="B38" t="n">
+      <c r="B38">
         <v>65</v>
       </c>
-      <c r="C38" t="n">
+      <c r="C38">
         <v>61</v>
       </c>
-      <c r="D38" t="n">
+      <c r="D38">
         <v>75</v>
       </c>
-      <c r="E38" t="n">
+      <c r="E38">
         <v>61</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" s="2" t="n">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" s="2">
         <v>43524</v>
       </c>
-      <c r="B39" t="n">
+      <c r="B39">
         <v>67</v>
       </c>
-      <c r="C39" t="n">
+      <c r="C39">
         <v>55</v>
       </c>
-      <c r="D39" t="n">
+      <c r="D39">
         <v>75</v>
       </c>
-      <c r="E39" t="n">
+      <c r="E39">
         <v>63</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" s="2" t="n">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" s="2">
         <v>43555</v>
       </c>
-      <c r="B40" t="n">
+      <c r="B40">
         <v>72</v>
       </c>
-      <c r="C40" t="n">
+      <c r="C40">
         <v>63</v>
       </c>
-      <c r="D40" t="n">
+      <c r="D40">
         <v>76</v>
       </c>
-      <c r="E40" t="n">
+      <c r="E40">
         <v>63</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" s="2" t="n">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" s="2">
         <v>43585</v>
       </c>
-      <c r="B41" t="n">
+      <c r="B41">
         <v>80</v>
       </c>
-      <c r="C41" t="n">
+      <c r="C41">
         <v>61</v>
       </c>
-      <c r="D41" t="n">
+      <c r="D41">
         <v>87</v>
       </c>
-      <c r="E41" t="n">
+      <c r="E41">
         <v>65</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" s="2" t="n">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" s="2">
         <v>43616</v>
       </c>
-      <c r="B42" t="n">
+      <c r="B42">
         <v>85</v>
       </c>
-      <c r="C42" t="n">
+      <c r="C42">
         <v>72</v>
       </c>
-      <c r="D42" t="n">
+      <c r="D42">
         <v>78</v>
       </c>
-      <c r="E42" t="n">
+      <c r="E42">
         <v>77</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" s="2" t="n">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" s="2">
         <v>43646</v>
       </c>
-      <c r="B43" t="n">
+      <c r="B43">
         <v>77</v>
       </c>
-      <c r="C43" t="n">
+      <c r="C43">
         <v>84</v>
       </c>
-      <c r="D43" t="n">
+      <c r="D43">
         <v>82</v>
       </c>
-      <c r="E43" t="n">
+      <c r="E43">
         <v>77</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" s="2" t="n">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" s="2">
         <v>43677</v>
       </c>
-      <c r="B44" t="n">
+      <c r="B44">
         <v>62</v>
       </c>
-      <c r="C44" t="n">
+      <c r="C44">
         <v>61</v>
       </c>
-      <c r="D44" t="n">
+      <c r="D44">
         <v>59</v>
       </c>
-      <c r="E44" t="n">
+      <c r="E44">
         <v>61</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" s="2" t="n">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" s="2">
         <v>43708</v>
       </c>
-      <c r="B45" t="n">
+      <c r="B45">
         <v>61</v>
       </c>
-      <c r="C45" t="n">
+      <c r="C45">
         <v>65</v>
       </c>
-      <c r="D45" t="n">
+      <c r="D45">
         <v>60</v>
       </c>
-      <c r="E45" t="n">
+      <c r="E45">
         <v>56</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" s="2" t="n">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" s="2">
         <v>43738</v>
       </c>
-      <c r="B46" t="n">
+      <c r="B46">
         <v>68</v>
       </c>
-      <c r="C46" t="n">
+      <c r="C46">
         <v>69</v>
       </c>
-      <c r="D46" t="n">
+      <c r="D46">
         <v>63</v>
       </c>
-      <c r="E46" t="n">
+      <c r="E46">
         <v>64</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" s="2" t="n">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" s="2">
         <v>43769</v>
       </c>
-      <c r="B47" t="n">
+      <c r="B47">
         <v>66</v>
       </c>
-      <c r="C47" t="n">
+      <c r="C47">
         <v>71</v>
       </c>
-      <c r="D47" t="n">
+      <c r="D47">
         <v>66</v>
       </c>
-      <c r="E47" t="n">
+      <c r="E47">
         <v>66</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" s="2" t="n">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48" s="2">
         <v>43799</v>
       </c>
-      <c r="B48" t="n">
+      <c r="B48">
         <v>82</v>
       </c>
-      <c r="C48" t="n">
+      <c r="C48">
         <v>100</v>
       </c>
-      <c r="D48" t="n">
+      <c r="D48">
         <v>84</v>
       </c>
-      <c r="E48" t="n">
+      <c r="E48">
         <v>68</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" s="2" t="n">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49" s="2">
         <v>43830</v>
       </c>
-      <c r="B49" t="n">
+      <c r="B49">
         <v>77</v>
       </c>
-      <c r="C49" t="n">
+      <c r="C49">
         <v>76</v>
       </c>
-      <c r="D49" t="n">
+      <c r="D49">
         <v>76</v>
       </c>
-      <c r="E49" t="n">
+      <c r="E49">
         <v>59</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" s="2" t="n">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50" s="2">
         <v>43861</v>
       </c>
-      <c r="B50" t="n">
+      <c r="B50">
         <v>59</v>
       </c>
-      <c r="C50" t="n">
+      <c r="C50">
         <v>67</v>
       </c>
-      <c r="D50" t="n">
+      <c r="D50">
         <v>64</v>
       </c>
-      <c r="E50" t="n">
+      <c r="E50">
         <v>62</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" s="2" t="n">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51" s="2">
         <v>43890</v>
       </c>
-      <c r="B51" t="n">
+      <c r="B51">
         <v>62</v>
       </c>
-      <c r="C51" t="n">
+      <c r="C51">
         <v>64</v>
       </c>
-      <c r="D51" t="n">
+      <c r="D51">
         <v>62</v>
       </c>
-      <c r="E51" t="n">
+      <c r="E51">
         <v>59</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" s="2" t="n">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52" s="2">
         <v>43921</v>
       </c>
-      <c r="B52" t="n">
+      <c r="B52">
         <v>59</v>
       </c>
-      <c r="C52" t="n">
+      <c r="C52">
         <v>68</v>
       </c>
-      <c r="D52" t="n">
+      <c r="D52">
         <v>58</v>
       </c>
-      <c r="E52" t="n">
+      <c r="E52">
         <v>52</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" s="2" t="n">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53" s="2">
         <v>43951</v>
       </c>
-      <c r="B53" t="n">
+      <c r="B53">
         <v>62</v>
       </c>
-      <c r="C53" t="n">
+      <c r="C53">
         <v>81</v>
       </c>
-      <c r="D53" t="n">
+      <c r="D53">
         <v>72</v>
       </c>
-      <c r="E53" t="n">
+      <c r="E53">
         <v>58</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" s="2" t="n">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54" s="2">
         <v>43982</v>
       </c>
-      <c r="B54" t="n">
+      <c r="B54">
         <v>76</v>
       </c>
-      <c r="C54" t="n">
+      <c r="C54">
         <v>77</v>
       </c>
-      <c r="D54" t="n">
+      <c r="D54">
         <v>62</v>
       </c>
-      <c r="E54" t="n">
+      <c r="E54">
         <v>72</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" s="2" t="n">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55" s="2">
         <v>44012</v>
       </c>
-      <c r="B55" t="n">
+      <c r="B55">
         <v>70</v>
       </c>
-      <c r="C55" t="n">
+      <c r="C55">
         <v>81</v>
       </c>
-      <c r="D55" t="n">
+      <c r="D55">
         <v>67</v>
       </c>
-      <c r="E55" t="n">
+      <c r="E55">
         <v>72</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" s="2" t="n">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56" s="2">
         <v>44043</v>
       </c>
-      <c r="B56" t="n">
+      <c r="B56">
         <v>51</v>
       </c>
-      <c r="C56" t="n">
+      <c r="C56">
         <v>74</v>
       </c>
-      <c r="D56" t="n">
+      <c r="D56">
         <v>44</v>
       </c>
-      <c r="E56" t="n">
+      <c r="E56">
         <v>66</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" s="2" t="n">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57" s="2">
         <v>44074</v>
       </c>
-      <c r="B57" t="n">
+      <c r="B57">
         <v>54</v>
       </c>
-      <c r="C57" t="n">
+      <c r="C57">
         <v>62</v>
       </c>
-      <c r="D57" t="n">
+      <c r="D57">
         <v>48</v>
       </c>
-      <c r="E57" t="n">
+      <c r="E57">
         <v>63</v>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" s="2" t="n">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58" s="2">
         <v>44104</v>
       </c>
-      <c r="B58" t="n">
+      <c r="B58">
         <v>77</v>
       </c>
-      <c r="C58" t="n">
+      <c r="C58">
         <v>67</v>
       </c>
-      <c r="D58" t="n">
+      <c r="D58">
         <v>43</v>
       </c>
-      <c r="E58" t="n">
+      <c r="E58">
         <v>56</v>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" s="2" t="n">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A59" s="2">
         <v>44135</v>
       </c>
-      <c r="B59" t="n">
+      <c r="B59">
         <v>64</v>
       </c>
-      <c r="C59" t="n">
+      <c r="C59">
         <v>63</v>
       </c>
-      <c r="D59" t="n">
+      <c r="D59">
         <v>43</v>
       </c>
-      <c r="E59" t="n">
+      <c r="E59">
         <v>52</v>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" s="2" t="n">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A60" s="2">
         <v>44165</v>
       </c>
-      <c r="B60" t="n">
+      <c r="B60">
         <v>60</v>
       </c>
-      <c r="C60" t="n">
+      <c r="C60">
         <v>72</v>
       </c>
-      <c r="D60" t="n">
+      <c r="D60">
         <v>49</v>
       </c>
-      <c r="E60" t="n">
+      <c r="E60">
         <v>62</v>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" s="2" t="n">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A61" s="2">
         <v>44196</v>
       </c>
-      <c r="B61" t="n">
+      <c r="B61">
         <v>50</v>
       </c>
-      <c r="C61" t="n">
+      <c r="C61">
         <v>54</v>
       </c>
-      <c r="D61" t="n">
+      <c r="D61">
         <v>47</v>
       </c>
-      <c r="E61" t="n">
+      <c r="E61">
         <v>48</v>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" s="2" t="n">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A62" s="2">
         <v>44227</v>
       </c>
-      <c r="B62" t="n">
+      <c r="B62">
         <v>36</v>
       </c>
-      <c r="C62" t="n">
+      <c r="C62">
         <v>44</v>
       </c>
-      <c r="D62" t="n">
+      <c r="D62">
         <v>39</v>
       </c>
-      <c r="E62" t="n">
+      <c r="E62">
         <v>51</v>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" s="2" t="n">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A63" s="2">
         <v>44255</v>
       </c>
-      <c r="B63" t="n">
+      <c r="B63">
         <v>37</v>
       </c>
-      <c r="C63" t="n">
+      <c r="C63">
         <v>40</v>
       </c>
-      <c r="D63" t="n">
+      <c r="D63">
         <v>36</v>
       </c>
-      <c r="E63" t="n">
+      <c r="E63">
         <v>45</v>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" s="2" t="n">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A64" s="2">
         <v>44286</v>
       </c>
-      <c r="B64" t="n">
+      <c r="B64">
         <v>41</v>
       </c>
-      <c r="C64" t="n">
+      <c r="C64">
         <v>51</v>
       </c>
-      <c r="D64" t="n">
+      <c r="D64">
         <v>38</v>
       </c>
-      <c r="E64" t="n">
+      <c r="E64">
         <v>50</v>
       </c>
     </row>
-    <row r="65">
-      <c r="A65" s="2" t="n">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A65" s="2">
         <v>44316</v>
       </c>
-      <c r="B65" t="n">
+      <c r="B65">
         <v>46</v>
       </c>
-      <c r="C65" t="n">
+      <c r="C65">
         <v>58</v>
       </c>
-      <c r="D65" t="n">
+      <c r="D65">
         <v>40</v>
       </c>
-      <c r="E65" t="n">
+      <c r="E65">
         <v>57</v>
       </c>
     </row>
-    <row r="66">
-      <c r="A66" s="2" t="n">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A66" s="2">
         <v>44347</v>
       </c>
-      <c r="B66" t="n">
+      <c r="B66">
         <v>52</v>
       </c>
-      <c r="C66" t="n">
+      <c r="C66">
         <v>54</v>
       </c>
-      <c r="D66" t="n">
+      <c r="D66">
         <v>42</v>
       </c>
-      <c r="E66" t="n">
+      <c r="E66">
         <v>64</v>
       </c>
     </row>
-    <row r="67">
-      <c r="A67" s="2" t="n">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A67" s="2">
         <v>44377</v>
       </c>
-      <c r="B67" t="n">
+      <c r="B67">
         <v>51</v>
       </c>
-      <c r="C67" t="n">
+      <c r="C67">
         <v>58</v>
       </c>
-      <c r="D67" t="n">
+      <c r="D67">
         <v>44</v>
       </c>
-      <c r="E67" t="n">
+      <c r="E67">
         <v>62</v>
       </c>
     </row>
-    <row r="68">
-      <c r="A68" s="2" t="n">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A68" s="2">
         <v>44408</v>
       </c>
-      <c r="B68" t="n">
+      <c r="B68">
         <v>38</v>
       </c>
-      <c r="C68" t="n">
+      <c r="C68">
         <v>45</v>
       </c>
-      <c r="D68" t="n">
+      <c r="D68">
         <v>30</v>
       </c>
-      <c r="E68" t="n">
+      <c r="E68">
         <v>52</v>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" s="2" t="n">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A69" s="2">
         <v>44439</v>
       </c>
-      <c r="B69" t="n">
+      <c r="B69">
         <v>39</v>
       </c>
-      <c r="C69" t="n">
+      <c r="C69">
         <v>49</v>
       </c>
-      <c r="D69" t="n">
+      <c r="D69">
         <v>38</v>
       </c>
-      <c r="E69" t="n">
+      <c r="E69">
         <v>52</v>
       </c>
     </row>
-    <row r="70">
-      <c r="A70" s="2" t="n">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A70" s="2">
         <v>44469</v>
       </c>
-      <c r="B70" t="n">
+      <c r="B70">
         <v>58</v>
       </c>
-      <c r="C70" t="n">
+      <c r="C70">
         <v>59</v>
       </c>
-      <c r="D70" t="n">
+      <c r="D70">
         <v>36</v>
       </c>
-      <c r="E70" t="n">
+      <c r="E70">
         <v>51</v>
       </c>
     </row>
-    <row r="71">
-      <c r="A71" s="2" t="n">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A71" s="2">
         <v>44500</v>
       </c>
-      <c r="B71" t="n">
+      <c r="B71">
         <v>47</v>
       </c>
-      <c r="C71" t="n">
+      <c r="C71">
         <v>57</v>
       </c>
-      <c r="D71" t="n">
+      <c r="D71">
         <v>43</v>
       </c>
-      <c r="E71" t="n">
+      <c r="E71">
         <v>53</v>
       </c>
     </row>
-    <row r="72">
-      <c r="A72" s="2" t="n">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A72" s="2">
         <v>44530</v>
       </c>
-      <c r="B72" t="n">
+      <c r="B72">
         <v>60</v>
       </c>
-      <c r="C72" t="n">
+      <c r="C72">
         <v>79</v>
       </c>
-      <c r="D72" t="n">
+      <c r="D72">
         <v>49</v>
       </c>
-      <c r="E72" t="n">
+      <c r="E72">
         <v>64</v>
       </c>
     </row>
-    <row r="73">
-      <c r="A73" s="2" t="n">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A73" s="2">
         <v>44561</v>
       </c>
-      <c r="B73" t="n">
+      <c r="B73">
         <v>59</v>
       </c>
-      <c r="C73" t="n">
+      <c r="C73">
         <v>68</v>
       </c>
-      <c r="D73" t="n">
+      <c r="D73">
         <v>43</v>
       </c>
-      <c r="E73" t="n">
+      <c r="E73">
         <v>50</v>
       </c>
     </row>
-    <row r="74">
-      <c r="A74" s="2" t="n">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A74" s="2">
         <v>44592</v>
       </c>
-      <c r="B74" t="n">
+      <c r="B74">
         <v>38</v>
       </c>
-      <c r="C74" t="n">
+      <c r="C74">
         <v>56</v>
       </c>
-      <c r="D74" t="n">
+      <c r="D74">
         <v>32</v>
       </c>
-      <c r="E74" t="n">
+      <c r="E74">
         <v>46</v>
       </c>
     </row>
-    <row r="75">
-      <c r="A75" s="2" t="n">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A75" s="2">
         <v>44620</v>
       </c>
-      <c r="B75" t="n">
+      <c r="B75">
         <v>36</v>
       </c>
-      <c r="C75" t="n">
+      <c r="C75">
         <v>52</v>
       </c>
-      <c r="D75" t="n">
+      <c r="D75">
         <v>39</v>
       </c>
-      <c r="E75" t="n">
+      <c r="E75">
         <v>52</v>
       </c>
     </row>
-    <row r="76">
-      <c r="A76" s="2" t="n">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A76" s="2">
         <v>44651</v>
       </c>
-      <c r="B76" t="n">
+      <c r="B76">
         <v>48</v>
       </c>
-      <c r="C76" t="n">
+      <c r="C76">
         <v>48</v>
       </c>
-      <c r="D76" t="n">
+      <c r="D76">
         <v>42</v>
       </c>
-      <c r="E76" t="n">
+      <c r="E76">
         <v>57</v>
       </c>
     </row>
-    <row r="77">
-      <c r="A77" s="2" t="n">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A77" s="2">
         <v>44681</v>
       </c>
-      <c r="B77" t="n">
+      <c r="B77">
         <v>52</v>
       </c>
-      <c r="C77" t="n">
+      <c r="C77">
         <v>53</v>
       </c>
-      <c r="D77" t="n">
+      <c r="D77">
         <v>45</v>
       </c>
-      <c r="E77" t="n">
+      <c r="E77">
         <v>58</v>
       </c>
     </row>
-    <row r="78">
-      <c r="A78" s="2" t="n">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A78" s="2">
         <v>44712</v>
       </c>
-      <c r="B78" t="n">
+      <c r="B78">
         <v>49</v>
       </c>
-      <c r="C78" t="n">
+      <c r="C78">
         <v>58</v>
       </c>
-      <c r="D78" t="n">
+      <c r="D78">
         <v>43</v>
       </c>
-      <c r="E78" t="n">
+      <c r="E78">
         <v>66</v>
       </c>
     </row>
-    <row r="79">
-      <c r="A79" s="2" t="n">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A79" s="2">
         <v>44742</v>
       </c>
-      <c r="B79" t="n">
+      <c r="B79">
         <v>45</v>
       </c>
-      <c r="C79" t="n">
+      <c r="C79">
         <v>51</v>
       </c>
-      <c r="D79" t="n">
+      <c r="D79">
         <v>37</v>
       </c>
-      <c r="E79" t="n">
+      <c r="E79">
         <v>52</v>
       </c>
     </row>
-    <row r="80">
-      <c r="A80" s="2" t="n">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A80" s="2">
         <v>44773</v>
       </c>
-      <c r="B80" t="n">
+      <c r="B80">
         <v>32</v>
       </c>
-      <c r="C80" t="n">
+      <c r="C80">
         <v>38</v>
       </c>
-      <c r="D80" t="n">
+      <c r="D80">
         <v>27</v>
       </c>
-      <c r="E80" t="n">
+      <c r="E80">
         <v>47</v>
       </c>
     </row>
-    <row r="81">
-      <c r="A81" s="2" t="n">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A81" s="2">
         <v>44804</v>
       </c>
-      <c r="B81" t="n">
+      <c r="B81">
         <v>33</v>
       </c>
-      <c r="C81" t="n">
+      <c r="C81">
         <v>42</v>
       </c>
-      <c r="D81" t="n">
+      <c r="D81">
         <v>28</v>
       </c>
-      <c r="E81" t="n">
+      <c r="E81">
         <v>47</v>
       </c>
     </row>
-    <row r="82">
-      <c r="A82" s="2" t="n">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A82" s="2">
         <v>44834</v>
       </c>
-      <c r="B82" t="n">
+      <c r="B82">
         <v>39</v>
       </c>
-      <c r="C82" t="n">
+      <c r="C82">
         <v>45</v>
       </c>
-      <c r="D82" t="n">
+      <c r="D82">
         <v>29</v>
       </c>
-      <c r="E82" t="n">
+      <c r="E82">
         <v>48</v>
       </c>
     </row>
-    <row r="83">
-      <c r="A83" s="2" t="n">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A83" s="2">
         <v>44865</v>
       </c>
-      <c r="B83" t="n">
+      <c r="B83">
         <v>39</v>
       </c>
-      <c r="C83" t="n">
+      <c r="C83">
         <v>50</v>
       </c>
-      <c r="D83" t="n">
+      <c r="D83">
         <v>30</v>
       </c>
-      <c r="E83" t="n">
+      <c r="E83">
         <v>47</v>
       </c>
     </row>
-    <row r="84">
-      <c r="A84" s="2" t="n">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A84" s="2">
         <v>44895</v>
       </c>
-      <c r="B84" t="n">
+      <c r="B84">
         <v>52</v>
       </c>
-      <c r="C84" t="n">
+      <c r="C84">
         <v>68</v>
       </c>
-      <c r="D84" t="n">
+      <c r="D84">
         <v>39</v>
       </c>
-      <c r="E84" t="n">
+      <c r="E84">
         <v>57</v>
       </c>
     </row>
-    <row r="85">
-      <c r="A85" s="2" t="n">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A85" s="2">
         <v>44926</v>
       </c>
-      <c r="B85" t="n">
+      <c r="B85">
         <v>40</v>
       </c>
-      <c r="C85" t="n">
+      <c r="C85">
         <v>48</v>
       </c>
-      <c r="D85" t="n">
+      <c r="D85">
         <v>39</v>
       </c>
-      <c r="E85" t="n">
+      <c r="E85">
         <v>40</v>
       </c>
     </row>
-    <row r="86">
-      <c r="A86" s="2" t="n">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A86" s="2">
         <v>44957</v>
       </c>
-      <c r="B86" t="n">
+      <c r="B86">
         <v>32</v>
       </c>
-      <c r="C86" t="n">
+      <c r="C86">
         <v>43</v>
       </c>
-      <c r="D86" t="n">
+      <c r="D86">
         <v>31</v>
       </c>
-      <c r="E86" t="n">
+      <c r="E86">
         <v>42</v>
       </c>
     </row>
-    <row r="87">
-      <c r="A87" s="2" t="n">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A87" s="2">
         <v>44985</v>
       </c>
-      <c r="B87" t="n">
+      <c r="B87">
         <v>29</v>
       </c>
-      <c r="C87" t="n">
+      <c r="C87">
         <v>37</v>
       </c>
-      <c r="D87" t="n">
+      <c r="D87">
         <v>28</v>
       </c>
-      <c r="E87" t="n">
+      <c r="E87">
         <v>38</v>
       </c>
     </row>
-    <row r="88">
-      <c r="A88" s="2" t="n">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A88" s="2">
         <v>45016</v>
       </c>
-      <c r="B88" t="n">
+      <c r="B88">
         <v>33</v>
       </c>
-      <c r="C88" t="n">
+      <c r="C88">
         <v>35</v>
       </c>
-      <c r="D88" t="n">
+      <c r="D88">
         <v>33</v>
       </c>
-      <c r="E88" t="n">
+      <c r="E88">
         <v>48</v>
       </c>
     </row>
-    <row r="89">
-      <c r="A89" s="2" t="n">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A89" s="2">
         <v>45046</v>
       </c>
-      <c r="B89" t="n">
+      <c r="B89">
         <v>35</v>
       </c>
-      <c r="C89" t="n">
+      <c r="C89">
         <v>36</v>
       </c>
-      <c r="D89" t="n">
+      <c r="D89">
         <v>40</v>
       </c>
-      <c r="E89" t="n">
+      <c r="E89">
         <v>48</v>
       </c>
     </row>
-    <row r="90">
-      <c r="A90" s="2" t="n">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A90" s="2">
         <v>45077</v>
       </c>
-      <c r="B90" t="n">
+      <c r="B90">
         <v>40</v>
       </c>
-      <c r="C90" t="n">
+      <c r="C90">
         <v>42</v>
       </c>
-      <c r="D90" t="n">
+      <c r="D90">
         <v>31</v>
       </c>
-      <c r="E90" t="n">
+      <c r="E90">
         <v>44</v>
       </c>
     </row>
-    <row r="91">
-      <c r="A91" s="2" t="n">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A91" s="2">
         <v>45107</v>
       </c>
-      <c r="B91" t="n">
+      <c r="B91">
         <v>34</v>
       </c>
-      <c r="C91" t="n">
+      <c r="C91">
         <v>38</v>
       </c>
-      <c r="D91" t="n">
+      <c r="D91">
         <v>29</v>
       </c>
-      <c r="E91" t="n">
+      <c r="E91">
         <v>39</v>
       </c>
     </row>
-    <row r="92">
-      <c r="A92" s="2" t="n">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A92" s="2">
         <v>45138</v>
       </c>
-      <c r="B92" t="n">
+      <c r="B92">
         <v>23</v>
       </c>
-      <c r="C92" t="n">
+      <c r="C92">
         <v>26</v>
       </c>
-      <c r="D92" t="n">
+      <c r="D92">
         <v>24</v>
       </c>
-      <c r="E92" t="n">
+      <c r="E92">
         <v>32</v>
       </c>
     </row>
-    <row r="93">
-      <c r="A93" s="2" t="n">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A93" s="2">
         <v>45169</v>
       </c>
-      <c r="B93" t="n">
+      <c r="B93">
         <v>28</v>
       </c>
-      <c r="C93" t="n">
+      <c r="C93">
         <v>30</v>
       </c>
-      <c r="D93" t="n">
+      <c r="D93">
         <v>24</v>
       </c>
-      <c r="E93" t="n">
+      <c r="E93">
         <v>31</v>
       </c>
     </row>
-    <row r="94">
-      <c r="A94" s="2" t="n">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A94" s="2">
         <v>45199</v>
       </c>
-      <c r="B94" t="n">
+      <c r="B94">
         <v>28</v>
       </c>
-      <c r="C94" t="n">
+      <c r="C94">
         <v>34</v>
       </c>
-      <c r="D94" t="n">
+      <c r="D94">
         <v>31</v>
       </c>
-      <c r="E94" t="n">
+      <c r="E94">
         <v>33</v>
       </c>
     </row>
-    <row r="95">
-      <c r="A95" s="2" t="n">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A95" s="2">
         <v>45230</v>
       </c>
-      <c r="B95" t="n">
+      <c r="B95">
         <v>36</v>
       </c>
-      <c r="C95" t="n">
+      <c r="C95">
         <v>34</v>
       </c>
-      <c r="D95" t="n">
+      <c r="D95">
         <v>33</v>
       </c>
-      <c r="E95" t="n">
+      <c r="E95">
         <v>30</v>
       </c>
     </row>
-    <row r="96">
-      <c r="A96" s="2" t="n">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A96" s="2">
         <v>45260</v>
       </c>
-      <c r="B96" t="n">
+      <c r="B96">
         <v>39</v>
       </c>
-      <c r="C96" t="n">
+      <c r="C96">
         <v>51</v>
       </c>
-      <c r="D96" t="n">
+      <c r="D96">
         <v>41</v>
       </c>
-      <c r="E96" t="n">
+      <c r="E96">
         <v>31</v>
       </c>
     </row>
-    <row r="97">
-      <c r="A97" s="2" t="n">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A97" s="2">
         <v>45291</v>
       </c>
-      <c r="B97" t="n">
+      <c r="B97">
         <v>31</v>
       </c>
-      <c r="C97" t="n">
+      <c r="C97">
         <v>38</v>
       </c>
-      <c r="D97" t="n">
+      <c r="D97">
         <v>38</v>
       </c>
-      <c r="E97" t="n">
+      <c r="E97">
         <v>24</v>
       </c>
     </row>
-    <row r="98">
-      <c r="A98" s="2" t="n">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A98" s="2">
         <v>45322</v>
       </c>
-      <c r="B98" t="n">
+      <c r="B98">
         <v>27</v>
       </c>
-      <c r="C98" t="n">
+      <c r="C98">
         <v>33</v>
       </c>
-      <c r="D98" t="n">
+      <c r="D98">
         <v>33</v>
       </c>
-      <c r="E98" t="n">
+      <c r="E98">
         <v>28</v>
       </c>
     </row>
-    <row r="99">
-      <c r="A99" s="2" t="n">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A99" s="2">
         <v>45351</v>
       </c>
-      <c r="B99" t="n">
+      <c r="B99">
         <v>26</v>
       </c>
-      <c r="C99" t="n">
+      <c r="C99">
         <v>34</v>
       </c>
-      <c r="D99" t="n">
+      <c r="D99">
         <v>31</v>
       </c>
-      <c r="E99" t="n">
+      <c r="E99">
         <v>27</v>
       </c>
     </row>
-    <row r="100">
-      <c r="A100" s="2" t="n">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A100" s="2">
         <v>45382</v>
       </c>
-      <c r="B100" t="n">
+      <c r="B100">
         <v>31</v>
       </c>
-      <c r="C100" t="n">
+      <c r="C100">
         <v>36</v>
       </c>
-      <c r="D100" t="n">
+      <c r="D100">
         <v>39</v>
       </c>
-      <c r="E100" t="n">
+      <c r="E100">
         <v>36</v>
       </c>
     </row>
-    <row r="101">
-      <c r="A101" s="2" t="n">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A101" s="2">
         <v>45412</v>
       </c>
-      <c r="B101" t="n">
+      <c r="B101">
         <v>36</v>
       </c>
-      <c r="C101" t="n">
+      <c r="C101">
         <v>39</v>
       </c>
-      <c r="D101" t="n">
+      <c r="D101">
         <v>43</v>
       </c>
-      <c r="E101" t="n">
+      <c r="E101">
         <v>35</v>
       </c>
     </row>
-    <row r="102">
-      <c r="A102" s="2" t="n">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A102" s="2">
         <v>45443</v>
       </c>
-      <c r="B102" t="n">
+      <c r="B102">
         <v>43</v>
       </c>
-      <c r="C102" t="n">
+      <c r="C102">
         <v>45</v>
       </c>
-      <c r="D102" t="n">
+      <c r="D102">
         <v>50</v>
       </c>
-      <c r="E102" t="n">
+      <c r="E102">
         <v>43</v>
       </c>
     </row>
-    <row r="103">
-      <c r="A103" s="2" t="n">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A103" s="2">
         <v>45473</v>
       </c>
-      <c r="B103" t="n">
+      <c r="B103">
         <v>36</v>
       </c>
-      <c r="C103" t="n">
+      <c r="C103">
         <v>38</v>
       </c>
-      <c r="D103" t="n">
+      <c r="D103">
         <v>41</v>
       </c>
-      <c r="E103" t="n">
+      <c r="E103">
         <v>37</v>
       </c>
     </row>
-    <row r="104">
-      <c r="A104" s="2" t="n">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A104" s="2">
         <v>45504</v>
       </c>
-      <c r="B104" t="n">
+      <c r="B104">
         <v>27</v>
       </c>
-      <c r="C104" t="n">
+      <c r="C104">
         <v>32</v>
       </c>
-      <c r="D104" t="n">
+      <c r="D104">
         <v>26</v>
       </c>
-      <c r="E104" t="n">
+      <c r="E104">
         <v>33</v>
       </c>
     </row>
-    <row r="105">
-      <c r="A105" s="2" t="n">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A105" s="2">
         <v>45535</v>
       </c>
-      <c r="B105" t="n">
+      <c r="B105">
         <v>33</v>
       </c>
-      <c r="C105" t="n">
+      <c r="C105">
         <v>35</v>
       </c>
-      <c r="D105" t="n">
+      <c r="D105">
         <v>37</v>
       </c>
-      <c r="E105" t="n">
+      <c r="E105">
         <v>32</v>
       </c>
     </row>
-    <row r="106">
-      <c r="A106" s="2" t="n">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A106" s="2">
         <v>45565</v>
       </c>
-      <c r="B106" t="n">
+      <c r="B106">
         <v>37</v>
       </c>
-      <c r="C106" t="n">
+      <c r="C106">
         <v>41</v>
       </c>
-      <c r="D106" t="n">
+      <c r="D106">
         <v>47</v>
       </c>
-      <c r="E106" t="n">
+      <c r="E106">
         <v>29</v>
       </c>
     </row>
-    <row r="107">
-      <c r="A107" s="2" t="n">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A107" s="2">
         <v>45596</v>
       </c>
-      <c r="B107" t="n">
+      <c r="B107">
         <v>35</v>
       </c>
-      <c r="C107" t="n">
+      <c r="C107">
         <v>44</v>
       </c>
-      <c r="D107" t="n">
+      <c r="D107">
         <v>54</v>
       </c>
-      <c r="E107" t="n">
+      <c r="E107">
         <v>30</v>
       </c>
     </row>
-    <row r="108">
-      <c r="A108" s="2" t="n">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A108" s="2">
         <v>45626</v>
       </c>
-      <c r="B108" t="n">
+      <c r="B108">
         <v>45</v>
       </c>
-      <c r="C108" t="n">
+      <c r="C108">
         <v>61</v>
       </c>
-      <c r="D108" t="n">
+      <c r="D108">
         <v>61</v>
       </c>
-      <c r="E108" t="n">
+      <c r="E108">
         <v>35</v>
       </c>
     </row>
-    <row r="109">
-      <c r="A109" s="2" t="n">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A109" s="2">
         <v>45657</v>
       </c>
-      <c r="B109" t="n">
+      <c r="B109">
         <v>36</v>
       </c>
-      <c r="C109" t="n">
+      <c r="C109">
         <v>43</v>
       </c>
-      <c r="D109" t="n">
+      <c r="D109">
         <v>54</v>
       </c>
-      <c r="E109" t="n">
+      <c r="E109">
         <v>27</v>
       </c>
     </row>
-    <row r="110">
-      <c r="A110" s="2" t="n">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A110" s="2">
         <v>45688</v>
       </c>
-      <c r="B110" t="n">
+      <c r="B110">
         <v>36</v>
       </c>
-      <c r="C110" t="n">
+      <c r="C110">
         <v>46</v>
       </c>
-      <c r="D110" t="n">
+      <c r="D110">
         <v>52</v>
       </c>
-      <c r="E110" t="n">
+      <c r="E110">
         <v>34</v>
       </c>
     </row>
-    <row r="111">
-      <c r="A111" s="2" t="n">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A111" s="2">
         <v>45716</v>
       </c>
-      <c r="B111" t="n">
+      <c r="B111">
         <v>34</v>
       </c>
-      <c r="C111" t="n">
+      <c r="C111">
         <v>38</v>
       </c>
-      <c r="D111" t="n">
+      <c r="D111">
         <v>45</v>
       </c>
-      <c r="E111" t="n">
+      <c r="E111">
         <v>29</v>
       </c>
     </row>
-    <row r="112">
-      <c r="A112" s="2" t="n">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A112" s="2">
         <v>45747</v>
       </c>
-      <c r="B112" t="n">
+      <c r="B112">
         <v>44</v>
       </c>
-      <c r="C112" t="n">
+      <c r="C112">
         <v>53</v>
       </c>
-      <c r="D112" t="n">
+      <c r="D112">
         <v>52</v>
       </c>
-      <c r="E112" t="n">
+      <c r="E112">
         <v>35</v>
       </c>
     </row>
-    <row r="113">
-      <c r="A113" s="2" t="n">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A113" s="2">
         <v>45777</v>
       </c>
-      <c r="B113" t="n">
+      <c r="B113">
         <v>50</v>
       </c>
-      <c r="C113" t="n">
+      <c r="C113">
         <v>50</v>
       </c>
-      <c r="D113" t="n">
+      <c r="D113">
         <v>51</v>
       </c>
-      <c r="E113" t="n">
+      <c r="E113">
         <v>40</v>
       </c>
     </row>
-    <row r="114">
-      <c r="A114" s="2" t="n">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A114" s="2">
         <v>45808</v>
       </c>
-      <c r="B114" t="n">
+      <c r="B114">
         <v>45</v>
       </c>
-      <c r="C114" t="n">
+      <c r="C114">
         <v>53</v>
       </c>
-      <c r="D114" t="n">
+      <c r="D114">
         <v>52</v>
       </c>
-      <c r="E114" t="n">
+      <c r="E114">
         <v>38</v>
       </c>
     </row>
-    <row r="115">
-      <c r="A115" s="2" t="n">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A115" s="2">
         <v>45838</v>
       </c>
-      <c r="B115" t="n">
+      <c r="B115">
         <v>38</v>
       </c>
-      <c r="C115" t="n">
+      <c r="C115">
         <v>46</v>
       </c>
-      <c r="D115" t="n">
+      <c r="D115">
         <v>42</v>
       </c>
-      <c r="E115" t="n">
+      <c r="E115">
         <v>33</v>
       </c>
     </row>
-    <row r="116">
-      <c r="A116" s="2" t="n">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A116" s="2">
         <v>45869</v>
       </c>
-      <c r="B116" t="n">
+      <c r="B116">
         <v>34</v>
       </c>
-      <c r="C116" t="n">
+      <c r="C116">
         <v>38</v>
       </c>
-      <c r="D116" t="n">
+      <c r="D116">
         <v>32</v>
       </c>
-      <c r="E116" t="n">
+      <c r="E116">
         <v>35</v>
       </c>
     </row>
-    <row r="117">
-      <c r="A117" s="2" t="n">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A117" s="2">
         <v>45900</v>
       </c>
-      <c r="B117" t="n">
+      <c r="B117">
         <v>37</v>
       </c>
-      <c r="C117" t="n">
+      <c r="C117">
         <v>54</v>
       </c>
-      <c r="D117" t="n">
+      <c r="D117">
         <v>53</v>
       </c>
-      <c r="E117" t="n">
+      <c r="E117">
         <v>45</v>
       </c>
     </row>
-    <row r="118">
-      <c r="A118" s="2" t="n">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A118" s="2">
         <v>45930</v>
       </c>
-      <c r="B118" t="n">
+      <c r="B118">
         <v>40</v>
       </c>
-      <c r="C118" t="n">
+      <c r="C118">
         <v>47</v>
       </c>
-      <c r="D118" t="n">
+      <c r="D118">
         <v>45</v>
       </c>
-      <c r="E118" t="n">
+      <c r="E118">
         <v>36</v>
       </c>
     </row>
-    <row r="119">
-      <c r="A119" s="2" t="n">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A119" s="2">
         <v>45961</v>
       </c>
-      <c r="B119" t="n">
+      <c r="B119">
         <v>49</v>
       </c>
-      <c r="C119" t="n">
+      <c r="C119">
         <v>42</v>
       </c>
-      <c r="D119" t="n">
+      <c r="D119">
         <v>66</v>
       </c>
-      <c r="E119" t="n">
+      <c r="E119">
         <v>38</v>
       </c>
     </row>

--- a/data/nelly_trends_monthly.xlsx
+++ b/data/nelly_trends_monthly.xlsx
@@ -469,10 +469,10 @@
         <v>42400</v>
       </c>
       <c r="B2" t="n">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C2" t="n">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D2" t="n">
         <v>84</v>
@@ -486,7 +486,7 @@
         <v>42429</v>
       </c>
       <c r="B3" t="n">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C3" t="n">
         <v>53</v>
@@ -503,13 +503,13 @@
         <v>42460</v>
       </c>
       <c r="B4" t="n">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C4" t="n">
         <v>57</v>
       </c>
       <c r="D4" t="n">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E4" t="n">
         <v>83</v>
@@ -520,16 +520,16 @@
         <v>42490</v>
       </c>
       <c r="B5" t="n">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C5" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D5" t="n">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E5" t="n">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6">
@@ -543,7 +543,7 @@
         <v>66</v>
       </c>
       <c r="D6" t="n">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E6" t="n">
         <v>100</v>
@@ -554,16 +554,16 @@
         <v>42551</v>
       </c>
       <c r="B7" t="n">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C7" t="n">
+        <v>71</v>
+      </c>
+      <c r="D7" t="n">
         <v>70</v>
       </c>
-      <c r="D7" t="n">
-        <v>71</v>
-      </c>
       <c r="E7" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8">
@@ -571,7 +571,7 @@
         <v>42582</v>
       </c>
       <c r="B8" t="n">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C8" t="n">
         <v>55</v>
@@ -580,7 +580,7 @@
         <v>55</v>
       </c>
       <c r="E8" t="n">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9">
@@ -588,16 +588,16 @@
         <v>42613</v>
       </c>
       <c r="B9" t="n">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C9" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D9" t="n">
         <v>51</v>
       </c>
       <c r="E9" t="n">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10">
@@ -605,16 +605,16 @@
         <v>42643</v>
       </c>
       <c r="B10" t="n">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C10" t="n">
         <v>61</v>
       </c>
       <c r="D10" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E10" t="n">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11">
@@ -622,13 +622,13 @@
         <v>42674</v>
       </c>
       <c r="B11" t="n">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C11" t="n">
         <v>64</v>
       </c>
       <c r="D11" t="n">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E11" t="n">
         <v>81</v>
@@ -642,13 +642,13 @@
         <v>100</v>
       </c>
       <c r="C12" t="n">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D12" t="n">
         <v>81</v>
       </c>
       <c r="E12" t="n">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="13">
@@ -656,10 +656,10 @@
         <v>42735</v>
       </c>
       <c r="B13" t="n">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C13" t="n">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D13" t="n">
         <v>76</v>
@@ -673,13 +673,13 @@
         <v>42766</v>
       </c>
       <c r="B14" t="n">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C14" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D14" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E14" t="n">
         <v>74</v>
@@ -690,7 +690,7 @@
         <v>42794</v>
       </c>
       <c r="B15" t="n">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C15" t="n">
         <v>54</v>
@@ -707,13 +707,13 @@
         <v>42825</v>
       </c>
       <c r="B16" t="n">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C16" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D16" t="n">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E16" t="n">
         <v>75</v>
@@ -724,16 +724,16 @@
         <v>42855</v>
       </c>
       <c r="B17" t="n">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C17" t="n">
         <v>67</v>
       </c>
       <c r="D17" t="n">
+        <v>87</v>
+      </c>
+      <c r="E17" t="n">
         <v>85</v>
-      </c>
-      <c r="E17" t="n">
-        <v>83</v>
       </c>
     </row>
     <row r="18">
@@ -741,16 +741,16 @@
         <v>42886</v>
       </c>
       <c r="B18" t="n">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C18" t="n">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D18" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E18" t="n">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="19">
@@ -758,13 +758,13 @@
         <v>42916</v>
       </c>
       <c r="B19" t="n">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="C19" t="n">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D19" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E19" t="n">
         <v>71</v>
@@ -778,10 +778,10 @@
         <v>71</v>
       </c>
       <c r="C20" t="n">
+        <v>60</v>
+      </c>
+      <c r="D20" t="n">
         <v>61</v>
-      </c>
-      <c r="D20" t="n">
-        <v>60</v>
       </c>
       <c r="E20" t="n">
         <v>64</v>
@@ -792,16 +792,16 @@
         <v>42978</v>
       </c>
       <c r="B21" t="n">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="C21" t="n">
         <v>61</v>
       </c>
       <c r="D21" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E21" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22">
@@ -809,7 +809,7 @@
         <v>43008</v>
       </c>
       <c r="B22" t="n">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C22" t="n">
         <v>66</v>
@@ -826,16 +826,16 @@
         <v>43039</v>
       </c>
       <c r="B23" t="n">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C23" t="n">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D23" t="n">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E23" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="24">
@@ -843,13 +843,13 @@
         <v>43069</v>
       </c>
       <c r="B24" t="n">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C24" t="n">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="D24" t="n">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E24" t="n">
         <v>96</v>
@@ -860,10 +860,10 @@
         <v>43100</v>
       </c>
       <c r="B25" t="n">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C25" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D25" t="n">
         <v>87</v>
@@ -877,16 +877,16 @@
         <v>43131</v>
       </c>
       <c r="B26" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C26" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D26" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E26" t="n">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="27">
@@ -894,13 +894,13 @@
         <v>43159</v>
       </c>
       <c r="B27" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C27" t="n">
         <v>52</v>
       </c>
       <c r="D27" t="n">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E27" t="n">
         <v>62</v>
@@ -914,13 +914,13 @@
         <v>71</v>
       </c>
       <c r="C28" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D28" t="n">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E28" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="29">
@@ -928,10 +928,10 @@
         <v>43220</v>
       </c>
       <c r="B29" t="n">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="C29" t="n">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D29" t="n">
         <v>100</v>
@@ -945,16 +945,16 @@
         <v>43251</v>
       </c>
       <c r="B30" t="n">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C30" t="n">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D30" t="n">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E30" t="n">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="31">
@@ -962,7 +962,7 @@
         <v>43281</v>
       </c>
       <c r="B31" t="n">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C31" t="n">
         <v>68</v>
@@ -979,10 +979,10 @@
         <v>43312</v>
       </c>
       <c r="B32" t="n">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C32" t="n">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D32" t="n">
         <v>75</v>
@@ -996,13 +996,13 @@
         <v>43343</v>
       </c>
       <c r="B33" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C33" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D33" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E33" t="n">
         <v>60</v>
@@ -1013,7 +1013,7 @@
         <v>43373</v>
       </c>
       <c r="B34" t="n">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C34" t="n">
         <v>67</v>
@@ -1022,7 +1022,7 @@
         <v>75</v>
       </c>
       <c r="E34" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="35">
@@ -1030,13 +1030,13 @@
         <v>43404</v>
       </c>
       <c r="B35" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C35" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D35" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E35" t="n">
         <v>68</v>
@@ -1047,16 +1047,16 @@
         <v>43434</v>
       </c>
       <c r="B36" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C36" t="n">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="D36" t="n">
         <v>86</v>
       </c>
       <c r="E36" t="n">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="37">
@@ -1064,16 +1064,16 @@
         <v>43465</v>
       </c>
       <c r="B37" t="n">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C37" t="n">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D37" t="n">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E37" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="38">
@@ -1084,10 +1084,10 @@
         <v>65</v>
       </c>
       <c r="C38" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D38" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E38" t="n">
         <v>61</v>
@@ -1104,7 +1104,7 @@
         <v>56</v>
       </c>
       <c r="D39" t="n">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E39" t="n">
         <v>62</v>
@@ -1115,13 +1115,13 @@
         <v>43555</v>
       </c>
       <c r="B40" t="n">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C40" t="n">
         <v>64</v>
       </c>
       <c r="D40" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E40" t="n">
         <v>62</v>
@@ -1135,10 +1135,10 @@
         <v>79</v>
       </c>
       <c r="C41" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D41" t="n">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E41" t="n">
         <v>64</v>
@@ -1149,10 +1149,10 @@
         <v>43616</v>
       </c>
       <c r="B42" t="n">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C42" t="n">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="D42" t="n">
         <v>78</v>
@@ -1169,13 +1169,13 @@
         <v>77</v>
       </c>
       <c r="C43" t="n">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D43" t="n">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E43" t="n">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="44">
@@ -1183,13 +1183,13 @@
         <v>43677</v>
       </c>
       <c r="B44" t="n">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C44" t="n">
         <v>62</v>
       </c>
       <c r="D44" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E44" t="n">
         <v>61</v>
@@ -1200,7 +1200,7 @@
         <v>43708</v>
       </c>
       <c r="B45" t="n">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C45" t="n">
         <v>65</v>
@@ -1209,7 +1209,7 @@
         <v>60</v>
       </c>
       <c r="E45" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="46">
@@ -1217,16 +1217,16 @@
         <v>43738</v>
       </c>
       <c r="B46" t="n">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C46" t="n">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D46" t="n">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E46" t="n">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="47">
@@ -1234,13 +1234,13 @@
         <v>43769</v>
       </c>
       <c r="B47" t="n">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C47" t="n">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D47" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E47" t="n">
         <v>66</v>
@@ -1251,16 +1251,16 @@
         <v>43799</v>
       </c>
       <c r="B48" t="n">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C48" t="n">
         <v>100</v>
       </c>
       <c r="D48" t="n">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E48" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="49">
@@ -1268,16 +1268,16 @@
         <v>43830</v>
       </c>
       <c r="B49" t="n">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C49" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D49" t="n">
         <v>76</v>
       </c>
       <c r="E49" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="50">
@@ -1285,16 +1285,16 @@
         <v>43861</v>
       </c>
       <c r="B50" t="n">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C50" t="n">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D50" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E50" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="51">
@@ -1302,13 +1302,13 @@
         <v>43890</v>
       </c>
       <c r="B51" t="n">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C51" t="n">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D51" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E51" t="n">
         <v>58</v>
@@ -1319,10 +1319,10 @@
         <v>43921</v>
       </c>
       <c r="B52" t="n">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C52" t="n">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="D52" t="n">
         <v>58</v>
@@ -1336,10 +1336,10 @@
         <v>43951</v>
       </c>
       <c r="B53" t="n">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C53" t="n">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D53" t="n">
         <v>72</v>
@@ -1353,13 +1353,13 @@
         <v>43982</v>
       </c>
       <c r="B54" t="n">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C54" t="n">
         <v>76</v>
       </c>
       <c r="D54" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E54" t="n">
         <v>71</v>
@@ -1370,13 +1370,13 @@
         <v>44012</v>
       </c>
       <c r="B55" t="n">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C55" t="n">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D55" t="n">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E55" t="n">
         <v>72</v>
@@ -1387,16 +1387,16 @@
         <v>44043</v>
       </c>
       <c r="B56" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C56" t="n">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D56" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E56" t="n">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="57">
@@ -1404,16 +1404,16 @@
         <v>44074</v>
       </c>
       <c r="B57" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C57" t="n">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D57" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E57" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="58">
@@ -1421,13 +1421,13 @@
         <v>44104</v>
       </c>
       <c r="B58" t="n">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C58" t="n">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D58" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E58" t="n">
         <v>56</v>
@@ -1438,16 +1438,16 @@
         <v>44135</v>
       </c>
       <c r="B59" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C59" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D59" t="n">
         <v>43</v>
       </c>
       <c r="E59" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="60">
@@ -1455,13 +1455,13 @@
         <v>44165</v>
       </c>
       <c r="B60" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C60" t="n">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D60" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E60" t="n">
         <v>62</v>
@@ -1472,16 +1472,16 @@
         <v>44196</v>
       </c>
       <c r="B61" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C61" t="n">
         <v>55</v>
       </c>
       <c r="D61" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E61" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="62">
@@ -1489,16 +1489,16 @@
         <v>44227</v>
       </c>
       <c r="B62" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C62" t="n">
         <v>45</v>
       </c>
       <c r="D62" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E62" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="63">
@@ -1523,16 +1523,16 @@
         <v>44286</v>
       </c>
       <c r="B64" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C64" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D64" t="n">
         <v>38</v>
       </c>
       <c r="E64" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="65">
@@ -1543,7 +1543,7 @@
         <v>45</v>
       </c>
       <c r="C65" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D65" t="n">
         <v>40</v>
@@ -1557,13 +1557,13 @@
         <v>44347</v>
       </c>
       <c r="B66" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C66" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D66" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E66" t="n">
         <v>64</v>
@@ -1574,10 +1574,10 @@
         <v>44377</v>
       </c>
       <c r="B67" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C67" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D67" t="n">
         <v>44</v>
@@ -1591,10 +1591,10 @@
         <v>44408</v>
       </c>
       <c r="B68" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C68" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D68" t="n">
         <v>30</v>
@@ -1608,16 +1608,16 @@
         <v>44439</v>
       </c>
       <c r="B69" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C69" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D69" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E69" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="70">
@@ -1625,7 +1625,7 @@
         <v>44469</v>
       </c>
       <c r="B70" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C70" t="n">
         <v>60</v>
@@ -1642,10 +1642,10 @@
         <v>44500</v>
       </c>
       <c r="B71" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C71" t="n">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D71" t="n">
         <v>42</v>
@@ -1662,7 +1662,7 @@
         <v>59</v>
       </c>
       <c r="C72" t="n">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="D72" t="n">
         <v>49</v>
@@ -1676,13 +1676,13 @@
         <v>44561</v>
       </c>
       <c r="B73" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C73" t="n">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="D73" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E73" t="n">
         <v>50</v>
@@ -1693,16 +1693,16 @@
         <v>44592</v>
       </c>
       <c r="B74" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C74" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D74" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E74" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="75">
@@ -1719,7 +1719,7 @@
         <v>39</v>
       </c>
       <c r="E75" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="76">
@@ -1727,13 +1727,13 @@
         <v>44651</v>
       </c>
       <c r="B76" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C76" t="n">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D76" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E76" t="n">
         <v>57</v>
@@ -1744,16 +1744,16 @@
         <v>44681</v>
       </c>
       <c r="B77" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C77" t="n">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D77" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E77" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="78">
@@ -1778,13 +1778,13 @@
         <v>44742</v>
       </c>
       <c r="B79" t="n">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C79" t="n">
         <v>52</v>
       </c>
       <c r="D79" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E79" t="n">
         <v>52</v>
@@ -1804,7 +1804,7 @@
         <v>27</v>
       </c>
       <c r="E80" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="81">
@@ -1812,7 +1812,7 @@
         <v>44804</v>
       </c>
       <c r="B81" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C81" t="n">
         <v>43</v>
@@ -1821,7 +1821,7 @@
         <v>28</v>
       </c>
       <c r="E81" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="82">
@@ -1829,16 +1829,16 @@
         <v>44834</v>
       </c>
       <c r="B82" t="n">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C82" t="n">
         <v>46</v>
       </c>
       <c r="D82" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E82" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="83">
@@ -1846,10 +1846,10 @@
         <v>44865</v>
       </c>
       <c r="B83" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C83" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D83" t="n">
         <v>30</v>
@@ -1863,13 +1863,13 @@
         <v>44895</v>
       </c>
       <c r="B84" t="n">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C84" t="n">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D84" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E84" t="n">
         <v>57</v>
@@ -1883,13 +1883,13 @@
         <v>38</v>
       </c>
       <c r="C85" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D85" t="n">
         <v>39</v>
       </c>
       <c r="E85" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="86">
@@ -1897,10 +1897,10 @@
         <v>44957</v>
       </c>
       <c r="B86" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C86" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D86" t="n">
         <v>31</v>
@@ -1914,10 +1914,10 @@
         <v>44985</v>
       </c>
       <c r="B87" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C87" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D87" t="n">
         <v>28</v>
@@ -1931,7 +1931,7 @@
         <v>45016</v>
       </c>
       <c r="B88" t="n">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C88" t="n">
         <v>36</v>
@@ -1940,7 +1940,7 @@
         <v>33</v>
       </c>
       <c r="E88" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="89">
@@ -1948,16 +1948,16 @@
         <v>45046</v>
       </c>
       <c r="B89" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C89" t="n">
         <v>36</v>
       </c>
       <c r="D89" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E89" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="90">
@@ -1971,7 +1971,7 @@
         <v>42</v>
       </c>
       <c r="D90" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E90" t="n">
         <v>44</v>
@@ -1982,10 +1982,10 @@
         <v>45107</v>
       </c>
       <c r="B91" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C91" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D91" t="n">
         <v>29</v>
@@ -1999,7 +1999,7 @@
         <v>45138</v>
       </c>
       <c r="B92" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C92" t="n">
         <v>26</v>
@@ -2008,7 +2008,7 @@
         <v>24</v>
       </c>
       <c r="E92" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="93">
@@ -2016,7 +2016,7 @@
         <v>45169</v>
       </c>
       <c r="B93" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C93" t="n">
         <v>31</v>
@@ -2025,7 +2025,7 @@
         <v>24</v>
       </c>
       <c r="E93" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="94">
@@ -2033,10 +2033,10 @@
         <v>45199</v>
       </c>
       <c r="B94" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C94" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D94" t="n">
         <v>31</v>
@@ -2050,13 +2050,13 @@
         <v>45230</v>
       </c>
       <c r="B95" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C95" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D95" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E95" t="n">
         <v>30</v>
@@ -2076,7 +2076,7 @@
         <v>41</v>
       </c>
       <c r="E96" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="97">
@@ -2101,16 +2101,16 @@
         <v>45322</v>
       </c>
       <c r="B98" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C98" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D98" t="n">
         <v>33</v>
       </c>
       <c r="E98" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="99">
@@ -2124,7 +2124,7 @@
         <v>34</v>
       </c>
       <c r="D99" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E99" t="n">
         <v>27</v>
@@ -2152,13 +2152,13 @@
         <v>45412</v>
       </c>
       <c r="B101" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C101" t="n">
         <v>39</v>
       </c>
       <c r="D101" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E101" t="n">
         <v>35</v>
@@ -2186,7 +2186,7 @@
         <v>45473</v>
       </c>
       <c r="B103" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C103" t="n">
         <v>39</v>
@@ -2203,7 +2203,7 @@
         <v>45504</v>
       </c>
       <c r="B104" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C104" t="n">
         <v>33</v>
@@ -2220,7 +2220,7 @@
         <v>45535</v>
       </c>
       <c r="B105" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C105" t="n">
         <v>36</v>
@@ -2229,7 +2229,7 @@
         <v>37</v>
       </c>
       <c r="E105" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="106">
@@ -2237,7 +2237,7 @@
         <v>45565</v>
       </c>
       <c r="B106" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C106" t="n">
         <v>41</v>
@@ -2246,7 +2246,7 @@
         <v>47</v>
       </c>
       <c r="E106" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="107">
@@ -2254,7 +2254,7 @@
         <v>45596</v>
       </c>
       <c r="B107" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C107" t="n">
         <v>45</v>
@@ -2263,7 +2263,7 @@
         <v>54</v>
       </c>
       <c r="E107" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="108">
@@ -2274,10 +2274,10 @@
         <v>43</v>
       </c>
       <c r="C108" t="n">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="D108" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E108" t="n">
         <v>35</v>
@@ -2288,13 +2288,13 @@
         <v>45657</v>
       </c>
       <c r="B109" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C109" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D109" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E109" t="n">
         <v>26</v>
@@ -2305,7 +2305,7 @@
         <v>45688</v>
       </c>
       <c r="B110" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C110" t="n">
         <v>47</v>
@@ -2314,7 +2314,7 @@
         <v>51</v>
       </c>
       <c r="E110" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="111">
@@ -2325,10 +2325,10 @@
         <v>34</v>
       </c>
       <c r="C111" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D111" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E111" t="n">
         <v>30</v>
@@ -2339,13 +2339,13 @@
         <v>45747</v>
       </c>
       <c r="B112" t="n">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C112" t="n">
         <v>53</v>
       </c>
       <c r="D112" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E112" t="n">
         <v>35</v>
@@ -2356,16 +2356,16 @@
         <v>45777</v>
       </c>
       <c r="B113" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C113" t="n">
         <v>51</v>
       </c>
       <c r="D113" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E113" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="114">
@@ -2376,13 +2376,13 @@
         <v>43</v>
       </c>
       <c r="C114" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D114" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E114" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="115">
@@ -2390,13 +2390,13 @@
         <v>45838</v>
       </c>
       <c r="B115" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C115" t="n">
         <v>46</v>
       </c>
       <c r="D115" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E115" t="n">
         <v>33</v>
@@ -2407,13 +2407,13 @@
         <v>45869</v>
       </c>
       <c r="B116" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C116" t="n">
         <v>38</v>
       </c>
       <c r="D116" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E116" t="n">
         <v>34</v>
@@ -2424,13 +2424,13 @@
         <v>45900</v>
       </c>
       <c r="B117" t="n">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C117" t="n">
         <v>55</v>
       </c>
       <c r="D117" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E117" t="n">
         <v>44</v>
@@ -2444,10 +2444,10 @@
         <v>37</v>
       </c>
       <c r="C118" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D118" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E118" t="n">
         <v>36</v>
@@ -2458,16 +2458,16 @@
         <v>45961</v>
       </c>
       <c r="B119" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C119" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D119" t="n">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E119" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/data/nelly_trends_monthly.xlsx
+++ b/data/nelly_trends_monthly.xlsx
@@ -469,16 +469,16 @@
         <v>42400</v>
       </c>
       <c r="B2" t="n">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C2" t="n">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D2" t="n">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E2" t="n">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3">
@@ -486,13 +486,13 @@
         <v>42429</v>
       </c>
       <c r="B3" t="n">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C3" t="n">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D3" t="n">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E3" t="n">
         <v>85</v>
@@ -503,16 +503,16 @@
         <v>42460</v>
       </c>
       <c r="B4" t="n">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C4" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D4" t="n">
         <v>84</v>
       </c>
       <c r="E4" t="n">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5">
@@ -520,16 +520,16 @@
         <v>42490</v>
       </c>
       <c r="B5" t="n">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C5" t="n">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D5" t="n">
         <v>89</v>
       </c>
       <c r="E5" t="n">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6">
@@ -537,13 +537,13 @@
         <v>42521</v>
       </c>
       <c r="B6" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C6" t="n">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D6" t="n">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E6" t="n">
         <v>100</v>
@@ -554,16 +554,16 @@
         <v>42551</v>
       </c>
       <c r="B7" t="n">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C7" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D7" t="n">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E7" t="n">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8">
@@ -574,13 +574,13 @@
         <v>73</v>
       </c>
       <c r="C8" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D8" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E8" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9">
@@ -588,16 +588,16 @@
         <v>42613</v>
       </c>
       <c r="B9" t="n">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C9" t="n">
+        <v>54</v>
+      </c>
+      <c r="D9" t="n">
         <v>52</v>
       </c>
-      <c r="D9" t="n">
-        <v>51</v>
-      </c>
       <c r="E9" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10">
@@ -605,10 +605,10 @@
         <v>42643</v>
       </c>
       <c r="B10" t="n">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C10" t="n">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D10" t="n">
         <v>61</v>
@@ -622,16 +622,16 @@
         <v>42674</v>
       </c>
       <c r="B11" t="n">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C11" t="n">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D11" t="n">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E11" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12">
@@ -639,16 +639,16 @@
         <v>42704</v>
       </c>
       <c r="B12" t="n">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C12" t="n">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="D12" t="n">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E12" t="n">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="13">
@@ -656,13 +656,13 @@
         <v>42735</v>
       </c>
       <c r="B13" t="n">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C13" t="n">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="D13" t="n">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E13" t="n">
         <v>77</v>
@@ -673,16 +673,16 @@
         <v>42766</v>
       </c>
       <c r="B14" t="n">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C14" t="n">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D14" t="n">
         <v>61</v>
       </c>
       <c r="E14" t="n">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15">
@@ -690,13 +690,13 @@
         <v>42794</v>
       </c>
       <c r="B15" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C15" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D15" t="n">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E15" t="n">
         <v>68</v>
@@ -707,10 +707,10 @@
         <v>42825</v>
       </c>
       <c r="B16" t="n">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C16" t="n">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D16" t="n">
         <v>76</v>
@@ -727,13 +727,13 @@
         <v>86</v>
       </c>
       <c r="C17" t="n">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D17" t="n">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E17" t="n">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18">
@@ -744,10 +744,10 @@
         <v>98</v>
       </c>
       <c r="C18" t="n">
+        <v>75</v>
+      </c>
+      <c r="D18" t="n">
         <v>76</v>
-      </c>
-      <c r="D18" t="n">
-        <v>75</v>
       </c>
       <c r="E18" t="n">
         <v>90</v>
@@ -758,13 +758,13 @@
         <v>42916</v>
       </c>
       <c r="B19" t="n">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C19" t="n">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D19" t="n">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E19" t="n">
         <v>71</v>
@@ -775,16 +775,16 @@
         <v>42947</v>
       </c>
       <c r="B20" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C20" t="n">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D20" t="n">
         <v>61</v>
       </c>
       <c r="E20" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21">
@@ -792,16 +792,16 @@
         <v>42978</v>
       </c>
       <c r="B21" t="n">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C21" t="n">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D21" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E21" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22">
@@ -809,16 +809,16 @@
         <v>43008</v>
       </c>
       <c r="B22" t="n">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C22" t="n">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D22" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E22" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="23">
@@ -826,13 +826,13 @@
         <v>43039</v>
       </c>
       <c r="B23" t="n">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C23" t="n">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D23" t="n">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E23" t="n">
         <v>73</v>
@@ -843,16 +843,16 @@
         <v>43069</v>
       </c>
       <c r="B24" t="n">
+        <v>93</v>
+      </c>
+      <c r="C24" t="n">
+        <v>91</v>
+      </c>
+      <c r="D24" t="n">
         <v>92</v>
       </c>
-      <c r="C24" t="n">
-        <v>88</v>
-      </c>
-      <c r="D24" t="n">
-        <v>90</v>
-      </c>
       <c r="E24" t="n">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="25">
@@ -860,13 +860,13 @@
         <v>43100</v>
       </c>
       <c r="B25" t="n">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C25" t="n">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D25" t="n">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E25" t="n">
         <v>65</v>
@@ -877,16 +877,16 @@
         <v>43131</v>
       </c>
       <c r="B26" t="n">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C26" t="n">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D26" t="n">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E26" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="27">
@@ -894,13 +894,13 @@
         <v>43159</v>
       </c>
       <c r="B27" t="n">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C27" t="n">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D27" t="n">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E27" t="n">
         <v>62</v>
@@ -911,16 +911,16 @@
         <v>43190</v>
       </c>
       <c r="B28" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C28" t="n">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D28" t="n">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E28" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="29">
@@ -928,10 +928,10 @@
         <v>43220</v>
       </c>
       <c r="B29" t="n">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C29" t="n">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D29" t="n">
         <v>100</v>
@@ -945,13 +945,13 @@
         <v>43251</v>
       </c>
       <c r="B30" t="n">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C30" t="n">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D30" t="n">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E30" t="n">
         <v>90</v>
@@ -962,13 +962,13 @@
         <v>43281</v>
       </c>
       <c r="B31" t="n">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C31" t="n">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D31" t="n">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E31" t="n">
         <v>70</v>
@@ -982,10 +982,10 @@
         <v>64</v>
       </c>
       <c r="C32" t="n">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D32" t="n">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E32" t="n">
         <v>66</v>
@@ -999,10 +999,10 @@
         <v>59</v>
       </c>
       <c r="C33" t="n">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D33" t="n">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E33" t="n">
         <v>60</v>
@@ -1013,13 +1013,13 @@
         <v>43373</v>
       </c>
       <c r="B34" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C34" t="n">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D34" t="n">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E34" t="n">
         <v>57</v>
@@ -1030,16 +1030,16 @@
         <v>43404</v>
       </c>
       <c r="B35" t="n">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C35" t="n">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D35" t="n">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E35" t="n">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="36">
@@ -1047,13 +1047,13 @@
         <v>43434</v>
       </c>
       <c r="B36" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C36" t="n">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="D36" t="n">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E36" t="n">
         <v>73</v>
@@ -1064,16 +1064,16 @@
         <v>43465</v>
       </c>
       <c r="B37" t="n">
+        <v>74</v>
+      </c>
+      <c r="C37" t="n">
         <v>75</v>
       </c>
-      <c r="C37" t="n">
-        <v>72</v>
-      </c>
       <c r="D37" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E37" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="38">
@@ -1084,10 +1084,10 @@
         <v>65</v>
       </c>
       <c r="C38" t="n">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D38" t="n">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E38" t="n">
         <v>61</v>
@@ -1098,16 +1098,16 @@
         <v>43524</v>
       </c>
       <c r="B39" t="n">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C39" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D39" t="n">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E39" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="40">
@@ -1115,13 +1115,13 @@
         <v>43555</v>
       </c>
       <c r="B40" t="n">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C40" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D40" t="n">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E40" t="n">
         <v>62</v>
@@ -1132,13 +1132,13 @@
         <v>43585</v>
       </c>
       <c r="B41" t="n">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C41" t="n">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D41" t="n">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E41" t="n">
         <v>64</v>
@@ -1149,13 +1149,13 @@
         <v>43616</v>
       </c>
       <c r="B42" t="n">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C42" t="n">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D42" t="n">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E42" t="n">
         <v>77</v>
@@ -1166,16 +1166,16 @@
         <v>43646</v>
       </c>
       <c r="B43" t="n">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C43" t="n">
         <v>82</v>
       </c>
       <c r="D43" t="n">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E43" t="n">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="44">
@@ -1183,13 +1183,13 @@
         <v>43677</v>
       </c>
       <c r="B44" t="n">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C44" t="n">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D44" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E44" t="n">
         <v>61</v>
@@ -1200,16 +1200,16 @@
         <v>43708</v>
       </c>
       <c r="B45" t="n">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C45" t="n">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D45" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E45" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="46">
@@ -1217,16 +1217,16 @@
         <v>43738</v>
       </c>
       <c r="B46" t="n">
+        <v>68</v>
+      </c>
+      <c r="C46" t="n">
         <v>71</v>
       </c>
-      <c r="C46" t="n">
-        <v>69</v>
-      </c>
       <c r="D46" t="n">
+        <v>65</v>
+      </c>
+      <c r="E46" t="n">
         <v>64</v>
-      </c>
-      <c r="E46" t="n">
-        <v>61</v>
       </c>
     </row>
     <row r="47">
@@ -1234,16 +1234,16 @@
         <v>43769</v>
       </c>
       <c r="B47" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C47" t="n">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D47" t="n">
+        <v>67</v>
+      </c>
+      <c r="E47" t="n">
         <v>65</v>
-      </c>
-      <c r="E47" t="n">
-        <v>66</v>
       </c>
     </row>
     <row r="48">
@@ -1251,13 +1251,13 @@
         <v>43799</v>
       </c>
       <c r="B48" t="n">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C48" t="n">
         <v>100</v>
       </c>
       <c r="D48" t="n">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E48" t="n">
         <v>67</v>
@@ -1268,16 +1268,16 @@
         <v>43830</v>
       </c>
       <c r="B49" t="n">
+        <v>79</v>
+      </c>
+      <c r="C49" t="n">
+        <v>82</v>
+      </c>
+      <c r="D49" t="n">
         <v>77</v>
       </c>
-      <c r="C49" t="n">
-        <v>74</v>
-      </c>
-      <c r="D49" t="n">
-        <v>76</v>
-      </c>
       <c r="E49" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="50">
@@ -1285,13 +1285,13 @@
         <v>43861</v>
       </c>
       <c r="B50" t="n">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C50" t="n">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D50" t="n">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E50" t="n">
         <v>62</v>
@@ -1302,16 +1302,16 @@
         <v>43890</v>
       </c>
       <c r="B51" t="n">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C51" t="n">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D51" t="n">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E51" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="52">
@@ -1319,16 +1319,16 @@
         <v>43921</v>
       </c>
       <c r="B52" t="n">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C52" t="n">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="D52" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E52" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="53">
@@ -1336,16 +1336,16 @@
         <v>43951</v>
       </c>
       <c r="B53" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C53" t="n">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="D53" t="n">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E53" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="54">
@@ -1353,13 +1353,13 @@
         <v>43982</v>
       </c>
       <c r="B54" t="n">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C54" t="n">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D54" t="n">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E54" t="n">
         <v>71</v>
@@ -1370,13 +1370,13 @@
         <v>44012</v>
       </c>
       <c r="B55" t="n">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C55" t="n">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="D55" t="n">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E55" t="n">
         <v>72</v>
@@ -1387,13 +1387,13 @@
         <v>44043</v>
       </c>
       <c r="B56" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C56" t="n">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D56" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E56" t="n">
         <v>66</v>
@@ -1407,13 +1407,13 @@
         <v>53</v>
       </c>
       <c r="C57" t="n">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D57" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E57" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="58">
@@ -1421,16 +1421,16 @@
         <v>44104</v>
       </c>
       <c r="B58" t="n">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C58" t="n">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D58" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E58" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="59">
@@ -1438,10 +1438,10 @@
         <v>44135</v>
       </c>
       <c r="B59" t="n">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C59" t="n">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D59" t="n">
         <v>43</v>
@@ -1455,13 +1455,13 @@
         <v>44165</v>
       </c>
       <c r="B60" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C60" t="n">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="D60" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E60" t="n">
         <v>62</v>
@@ -1472,16 +1472,16 @@
         <v>44196</v>
       </c>
       <c r="B61" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C61" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D61" t="n">
+        <v>48</v>
+      </c>
+      <c r="E61" t="n">
         <v>47</v>
-      </c>
-      <c r="E61" t="n">
-        <v>48</v>
       </c>
     </row>
     <row r="62">
@@ -1489,7 +1489,7 @@
         <v>44227</v>
       </c>
       <c r="B62" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C62" t="n">
         <v>45</v>
@@ -1498,7 +1498,7 @@
         <v>40</v>
       </c>
       <c r="E62" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="63">
@@ -1506,10 +1506,10 @@
         <v>44255</v>
       </c>
       <c r="B63" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C63" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D63" t="n">
         <v>37</v>
@@ -1523,10 +1523,10 @@
         <v>44286</v>
       </c>
       <c r="B64" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C64" t="n">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D64" t="n">
         <v>38</v>
@@ -1543,7 +1543,7 @@
         <v>45</v>
       </c>
       <c r="C65" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D65" t="n">
         <v>40</v>
@@ -1560,13 +1560,13 @@
         <v>51</v>
       </c>
       <c r="C66" t="n">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D66" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E66" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="67">
@@ -1574,13 +1574,13 @@
         <v>44377</v>
       </c>
       <c r="B67" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C67" t="n">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D67" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E67" t="n">
         <v>62</v>
@@ -1591,13 +1591,13 @@
         <v>44408</v>
       </c>
       <c r="B68" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C68" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D68" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E68" t="n">
         <v>53</v>
@@ -1608,10 +1608,10 @@
         <v>44439</v>
       </c>
       <c r="B69" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C69" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D69" t="n">
         <v>39</v>
@@ -1625,13 +1625,13 @@
         <v>44469</v>
       </c>
       <c r="B70" t="n">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C70" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D70" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E70" t="n">
         <v>51</v>
@@ -1642,13 +1642,13 @@
         <v>44500</v>
       </c>
       <c r="B71" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C71" t="n">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D71" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E71" t="n">
         <v>53</v>
@@ -1659,16 +1659,16 @@
         <v>44530</v>
       </c>
       <c r="B72" t="n">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C72" t="n">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="D72" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E72" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="73">
@@ -1676,10 +1676,10 @@
         <v>44561</v>
       </c>
       <c r="B73" t="n">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C73" t="n">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D73" t="n">
         <v>44</v>
@@ -1693,13 +1693,13 @@
         <v>44592</v>
       </c>
       <c r="B74" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C74" t="n">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D74" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E74" t="n">
         <v>46</v>
@@ -1713,13 +1713,13 @@
         <v>36</v>
       </c>
       <c r="C75" t="n">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D75" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E75" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="76">
@@ -1727,10 +1727,10 @@
         <v>44651</v>
       </c>
       <c r="B76" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C76" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D76" t="n">
         <v>43</v>
@@ -1744,16 +1744,16 @@
         <v>44681</v>
       </c>
       <c r="B77" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C77" t="n">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D77" t="n">
         <v>46</v>
       </c>
       <c r="E77" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="78">
@@ -1761,10 +1761,10 @@
         <v>44712</v>
       </c>
       <c r="B78" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C78" t="n">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D78" t="n">
         <v>43</v>
@@ -1781,13 +1781,13 @@
         <v>43</v>
       </c>
       <c r="C79" t="n">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D79" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E79" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="80">
@@ -1798,13 +1798,13 @@
         <v>32</v>
       </c>
       <c r="C80" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D80" t="n">
         <v>27</v>
       </c>
       <c r="E80" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="81">
@@ -1815,10 +1815,10 @@
         <v>34</v>
       </c>
       <c r="C81" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D81" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E81" t="n">
         <v>46</v>
@@ -1832,13 +1832,13 @@
         <v>39</v>
       </c>
       <c r="C82" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D82" t="n">
         <v>30</v>
       </c>
       <c r="E82" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="83">
@@ -1846,16 +1846,16 @@
         <v>44865</v>
       </c>
       <c r="B83" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C83" t="n">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D83" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E83" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="84">
@@ -1880,16 +1880,16 @@
         <v>44926</v>
       </c>
       <c r="B85" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C85" t="n">
         <v>49</v>
       </c>
       <c r="D85" t="n">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E85" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="86">
@@ -1900,10 +1900,10 @@
         <v>32</v>
       </c>
       <c r="C86" t="n">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D86" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E86" t="n">
         <v>41</v>
@@ -1914,13 +1914,13 @@
         <v>44985</v>
       </c>
       <c r="B87" t="n">
+        <v>30</v>
+      </c>
+      <c r="C87" t="n">
+        <v>39</v>
+      </c>
+      <c r="D87" t="n">
         <v>29</v>
-      </c>
-      <c r="C87" t="n">
-        <v>37</v>
-      </c>
-      <c r="D87" t="n">
-        <v>28</v>
       </c>
       <c r="E87" t="n">
         <v>38</v>
@@ -1934,13 +1934,13 @@
         <v>33</v>
       </c>
       <c r="C88" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D88" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E88" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="89">
@@ -1951,13 +1951,13 @@
         <v>34</v>
       </c>
       <c r="C89" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D89" t="n">
         <v>40</v>
       </c>
       <c r="E89" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="90">
@@ -1968,10 +1968,10 @@
         <v>38</v>
       </c>
       <c r="C90" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D90" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E90" t="n">
         <v>44</v>
@@ -1982,13 +1982,13 @@
         <v>45107</v>
       </c>
       <c r="B91" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C91" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D91" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E91" t="n">
         <v>39</v>
@@ -1999,16 +1999,16 @@
         <v>45138</v>
       </c>
       <c r="B92" t="n">
+        <v>23</v>
+      </c>
+      <c r="C92" t="n">
+        <v>27</v>
+      </c>
+      <c r="D92" t="n">
         <v>25</v>
       </c>
-      <c r="C92" t="n">
-        <v>26</v>
-      </c>
-      <c r="D92" t="n">
-        <v>24</v>
-      </c>
       <c r="E92" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="93">
@@ -2016,7 +2016,7 @@
         <v>45169</v>
       </c>
       <c r="B93" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C93" t="n">
         <v>31</v>
@@ -2025,7 +2025,7 @@
         <v>24</v>
       </c>
       <c r="E93" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="94">
@@ -2033,16 +2033,16 @@
         <v>45199</v>
       </c>
       <c r="B94" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C94" t="n">
+        <v>35</v>
+      </c>
+      <c r="D94" t="n">
+        <v>32</v>
+      </c>
+      <c r="E94" t="n">
         <v>34</v>
-      </c>
-      <c r="D94" t="n">
-        <v>31</v>
-      </c>
-      <c r="E94" t="n">
-        <v>33</v>
       </c>
     </row>
     <row r="95">
@@ -2050,10 +2050,10 @@
         <v>45230</v>
       </c>
       <c r="B95" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C95" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D95" t="n">
         <v>34</v>
@@ -2067,13 +2067,13 @@
         <v>45260</v>
       </c>
       <c r="B96" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C96" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D96" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E96" t="n">
         <v>32</v>
@@ -2087,10 +2087,10 @@
         <v>31</v>
       </c>
       <c r="C97" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D97" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E97" t="n">
         <v>24</v>
@@ -2101,7 +2101,7 @@
         <v>45322</v>
       </c>
       <c r="B98" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C98" t="n">
         <v>35</v>
@@ -2110,7 +2110,7 @@
         <v>33</v>
       </c>
       <c r="E98" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="99">
@@ -2118,13 +2118,13 @@
         <v>45351</v>
       </c>
       <c r="B99" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C99" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D99" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E99" t="n">
         <v>27</v>
@@ -2135,13 +2135,13 @@
         <v>45382</v>
       </c>
       <c r="B100" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C100" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D100" t="n">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E100" t="n">
         <v>36</v>
@@ -2152,13 +2152,13 @@
         <v>45412</v>
       </c>
       <c r="B101" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C101" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D101" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E101" t="n">
         <v>35</v>
@@ -2169,16 +2169,16 @@
         <v>45443</v>
       </c>
       <c r="B102" t="n">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C102" t="n">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D102" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E102" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="103">
@@ -2189,10 +2189,10 @@
         <v>33</v>
       </c>
       <c r="C103" t="n">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D103" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E103" t="n">
         <v>37</v>
@@ -2203,10 +2203,10 @@
         <v>45504</v>
       </c>
       <c r="B104" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C104" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D104" t="n">
         <v>27</v>
@@ -2220,16 +2220,16 @@
         <v>45535</v>
       </c>
       <c r="B105" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C105" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D105" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E105" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="106">
@@ -2237,16 +2237,16 @@
         <v>45565</v>
       </c>
       <c r="B106" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C106" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D106" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E106" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="107">
@@ -2254,13 +2254,13 @@
         <v>45596</v>
       </c>
       <c r="B107" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C107" t="n">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D107" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E107" t="n">
         <v>30</v>
@@ -2271,16 +2271,16 @@
         <v>45626</v>
       </c>
       <c r="B108" t="n">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C108" t="n">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D108" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E108" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="109">
@@ -2288,13 +2288,13 @@
         <v>45657</v>
       </c>
       <c r="B109" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C109" t="n">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D109" t="n">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E109" t="n">
         <v>26</v>
@@ -2305,16 +2305,16 @@
         <v>45688</v>
       </c>
       <c r="B110" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C110" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D110" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E110" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="111">
@@ -2325,13 +2325,13 @@
         <v>34</v>
       </c>
       <c r="C111" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D111" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E111" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="112">
@@ -2339,13 +2339,13 @@
         <v>45747</v>
       </c>
       <c r="B112" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C112" t="n">
+        <v>54</v>
+      </c>
+      <c r="D112" t="n">
         <v>53</v>
-      </c>
-      <c r="D112" t="n">
-        <v>54</v>
       </c>
       <c r="E112" t="n">
         <v>35</v>
@@ -2356,16 +2356,16 @@
         <v>45777</v>
       </c>
       <c r="B113" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C113" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D113" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E113" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="114">
@@ -2373,16 +2373,16 @@
         <v>45808</v>
       </c>
       <c r="B114" t="n">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C114" t="n">
+        <v>56</v>
+      </c>
+      <c r="D114" t="n">
         <v>54</v>
       </c>
-      <c r="D114" t="n">
-        <v>52</v>
-      </c>
       <c r="E114" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="115">
@@ -2390,10 +2390,10 @@
         <v>45838</v>
       </c>
       <c r="B115" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C115" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D115" t="n">
         <v>43</v>
@@ -2410,13 +2410,13 @@
         <v>31</v>
       </c>
       <c r="C116" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D116" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E116" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="117">
@@ -2424,13 +2424,13 @@
         <v>45900</v>
       </c>
       <c r="B117" t="n">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C117" t="n">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D117" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E117" t="n">
         <v>44</v>
@@ -2441,13 +2441,13 @@
         <v>45930</v>
       </c>
       <c r="B118" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C118" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D118" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E118" t="n">
         <v>36</v>
@@ -2461,10 +2461,10 @@
         <v>47</v>
       </c>
       <c r="C119" t="n">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D119" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E119" t="n">
         <v>38</v>

--- a/data/nelly_trends_monthly.xlsx
+++ b/data/nelly_trends_monthly.xlsx
@@ -469,16 +469,16 @@
         <v>42400</v>
       </c>
       <c r="B2" t="n">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C2" t="n">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D2" t="n">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E2" t="n">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         <v>42429</v>
       </c>
       <c r="B3" t="n">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C3" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D3" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E3" t="n">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4">
@@ -506,13 +506,13 @@
         <v>83</v>
       </c>
       <c r="C4" t="n">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D4" t="n">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E4" t="n">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5">
@@ -520,7 +520,7 @@
         <v>42490</v>
       </c>
       <c r="B5" t="n">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C5" t="n">
         <v>65</v>
@@ -529,7 +529,7 @@
         <v>89</v>
       </c>
       <c r="E5" t="n">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6">
@@ -540,10 +540,10 @@
         <v>100</v>
       </c>
       <c r="C6" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D6" t="n">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E6" t="n">
         <v>100</v>
@@ -554,13 +554,13 @@
         <v>42551</v>
       </c>
       <c r="B7" t="n">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C7" t="n">
         <v>72</v>
       </c>
       <c r="D7" t="n">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E7" t="n">
         <v>77</v>
@@ -574,13 +574,13 @@
         <v>73</v>
       </c>
       <c r="C8" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D8" t="n">
         <v>56</v>
       </c>
       <c r="E8" t="n">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9">
@@ -588,16 +588,16 @@
         <v>42613</v>
       </c>
       <c r="B9" t="n">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C9" t="n">
         <v>54</v>
       </c>
       <c r="D9" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E9" t="n">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10">
@@ -605,13 +605,13 @@
         <v>42643</v>
       </c>
       <c r="B10" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C10" t="n">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D10" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E10" t="n">
         <v>71</v>
@@ -622,13 +622,13 @@
         <v>42674</v>
       </c>
       <c r="B11" t="n">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C11" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D11" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E11" t="n">
         <v>82</v>
@@ -639,13 +639,13 @@
         <v>42704</v>
       </c>
       <c r="B12" t="n">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C12" t="n">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D12" t="n">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E12" t="n">
         <v>98</v>
@@ -656,13 +656,13 @@
         <v>42735</v>
       </c>
       <c r="B13" t="n">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C13" t="n">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="D13" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E13" t="n">
         <v>77</v>
@@ -673,10 +673,10 @@
         <v>42766</v>
       </c>
       <c r="B14" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C14" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D14" t="n">
         <v>61</v>
@@ -693,10 +693,10 @@
         <v>69</v>
       </c>
       <c r="C15" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D15" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E15" t="n">
         <v>68</v>
@@ -707,16 +707,16 @@
         <v>42825</v>
       </c>
       <c r="B16" t="n">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C16" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D16" t="n">
         <v>76</v>
       </c>
       <c r="E16" t="n">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17">
@@ -724,16 +724,16 @@
         <v>42855</v>
       </c>
       <c r="B17" t="n">
+        <v>88</v>
+      </c>
+      <c r="C17" t="n">
+        <v>70</v>
+      </c>
+      <c r="D17" t="n">
         <v>86</v>
       </c>
-      <c r="C17" t="n">
-        <v>69</v>
-      </c>
-      <c r="D17" t="n">
-        <v>88</v>
-      </c>
       <c r="E17" t="n">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="18">
@@ -741,16 +741,16 @@
         <v>42886</v>
       </c>
       <c r="B18" t="n">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C18" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="D18" t="n">
         <v>76</v>
       </c>
       <c r="E18" t="n">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="19">
@@ -758,16 +758,16 @@
         <v>42916</v>
       </c>
       <c r="B19" t="n">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C19" t="n">
         <v>75</v>
       </c>
       <c r="D19" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E19" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20">
@@ -775,10 +775,10 @@
         <v>42947</v>
       </c>
       <c r="B20" t="n">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C20" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D20" t="n">
         <v>61</v>
@@ -792,13 +792,13 @@
         <v>42978</v>
       </c>
       <c r="B21" t="n">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C21" t="n">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D21" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E21" t="n">
         <v>59</v>
@@ -809,16 +809,16 @@
         <v>43008</v>
       </c>
       <c r="B22" t="n">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C22" t="n">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D22" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E22" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="23">
@@ -826,13 +826,13 @@
         <v>43039</v>
       </c>
       <c r="B23" t="n">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C23" t="n">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D23" t="n">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E23" t="n">
         <v>73</v>
@@ -843,16 +843,16 @@
         <v>43069</v>
       </c>
       <c r="B24" t="n">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C24" t="n">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D24" t="n">
         <v>92</v>
       </c>
       <c r="E24" t="n">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="25">
@@ -860,13 +860,13 @@
         <v>43100</v>
       </c>
       <c r="B25" t="n">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C25" t="n">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D25" t="n">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E25" t="n">
         <v>65</v>
@@ -877,13 +877,13 @@
         <v>43131</v>
       </c>
       <c r="B26" t="n">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C26" t="n">
         <v>56</v>
       </c>
       <c r="D26" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E26" t="n">
         <v>65</v>
@@ -894,13 +894,13 @@
         <v>43159</v>
       </c>
       <c r="B27" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C27" t="n">
         <v>54</v>
       </c>
       <c r="D27" t="n">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E27" t="n">
         <v>62</v>
@@ -911,13 +911,13 @@
         <v>43190</v>
       </c>
       <c r="B28" t="n">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C28" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D28" t="n">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E28" t="n">
         <v>63</v>
@@ -928,10 +928,10 @@
         <v>43220</v>
       </c>
       <c r="B29" t="n">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C29" t="n">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D29" t="n">
         <v>100</v>
@@ -945,16 +945,16 @@
         <v>43251</v>
       </c>
       <c r="B30" t="n">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C30" t="n">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="D30" t="n">
         <v>94</v>
       </c>
       <c r="E30" t="n">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="31">
@@ -962,13 +962,13 @@
         <v>43281</v>
       </c>
       <c r="B31" t="n">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C31" t="n">
         <v>70</v>
       </c>
       <c r="D31" t="n">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E31" t="n">
         <v>70</v>
@@ -979,13 +979,13 @@
         <v>43312</v>
       </c>
       <c r="B32" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C32" t="n">
         <v>57</v>
       </c>
       <c r="D32" t="n">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E32" t="n">
         <v>66</v>
@@ -999,10 +999,10 @@
         <v>59</v>
       </c>
       <c r="C33" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D33" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E33" t="n">
         <v>60</v>
@@ -1019,7 +1019,7 @@
         <v>69</v>
       </c>
       <c r="D34" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E34" t="n">
         <v>57</v>
@@ -1033,13 +1033,13 @@
         <v>66</v>
       </c>
       <c r="C35" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D35" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E35" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="36">
@@ -1047,13 +1047,13 @@
         <v>43434</v>
       </c>
       <c r="B36" t="n">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C36" t="n">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D36" t="n">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E36" t="n">
         <v>73</v>
@@ -1064,13 +1064,13 @@
         <v>43465</v>
       </c>
       <c r="B37" t="n">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C37" t="n">
         <v>75</v>
       </c>
       <c r="D37" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E37" t="n">
         <v>59</v>
@@ -1081,7 +1081,7 @@
         <v>43496</v>
       </c>
       <c r="B38" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C38" t="n">
         <v>64</v>
@@ -1090,7 +1090,7 @@
         <v>76</v>
       </c>
       <c r="E38" t="n">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="39">
@@ -1098,16 +1098,16 @@
         <v>43524</v>
       </c>
       <c r="B39" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C39" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D39" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E39" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="40">
@@ -1115,16 +1115,16 @@
         <v>43555</v>
       </c>
       <c r="B40" t="n">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C40" t="n">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D40" t="n">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E40" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="41">
@@ -1132,10 +1132,10 @@
         <v>43585</v>
       </c>
       <c r="B41" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C41" t="n">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D41" t="n">
         <v>89</v>
@@ -1149,13 +1149,13 @@
         <v>43616</v>
       </c>
       <c r="B42" t="n">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C42" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D42" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E42" t="n">
         <v>77</v>
@@ -1166,16 +1166,16 @@
         <v>43646</v>
       </c>
       <c r="B43" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C43" t="n">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="D43" t="n">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E43" t="n">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="44">
@@ -1183,10 +1183,10 @@
         <v>43677</v>
       </c>
       <c r="B44" t="n">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C44" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D44" t="n">
         <v>60</v>
@@ -1200,13 +1200,13 @@
         <v>43708</v>
       </c>
       <c r="B45" t="n">
+        <v>59</v>
+      </c>
+      <c r="C45" t="n">
+        <v>67</v>
+      </c>
+      <c r="D45" t="n">
         <v>60</v>
-      </c>
-      <c r="C45" t="n">
-        <v>66</v>
-      </c>
-      <c r="D45" t="n">
-        <v>61</v>
       </c>
       <c r="E45" t="n">
         <v>56</v>
@@ -1217,16 +1217,16 @@
         <v>43738</v>
       </c>
       <c r="B46" t="n">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C46" t="n">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D46" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E46" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="47">
@@ -1234,16 +1234,16 @@
         <v>43769</v>
       </c>
       <c r="B47" t="n">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C47" t="n">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="D47" t="n">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E47" t="n">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="48">
@@ -1251,16 +1251,16 @@
         <v>43799</v>
       </c>
       <c r="B48" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C48" t="n">
         <v>100</v>
       </c>
       <c r="D48" t="n">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E48" t="n">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="49">
@@ -1268,13 +1268,13 @@
         <v>43830</v>
       </c>
       <c r="B49" t="n">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C49" t="n">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="D49" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E49" t="n">
         <v>58</v>
@@ -1288,10 +1288,10 @@
         <v>60</v>
       </c>
       <c r="C50" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D50" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E50" t="n">
         <v>62</v>
@@ -1302,13 +1302,13 @@
         <v>43890</v>
       </c>
       <c r="B51" t="n">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C51" t="n">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D51" t="n">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E51" t="n">
         <v>59</v>
@@ -1322,13 +1322,13 @@
         <v>61</v>
       </c>
       <c r="C52" t="n">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D52" t="n">
         <v>59</v>
       </c>
       <c r="E52" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="53">
@@ -1336,16 +1336,16 @@
         <v>43951</v>
       </c>
       <c r="B53" t="n">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C53" t="n">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D53" t="n">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E53" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="54">
@@ -1353,13 +1353,13 @@
         <v>43982</v>
       </c>
       <c r="B54" t="n">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C54" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D54" t="n">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E54" t="n">
         <v>71</v>
@@ -1373,10 +1373,10 @@
         <v>71</v>
       </c>
       <c r="C55" t="n">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D55" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E55" t="n">
         <v>72</v>
@@ -1387,10 +1387,10 @@
         <v>44043</v>
       </c>
       <c r="B56" t="n">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C56" t="n">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D56" t="n">
         <v>45</v>
@@ -1407,13 +1407,13 @@
         <v>53</v>
       </c>
       <c r="C57" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D57" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E57" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="58">
@@ -1424,13 +1424,13 @@
         <v>78</v>
       </c>
       <c r="C58" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D58" t="n">
         <v>43</v>
       </c>
       <c r="E58" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="59">
@@ -1441,13 +1441,13 @@
         <v>64</v>
       </c>
       <c r="C59" t="n">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="D59" t="n">
         <v>43</v>
       </c>
       <c r="E59" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="60">
@@ -1455,13 +1455,13 @@
         <v>44165</v>
       </c>
       <c r="B60" t="n">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C60" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D60" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E60" t="n">
         <v>62</v>
@@ -1472,13 +1472,13 @@
         <v>44196</v>
       </c>
       <c r="B61" t="n">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C61" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D61" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E61" t="n">
         <v>47</v>
@@ -1492,10 +1492,10 @@
         <v>37</v>
       </c>
       <c r="C62" t="n">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D62" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E62" t="n">
         <v>51</v>
@@ -1512,7 +1512,7 @@
         <v>42</v>
       </c>
       <c r="D63" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E63" t="n">
         <v>45</v>
@@ -1523,10 +1523,10 @@
         <v>44286</v>
       </c>
       <c r="B64" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C64" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D64" t="n">
         <v>38</v>
@@ -1540,10 +1540,10 @@
         <v>44316</v>
       </c>
       <c r="B65" t="n">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C65" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D65" t="n">
         <v>40</v>
@@ -1563,10 +1563,10 @@
         <v>56</v>
       </c>
       <c r="D66" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E66" t="n">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="67">
@@ -1574,7 +1574,7 @@
         <v>44377</v>
       </c>
       <c r="B67" t="n">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C67" t="n">
         <v>61</v>
@@ -1591,16 +1591,16 @@
         <v>44408</v>
       </c>
       <c r="B68" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C68" t="n">
         <v>47</v>
       </c>
       <c r="D68" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E68" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="69">
@@ -1608,16 +1608,16 @@
         <v>44439</v>
       </c>
       <c r="B69" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C69" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D69" t="n">
         <v>39</v>
       </c>
       <c r="E69" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="70">
@@ -1625,13 +1625,13 @@
         <v>44469</v>
       </c>
       <c r="B70" t="n">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C70" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D70" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E70" t="n">
         <v>51</v>
@@ -1642,13 +1642,13 @@
         <v>44500</v>
       </c>
       <c r="B71" t="n">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C71" t="n">
         <v>60</v>
       </c>
       <c r="D71" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E71" t="n">
         <v>53</v>
@@ -1659,16 +1659,16 @@
         <v>44530</v>
       </c>
       <c r="B72" t="n">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C72" t="n">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D72" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E72" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="73">
@@ -1679,13 +1679,13 @@
         <v>54</v>
       </c>
       <c r="C73" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D73" t="n">
         <v>44</v>
       </c>
       <c r="E73" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="74">
@@ -1693,10 +1693,10 @@
         <v>44592</v>
       </c>
       <c r="B74" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C74" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D74" t="n">
         <v>32</v>
@@ -1713,13 +1713,13 @@
         <v>36</v>
       </c>
       <c r="C75" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D75" t="n">
         <v>40</v>
       </c>
       <c r="E75" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="76">
@@ -1727,10 +1727,10 @@
         <v>44651</v>
       </c>
       <c r="B76" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C76" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D76" t="n">
         <v>43</v>
@@ -1747,7 +1747,7 @@
         <v>51</v>
       </c>
       <c r="C77" t="n">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D77" t="n">
         <v>46</v>
@@ -1761,16 +1761,16 @@
         <v>44712</v>
       </c>
       <c r="B78" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C78" t="n">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="D78" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E78" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="79">
@@ -1781,13 +1781,13 @@
         <v>43</v>
       </c>
       <c r="C79" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D79" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E79" t="n">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="80">
@@ -1795,7 +1795,7 @@
         <v>44773</v>
       </c>
       <c r="B80" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C80" t="n">
         <v>40</v>
@@ -1815,10 +1815,10 @@
         <v>34</v>
       </c>
       <c r="C81" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D81" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E81" t="n">
         <v>46</v>
@@ -1829,13 +1829,13 @@
         <v>44834</v>
       </c>
       <c r="B82" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C82" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D82" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E82" t="n">
         <v>48</v>
@@ -1846,13 +1846,13 @@
         <v>44865</v>
       </c>
       <c r="B83" t="n">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C83" t="n">
         <v>52</v>
       </c>
       <c r="D83" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E83" t="n">
         <v>47</v>
@@ -1863,13 +1863,13 @@
         <v>44895</v>
       </c>
       <c r="B84" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C84" t="n">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D84" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E84" t="n">
         <v>57</v>
@@ -1880,16 +1880,16 @@
         <v>44926</v>
       </c>
       <c r="B85" t="n">
+        <v>38</v>
+      </c>
+      <c r="C85" t="n">
+        <v>51</v>
+      </c>
+      <c r="D85" t="n">
         <v>40</v>
       </c>
-      <c r="C85" t="n">
-        <v>49</v>
-      </c>
-      <c r="D85" t="n">
+      <c r="E85" t="n">
         <v>41</v>
-      </c>
-      <c r="E85" t="n">
-        <v>42</v>
       </c>
     </row>
     <row r="86">
@@ -1897,7 +1897,7 @@
         <v>44957</v>
       </c>
       <c r="B86" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C86" t="n">
         <v>45</v>
@@ -1914,10 +1914,10 @@
         <v>44985</v>
       </c>
       <c r="B87" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C87" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D87" t="n">
         <v>29</v>
@@ -1937,7 +1937,7 @@
         <v>37</v>
       </c>
       <c r="D88" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E88" t="n">
         <v>48</v>
@@ -1948,10 +1948,10 @@
         <v>45046</v>
       </c>
       <c r="B89" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C89" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D89" t="n">
         <v>40</v>
@@ -1965,13 +1965,13 @@
         <v>45077</v>
       </c>
       <c r="B90" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C90" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D90" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E90" t="n">
         <v>44</v>
@@ -1982,13 +1982,13 @@
         <v>45107</v>
       </c>
       <c r="B91" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C91" t="n">
         <v>40</v>
       </c>
       <c r="D91" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E91" t="n">
         <v>39</v>
@@ -1999,16 +1999,16 @@
         <v>45138</v>
       </c>
       <c r="B92" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C92" t="n">
         <v>27</v>
       </c>
       <c r="D92" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E92" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="93">
@@ -2016,16 +2016,16 @@
         <v>45169</v>
       </c>
       <c r="B93" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C93" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D93" t="n">
         <v>24</v>
       </c>
       <c r="E93" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="94">
@@ -2033,16 +2033,16 @@
         <v>45199</v>
       </c>
       <c r="B94" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C94" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D94" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E94" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="95">
@@ -2050,13 +2050,13 @@
         <v>45230</v>
       </c>
       <c r="B95" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C95" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D95" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E95" t="n">
         <v>30</v>
@@ -2067,16 +2067,16 @@
         <v>45260</v>
       </c>
       <c r="B96" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C96" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D96" t="n">
         <v>42</v>
       </c>
       <c r="E96" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="97">
@@ -2087,10 +2087,10 @@
         <v>31</v>
       </c>
       <c r="C97" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D97" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E97" t="n">
         <v>24</v>
@@ -2101,7 +2101,7 @@
         <v>45322</v>
       </c>
       <c r="B98" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C98" t="n">
         <v>35</v>
@@ -2110,7 +2110,7 @@
         <v>33</v>
       </c>
       <c r="E98" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="99">
@@ -2135,13 +2135,13 @@
         <v>45382</v>
       </c>
       <c r="B100" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C100" t="n">
         <v>38</v>
       </c>
       <c r="D100" t="n">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E100" t="n">
         <v>36</v>
@@ -2152,13 +2152,13 @@
         <v>45412</v>
       </c>
       <c r="B101" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C101" t="n">
         <v>40</v>
       </c>
       <c r="D101" t="n">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E101" t="n">
         <v>35</v>
@@ -2169,16 +2169,16 @@
         <v>45443</v>
       </c>
       <c r="B102" t="n">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C102" t="n">
         <v>47</v>
       </c>
       <c r="D102" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E102" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="103">
@@ -2192,7 +2192,7 @@
         <v>41</v>
       </c>
       <c r="D103" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E103" t="n">
         <v>37</v>
@@ -2206,13 +2206,13 @@
         <v>27</v>
       </c>
       <c r="C104" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D104" t="n">
         <v>27</v>
       </c>
       <c r="E104" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="105">
@@ -2220,10 +2220,10 @@
         <v>45535</v>
       </c>
       <c r="B105" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C105" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D105" t="n">
         <v>38</v>
@@ -2240,10 +2240,10 @@
         <v>33</v>
       </c>
       <c r="C106" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D106" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E106" t="n">
         <v>29</v>
@@ -2260,7 +2260,7 @@
         <v>47</v>
       </c>
       <c r="D107" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E107" t="n">
         <v>30</v>
@@ -2271,10 +2271,10 @@
         <v>45626</v>
       </c>
       <c r="B108" t="n">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C108" t="n">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D108" t="n">
         <v>62</v>
@@ -2288,16 +2288,16 @@
         <v>45657</v>
       </c>
       <c r="B109" t="n">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C109" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D109" t="n">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E109" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="110">
@@ -2305,10 +2305,10 @@
         <v>45688</v>
       </c>
       <c r="B110" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C110" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D110" t="n">
         <v>52</v>
@@ -2322,16 +2322,16 @@
         <v>45716</v>
       </c>
       <c r="B111" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C111" t="n">
         <v>40</v>
       </c>
       <c r="D111" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E111" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="112">
@@ -2342,7 +2342,7 @@
         <v>42</v>
       </c>
       <c r="C112" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D112" t="n">
         <v>53</v>
@@ -2356,16 +2356,16 @@
         <v>45777</v>
       </c>
       <c r="B113" t="n">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C113" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D113" t="n">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E113" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="114">
@@ -2373,13 +2373,13 @@
         <v>45808</v>
       </c>
       <c r="B114" t="n">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C114" t="n">
         <v>56</v>
       </c>
       <c r="D114" t="n">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E114" t="n">
         <v>38</v>
@@ -2390,13 +2390,13 @@
         <v>45838</v>
       </c>
       <c r="B115" t="n">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C115" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D115" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E115" t="n">
         <v>33</v>
@@ -2407,13 +2407,13 @@
         <v>45869</v>
       </c>
       <c r="B116" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C116" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D116" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E116" t="n">
         <v>35</v>
@@ -2424,13 +2424,13 @@
         <v>45900</v>
       </c>
       <c r="B117" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C117" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D117" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E117" t="n">
         <v>44</v>
@@ -2444,7 +2444,7 @@
         <v>38</v>
       </c>
       <c r="C118" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D118" t="n">
         <v>45</v>
@@ -2458,13 +2458,13 @@
         <v>45961</v>
       </c>
       <c r="B119" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C119" t="n">
         <v>47</v>
       </c>
       <c r="D119" t="n">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E119" t="n">
         <v>38</v>

--- a/data/nelly_trends_monthly.xlsx
+++ b/data/nelly_trends_monthly.xlsx
@@ -469,16 +469,16 @@
         <v>42400</v>
       </c>
       <c r="B2" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C2" t="n">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D2" t="n">
         <v>84</v>
       </c>
       <c r="E2" t="n">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         <v>42429</v>
       </c>
       <c r="B3" t="n">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C3" t="n">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D3" t="n">
         <v>78</v>
       </c>
       <c r="E3" t="n">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4">
@@ -503,13 +503,13 @@
         <v>42460</v>
       </c>
       <c r="B4" t="n">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C4" t="n">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D4" t="n">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E4" t="n">
         <v>83</v>
@@ -520,10 +520,10 @@
         <v>42490</v>
       </c>
       <c r="B5" t="n">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C5" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D5" t="n">
         <v>89</v>
@@ -540,10 +540,10 @@
         <v>100</v>
       </c>
       <c r="C6" t="n">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D6" t="n">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E6" t="n">
         <v>100</v>
@@ -554,13 +554,13 @@
         <v>42551</v>
       </c>
       <c r="B7" t="n">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C7" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D7" t="n">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E7" t="n">
         <v>77</v>
@@ -574,10 +574,10 @@
         <v>73</v>
       </c>
       <c r="C8" t="n">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D8" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E8" t="n">
         <v>71</v>
@@ -591,10 +591,10 @@
         <v>73</v>
       </c>
       <c r="C9" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D9" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E9" t="n">
         <v>71</v>
@@ -605,10 +605,10 @@
         <v>42643</v>
       </c>
       <c r="B10" t="n">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C10" t="n">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D10" t="n">
         <v>60</v>
@@ -625,13 +625,13 @@
         <v>79</v>
       </c>
       <c r="C11" t="n">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D11" t="n">
         <v>69</v>
       </c>
       <c r="E11" t="n">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12">
@@ -639,16 +639,16 @@
         <v>42704</v>
       </c>
       <c r="B12" t="n">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C12" t="n">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D12" t="n">
         <v>82</v>
       </c>
       <c r="E12" t="n">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="13">
@@ -656,10 +656,10 @@
         <v>42735</v>
       </c>
       <c r="B13" t="n">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C13" t="n">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D13" t="n">
         <v>77</v>
@@ -676,7 +676,7 @@
         <v>71</v>
       </c>
       <c r="C14" t="n">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D14" t="n">
         <v>61</v>
@@ -690,16 +690,16 @@
         <v>42794</v>
       </c>
       <c r="B15" t="n">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C15" t="n">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D15" t="n">
         <v>65</v>
       </c>
       <c r="E15" t="n">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16">
@@ -707,10 +707,10 @@
         <v>42825</v>
       </c>
       <c r="B16" t="n">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C16" t="n">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D16" t="n">
         <v>76</v>
@@ -724,16 +724,16 @@
         <v>42855</v>
       </c>
       <c r="B17" t="n">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C17" t="n">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D17" t="n">
         <v>86</v>
       </c>
       <c r="E17" t="n">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18">
@@ -741,13 +741,13 @@
         <v>42886</v>
       </c>
       <c r="B18" t="n">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C18" t="n">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="D18" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E18" t="n">
         <v>91</v>
@@ -758,16 +758,16 @@
         <v>42916</v>
       </c>
       <c r="B19" t="n">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C19" t="n">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D19" t="n">
         <v>72</v>
       </c>
       <c r="E19" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20">
@@ -775,16 +775,16 @@
         <v>42947</v>
       </c>
       <c r="B20" t="n">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C20" t="n">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D20" t="n">
         <v>61</v>
       </c>
       <c r="E20" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21">
@@ -792,16 +792,16 @@
         <v>42978</v>
       </c>
       <c r="B21" t="n">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C21" t="n">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D21" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E21" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22">
@@ -809,10 +809,10 @@
         <v>43008</v>
       </c>
       <c r="B22" t="n">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C22" t="n">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D22" t="n">
         <v>71</v>
@@ -829,13 +829,13 @@
         <v>77</v>
       </c>
       <c r="C23" t="n">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D23" t="n">
         <v>77</v>
       </c>
       <c r="E23" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="24">
@@ -843,16 +843,16 @@
         <v>43069</v>
       </c>
       <c r="B24" t="n">
+        <v>93</v>
+      </c>
+      <c r="C24" t="n">
+        <v>90</v>
+      </c>
+      <c r="D24" t="n">
         <v>91</v>
       </c>
-      <c r="C24" t="n">
-        <v>88</v>
-      </c>
-      <c r="D24" t="n">
-        <v>92</v>
-      </c>
       <c r="E24" t="n">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="25">
@@ -860,10 +860,10 @@
         <v>43100</v>
       </c>
       <c r="B25" t="n">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C25" t="n">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D25" t="n">
         <v>87</v>
@@ -877,10 +877,10 @@
         <v>43131</v>
       </c>
       <c r="B26" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C26" t="n">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D26" t="n">
         <v>74</v>
@@ -894,16 +894,16 @@
         <v>43159</v>
       </c>
       <c r="B27" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C27" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D27" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E27" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="28">
@@ -911,10 +911,10 @@
         <v>43190</v>
       </c>
       <c r="B28" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C28" t="n">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D28" t="n">
         <v>91</v>
@@ -928,16 +928,16 @@
         <v>43220</v>
       </c>
       <c r="B29" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C29" t="n">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D29" t="n">
         <v>100</v>
       </c>
       <c r="E29" t="n">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="30">
@@ -945,16 +945,16 @@
         <v>43251</v>
       </c>
       <c r="B30" t="n">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C30" t="n">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D30" t="n">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E30" t="n">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="31">
@@ -962,13 +962,13 @@
         <v>43281</v>
       </c>
       <c r="B31" t="n">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C31" t="n">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D31" t="n">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E31" t="n">
         <v>70</v>
@@ -979,13 +979,13 @@
         <v>43312</v>
       </c>
       <c r="B32" t="n">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C32" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D32" t="n">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E32" t="n">
         <v>66</v>
@@ -999,13 +999,13 @@
         <v>59</v>
       </c>
       <c r="C33" t="n">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D33" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E33" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="34">
@@ -1016,13 +1016,13 @@
         <v>69</v>
       </c>
       <c r="C34" t="n">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D34" t="n">
         <v>75</v>
       </c>
       <c r="E34" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="35">
@@ -1030,10 +1030,10 @@
         <v>43404</v>
       </c>
       <c r="B35" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C35" t="n">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D35" t="n">
         <v>81</v>
@@ -1047,13 +1047,13 @@
         <v>43434</v>
       </c>
       <c r="B36" t="n">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C36" t="n">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D36" t="n">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E36" t="n">
         <v>73</v>
@@ -1064,13 +1064,13 @@
         <v>43465</v>
       </c>
       <c r="B37" t="n">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C37" t="n">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="D37" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E37" t="n">
         <v>59</v>
@@ -1084,13 +1084,13 @@
         <v>64</v>
       </c>
       <c r="C38" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D38" t="n">
         <v>76</v>
       </c>
       <c r="E38" t="n">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="39">
@@ -1101,13 +1101,13 @@
         <v>67</v>
       </c>
       <c r="C39" t="n">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D39" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E39" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="40">
@@ -1115,13 +1115,13 @@
         <v>43555</v>
       </c>
       <c r="B40" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C40" t="n">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D40" t="n">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E40" t="n">
         <v>63</v>
@@ -1132,16 +1132,16 @@
         <v>43585</v>
       </c>
       <c r="B41" t="n">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C41" t="n">
+        <v>61</v>
+      </c>
+      <c r="D41" t="n">
+        <v>88</v>
+      </c>
+      <c r="E41" t="n">
         <v>65</v>
-      </c>
-      <c r="D41" t="n">
-        <v>89</v>
-      </c>
-      <c r="E41" t="n">
-        <v>64</v>
       </c>
     </row>
     <row r="42">
@@ -1149,16 +1149,16 @@
         <v>43616</v>
       </c>
       <c r="B42" t="n">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C42" t="n">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D42" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E42" t="n">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="43">
@@ -1166,16 +1166,16 @@
         <v>43646</v>
       </c>
       <c r="B43" t="n">
+        <v>80</v>
+      </c>
+      <c r="C43" t="n">
+        <v>87</v>
+      </c>
+      <c r="D43" t="n">
+        <v>82</v>
+      </c>
+      <c r="E43" t="n">
         <v>77</v>
-      </c>
-      <c r="C43" t="n">
-        <v>86</v>
-      </c>
-      <c r="D43" t="n">
-        <v>83</v>
-      </c>
-      <c r="E43" t="n">
-        <v>76</v>
       </c>
     </row>
     <row r="44">
@@ -1183,16 +1183,16 @@
         <v>43677</v>
       </c>
       <c r="B44" t="n">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C44" t="n">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D44" t="n">
         <v>60</v>
       </c>
       <c r="E44" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="45">
@@ -1200,10 +1200,10 @@
         <v>43708</v>
       </c>
       <c r="B45" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C45" t="n">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D45" t="n">
         <v>60</v>
@@ -1217,16 +1217,16 @@
         <v>43738</v>
       </c>
       <c r="B46" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C46" t="n">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D46" t="n">
+        <v>63</v>
+      </c>
+      <c r="E46" t="n">
         <v>64</v>
-      </c>
-      <c r="E46" t="n">
-        <v>63</v>
       </c>
     </row>
     <row r="47">
@@ -1234,10 +1234,10 @@
         <v>43769</v>
       </c>
       <c r="B47" t="n">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C47" t="n">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D47" t="n">
         <v>66</v>
@@ -1251,13 +1251,13 @@
         <v>43799</v>
       </c>
       <c r="B48" t="n">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C48" t="n">
         <v>100</v>
       </c>
       <c r="D48" t="n">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E48" t="n">
         <v>69</v>
@@ -1268,10 +1268,10 @@
         <v>43830</v>
       </c>
       <c r="B49" t="n">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C49" t="n">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="D49" t="n">
         <v>76</v>
@@ -1291,7 +1291,7 @@
         <v>69</v>
       </c>
       <c r="D50" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E50" t="n">
         <v>62</v>
@@ -1302,7 +1302,7 @@
         <v>43890</v>
       </c>
       <c r="B51" t="n">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C51" t="n">
         <v>68</v>
@@ -1319,13 +1319,13 @@
         <v>43921</v>
       </c>
       <c r="B52" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C52" t="n">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="D52" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E52" t="n">
         <v>52</v>
@@ -1336,16 +1336,16 @@
         <v>43951</v>
       </c>
       <c r="B53" t="n">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C53" t="n">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D53" t="n">
         <v>72</v>
       </c>
       <c r="E53" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="54">
@@ -1356,10 +1356,10 @@
         <v>76</v>
       </c>
       <c r="C54" t="n">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D54" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E54" t="n">
         <v>71</v>
@@ -1370,10 +1370,10 @@
         <v>44012</v>
       </c>
       <c r="B55" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C55" t="n">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D55" t="n">
         <v>67</v>
@@ -1387,13 +1387,13 @@
         <v>44043</v>
       </c>
       <c r="B56" t="n">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C56" t="n">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D56" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E56" t="n">
         <v>66</v>
@@ -1404,16 +1404,16 @@
         <v>44074</v>
       </c>
       <c r="B57" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C57" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D57" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E57" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="58">
@@ -1421,16 +1421,16 @@
         <v>44104</v>
       </c>
       <c r="B58" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C58" t="n">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D58" t="n">
         <v>43</v>
       </c>
       <c r="E58" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="59">
@@ -1438,16 +1438,16 @@
         <v>44135</v>
       </c>
       <c r="B59" t="n">
+        <v>62</v>
+      </c>
+      <c r="C59" t="n">
         <v>64</v>
-      </c>
-      <c r="C59" t="n">
-        <v>72</v>
       </c>
       <c r="D59" t="n">
         <v>43</v>
       </c>
       <c r="E59" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="60">
@@ -1455,13 +1455,13 @@
         <v>44165</v>
       </c>
       <c r="B60" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C60" t="n">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D60" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E60" t="n">
         <v>62</v>
@@ -1472,16 +1472,16 @@
         <v>44196</v>
       </c>
       <c r="B61" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C61" t="n">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D61" t="n">
         <v>47</v>
       </c>
       <c r="E61" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="62">
@@ -1492,7 +1492,7 @@
         <v>37</v>
       </c>
       <c r="C62" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D62" t="n">
         <v>39</v>
@@ -1509,10 +1509,10 @@
         <v>36</v>
       </c>
       <c r="C63" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D63" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E63" t="n">
         <v>45</v>
@@ -1526,13 +1526,13 @@
         <v>41</v>
       </c>
       <c r="C64" t="n">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D64" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E64" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="65">
@@ -1540,16 +1540,16 @@
         <v>44316</v>
       </c>
       <c r="B65" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C65" t="n">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="D65" t="n">
         <v>40</v>
       </c>
       <c r="E65" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="66">
@@ -1560,10 +1560,10 @@
         <v>51</v>
       </c>
       <c r="C66" t="n">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D66" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E66" t="n">
         <v>64</v>
@@ -1574,16 +1574,16 @@
         <v>44377</v>
       </c>
       <c r="B67" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C67" t="n">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D67" t="n">
         <v>45</v>
       </c>
       <c r="E67" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="68">
@@ -1591,16 +1591,16 @@
         <v>44408</v>
       </c>
       <c r="B68" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C68" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D68" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E68" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="69">
@@ -1608,16 +1608,16 @@
         <v>44439</v>
       </c>
       <c r="B69" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C69" t="n">
+        <v>49</v>
+      </c>
+      <c r="D69" t="n">
+        <v>38</v>
+      </c>
+      <c r="E69" t="n">
         <v>51</v>
-      </c>
-      <c r="D69" t="n">
-        <v>39</v>
-      </c>
-      <c r="E69" t="n">
-        <v>52</v>
       </c>
     </row>
     <row r="70">
@@ -1625,10 +1625,10 @@
         <v>44469</v>
       </c>
       <c r="B70" t="n">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C70" t="n">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D70" t="n">
         <v>36</v>
@@ -1645,10 +1645,10 @@
         <v>46</v>
       </c>
       <c r="C71" t="n">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D71" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E71" t="n">
         <v>53</v>
@@ -1662,13 +1662,13 @@
         <v>60</v>
       </c>
       <c r="C72" t="n">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D72" t="n">
         <v>49</v>
       </c>
       <c r="E72" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="73">
@@ -1676,13 +1676,13 @@
         <v>44561</v>
       </c>
       <c r="B73" t="n">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C73" t="n">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D73" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E73" t="n">
         <v>51</v>
@@ -1693,10 +1693,10 @@
         <v>44592</v>
       </c>
       <c r="B74" t="n">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C74" t="n">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D74" t="n">
         <v>32</v>
@@ -1710,16 +1710,16 @@
         <v>44620</v>
       </c>
       <c r="B75" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C75" t="n">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D75" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E75" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="76">
@@ -1730,7 +1730,7 @@
         <v>47</v>
       </c>
       <c r="C76" t="n">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D76" t="n">
         <v>43</v>
@@ -1747,10 +1747,10 @@
         <v>51</v>
       </c>
       <c r="C77" t="n">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D77" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E77" t="n">
         <v>59</v>
@@ -1761,16 +1761,16 @@
         <v>44712</v>
       </c>
       <c r="B78" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C78" t="n">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D78" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E78" t="n">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="79">
@@ -1778,16 +1778,16 @@
         <v>44742</v>
       </c>
       <c r="B79" t="n">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C79" t="n">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D79" t="n">
         <v>38</v>
       </c>
       <c r="E79" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="80">
@@ -1795,13 +1795,13 @@
         <v>44773</v>
       </c>
       <c r="B80" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C80" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D80" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E80" t="n">
         <v>47</v>
@@ -1815,7 +1815,7 @@
         <v>34</v>
       </c>
       <c r="C81" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D81" t="n">
         <v>28</v>
@@ -1829,16 +1829,16 @@
         <v>44834</v>
       </c>
       <c r="B82" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C82" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D82" t="n">
         <v>29</v>
       </c>
       <c r="E82" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="83">
@@ -1846,10 +1846,10 @@
         <v>44865</v>
       </c>
       <c r="B83" t="n">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C83" t="n">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D83" t="n">
         <v>30</v>
@@ -1863,13 +1863,13 @@
         <v>44895</v>
       </c>
       <c r="B84" t="n">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C84" t="n">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D84" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E84" t="n">
         <v>57</v>
@@ -1880,13 +1880,13 @@
         <v>44926</v>
       </c>
       <c r="B85" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C85" t="n">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D85" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E85" t="n">
         <v>41</v>
@@ -1897,16 +1897,16 @@
         <v>44957</v>
       </c>
       <c r="B86" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C86" t="n">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D86" t="n">
         <v>32</v>
       </c>
       <c r="E86" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="87">
@@ -1914,13 +1914,13 @@
         <v>44985</v>
       </c>
       <c r="B87" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C87" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D87" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E87" t="n">
         <v>38</v>
@@ -1934,7 +1934,7 @@
         <v>33</v>
       </c>
       <c r="C88" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D88" t="n">
         <v>33</v>
@@ -1951,7 +1951,7 @@
         <v>35</v>
       </c>
       <c r="C89" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D89" t="n">
         <v>40</v>
@@ -1968,7 +1968,7 @@
         <v>39</v>
       </c>
       <c r="C90" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D90" t="n">
         <v>31</v>
@@ -1982,10 +1982,10 @@
         <v>45107</v>
       </c>
       <c r="B91" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C91" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D91" t="n">
         <v>29</v>
@@ -2002,13 +2002,13 @@
         <v>24</v>
       </c>
       <c r="C92" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D92" t="n">
         <v>24</v>
       </c>
       <c r="E92" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="93">
@@ -2019,7 +2019,7 @@
         <v>26</v>
       </c>
       <c r="C93" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D93" t="n">
         <v>24</v>
@@ -2033,16 +2033,16 @@
         <v>45199</v>
       </c>
       <c r="B94" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C94" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D94" t="n">
         <v>31</v>
       </c>
       <c r="E94" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="95">
@@ -2053,10 +2053,10 @@
         <v>37</v>
       </c>
       <c r="C95" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D95" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E95" t="n">
         <v>30</v>
@@ -2067,16 +2067,16 @@
         <v>45260</v>
       </c>
       <c r="B96" t="n">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C96" t="n">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D96" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E96" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="97">
@@ -2084,10 +2084,10 @@
         <v>45291</v>
       </c>
       <c r="B97" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C97" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D97" t="n">
         <v>38</v>
@@ -2110,7 +2110,7 @@
         <v>33</v>
       </c>
       <c r="E98" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="99">
@@ -2121,7 +2121,7 @@
         <v>27</v>
       </c>
       <c r="C99" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D99" t="n">
         <v>31</v>
@@ -2135,10 +2135,10 @@
         <v>45382</v>
       </c>
       <c r="B100" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C100" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D100" t="n">
         <v>39</v>
@@ -2152,13 +2152,13 @@
         <v>45412</v>
       </c>
       <c r="B101" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C101" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D101" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E101" t="n">
         <v>35</v>
@@ -2169,16 +2169,16 @@
         <v>45443</v>
       </c>
       <c r="B102" t="n">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C102" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D102" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E102" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="103">
@@ -2189,13 +2189,13 @@
         <v>33</v>
       </c>
       <c r="C103" t="n">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D103" t="n">
         <v>41</v>
       </c>
       <c r="E103" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="104">
@@ -2203,10 +2203,10 @@
         <v>45504</v>
       </c>
       <c r="B104" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C104" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D104" t="n">
         <v>27</v>
@@ -2220,16 +2220,16 @@
         <v>45535</v>
       </c>
       <c r="B105" t="n">
+        <v>32</v>
+      </c>
+      <c r="C105" t="n">
         <v>36</v>
       </c>
-      <c r="C105" t="n">
-        <v>38</v>
-      </c>
       <c r="D105" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E105" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="106">
@@ -2240,10 +2240,10 @@
         <v>33</v>
       </c>
       <c r="C106" t="n">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D106" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E106" t="n">
         <v>29</v>
@@ -2254,10 +2254,10 @@
         <v>45596</v>
       </c>
       <c r="B107" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C107" t="n">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D107" t="n">
         <v>54</v>
@@ -2274,13 +2274,13 @@
         <v>43</v>
       </c>
       <c r="C108" t="n">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D108" t="n">
         <v>62</v>
       </c>
       <c r="E108" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="109">
@@ -2288,16 +2288,16 @@
         <v>45657</v>
       </c>
       <c r="B109" t="n">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C109" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D109" t="n">
         <v>54</v>
       </c>
       <c r="E109" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="110">
@@ -2308,10 +2308,10 @@
         <v>33</v>
       </c>
       <c r="C110" t="n">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D110" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E110" t="n">
         <v>33</v>
@@ -2322,13 +2322,13 @@
         <v>45716</v>
       </c>
       <c r="B111" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C111" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D111" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E111" t="n">
         <v>30</v>
@@ -2339,10 +2339,10 @@
         <v>45747</v>
       </c>
       <c r="B112" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C112" t="n">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D112" t="n">
         <v>53</v>
@@ -2359,13 +2359,13 @@
         <v>43</v>
       </c>
       <c r="C113" t="n">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D113" t="n">
         <v>51</v>
       </c>
       <c r="E113" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="114">
@@ -2376,13 +2376,13 @@
         <v>43</v>
       </c>
       <c r="C114" t="n">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D114" t="n">
         <v>52</v>
       </c>
       <c r="E114" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="115">
@@ -2390,13 +2390,13 @@
         <v>45838</v>
       </c>
       <c r="B115" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C115" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D115" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E115" t="n">
         <v>33</v>
@@ -2407,13 +2407,13 @@
         <v>45869</v>
       </c>
       <c r="B116" t="n">
+        <v>34</v>
+      </c>
+      <c r="C116" t="n">
+        <v>38</v>
+      </c>
+      <c r="D116" t="n">
         <v>32</v>
-      </c>
-      <c r="C116" t="n">
-        <v>40</v>
-      </c>
-      <c r="D116" t="n">
-        <v>33</v>
       </c>
       <c r="E116" t="n">
         <v>35</v>
@@ -2424,16 +2424,16 @@
         <v>45900</v>
       </c>
       <c r="B117" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C117" t="n">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D117" t="n">
         <v>53</v>
       </c>
       <c r="E117" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="118">
@@ -2441,13 +2441,13 @@
         <v>45930</v>
       </c>
       <c r="B118" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C118" t="n">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D118" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E118" t="n">
         <v>36</v>
@@ -2458,16 +2458,16 @@
         <v>45961</v>
       </c>
       <c r="B119" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C119" t="n">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D119" t="n">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E119" t="n">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/data/nelly_trends_monthly.xlsx
+++ b/data/nelly_trends_monthly.xlsx
@@ -472,10 +472,10 @@
         <v>72</v>
       </c>
       <c r="C2" t="n">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="D2" t="n">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E2" t="n">
         <v>92</v>
@@ -486,13 +486,13 @@
         <v>42429</v>
       </c>
       <c r="B3" t="n">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C3" t="n">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D3" t="n">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E3" t="n">
         <v>85</v>
@@ -506,10 +506,10 @@
         <v>81</v>
       </c>
       <c r="C4" t="n">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D4" t="n">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E4" t="n">
         <v>83</v>
@@ -523,7 +523,7 @@
         <v>90</v>
       </c>
       <c r="C5" t="n">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D5" t="n">
         <v>89</v>
@@ -540,10 +540,10 @@
         <v>100</v>
       </c>
       <c r="C6" t="n">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D6" t="n">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E6" t="n">
         <v>100</v>
@@ -557,13 +557,13 @@
         <v>88</v>
       </c>
       <c r="C7" t="n">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="D7" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E7" t="n">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8">
@@ -571,13 +571,13 @@
         <v>42582</v>
       </c>
       <c r="B8" t="n">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C8" t="n">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D8" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E8" t="n">
         <v>71</v>
@@ -588,10 +588,10 @@
         <v>42613</v>
       </c>
       <c r="B9" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C9" t="n">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D9" t="n">
         <v>50</v>
@@ -608,10 +608,10 @@
         <v>73</v>
       </c>
       <c r="C10" t="n">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D10" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E10" t="n">
         <v>71</v>
@@ -622,16 +622,16 @@
         <v>42674</v>
       </c>
       <c r="B11" t="n">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C11" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D11" t="n">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E11" t="n">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12">
@@ -642,13 +642,13 @@
         <v>98</v>
       </c>
       <c r="C12" t="n">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D12" t="n">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E12" t="n">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="13">
@@ -656,10 +656,10 @@
         <v>42735</v>
       </c>
       <c r="B13" t="n">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C13" t="n">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D13" t="n">
         <v>77</v>
@@ -673,13 +673,13 @@
         <v>42766</v>
       </c>
       <c r="B14" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C14" t="n">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D14" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E14" t="n">
         <v>75</v>
@@ -690,16 +690,16 @@
         <v>42794</v>
       </c>
       <c r="B15" t="n">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C15" t="n">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D15" t="n">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E15" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="16">
@@ -707,16 +707,16 @@
         <v>42825</v>
       </c>
       <c r="B16" t="n">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C16" t="n">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D16" t="n">
         <v>76</v>
       </c>
       <c r="E16" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17">
@@ -724,13 +724,13 @@
         <v>42855</v>
       </c>
       <c r="B17" t="n">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C17" t="n">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D17" t="n">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E17" t="n">
         <v>84</v>
@@ -741,13 +741,13 @@
         <v>42886</v>
       </c>
       <c r="B18" t="n">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C18" t="n">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="D18" t="n">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E18" t="n">
         <v>91</v>
@@ -758,13 +758,13 @@
         <v>42916</v>
       </c>
       <c r="B19" t="n">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C19" t="n">
+        <v>68</v>
+      </c>
+      <c r="D19" t="n">
         <v>73</v>
-      </c>
-      <c r="D19" t="n">
-        <v>72</v>
       </c>
       <c r="E19" t="n">
         <v>71</v>
@@ -775,16 +775,16 @@
         <v>42947</v>
       </c>
       <c r="B20" t="n">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C20" t="n">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D20" t="n">
         <v>61</v>
       </c>
       <c r="E20" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21">
@@ -792,16 +792,16 @@
         <v>42978</v>
       </c>
       <c r="B21" t="n">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C21" t="n">
+        <v>57</v>
+      </c>
+      <c r="D21" t="n">
         <v>62</v>
       </c>
-      <c r="D21" t="n">
-        <v>61</v>
-      </c>
       <c r="E21" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22">
@@ -809,16 +809,16 @@
         <v>43008</v>
       </c>
       <c r="B22" t="n">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C22" t="n">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D22" t="n">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E22" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="23">
@@ -826,13 +826,13 @@
         <v>43039</v>
       </c>
       <c r="B23" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C23" t="n">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D23" t="n">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E23" t="n">
         <v>74</v>
@@ -843,16 +843,16 @@
         <v>43069</v>
       </c>
       <c r="B24" t="n">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C24" t="n">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D24" t="n">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E24" t="n">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="25">
@@ -863,7 +863,7 @@
         <v>87</v>
       </c>
       <c r="C25" t="n">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D25" t="n">
         <v>87</v>
@@ -877,13 +877,13 @@
         <v>43131</v>
       </c>
       <c r="B26" t="n">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C26" t="n">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D26" t="n">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E26" t="n">
         <v>65</v>
@@ -894,13 +894,13 @@
         <v>43159</v>
       </c>
       <c r="B27" t="n">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C27" t="n">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D27" t="n">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E27" t="n">
         <v>63</v>
@@ -911,16 +911,16 @@
         <v>43190</v>
       </c>
       <c r="B28" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C28" t="n">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D28" t="n">
         <v>91</v>
       </c>
       <c r="E28" t="n">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="29">
@@ -928,16 +928,16 @@
         <v>43220</v>
       </c>
       <c r="B29" t="n">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C29" t="n">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D29" t="n">
         <v>100</v>
       </c>
       <c r="E29" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="30">
@@ -945,13 +945,13 @@
         <v>43251</v>
       </c>
       <c r="B30" t="n">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="C30" t="n">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D30" t="n">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E30" t="n">
         <v>90</v>
@@ -962,13 +962,13 @@
         <v>43281</v>
       </c>
       <c r="B31" t="n">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C31" t="n">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D31" t="n">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E31" t="n">
         <v>70</v>
@@ -982,13 +982,13 @@
         <v>63</v>
       </c>
       <c r="C32" t="n">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D32" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E32" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="33">
@@ -999,10 +999,10 @@
         <v>59</v>
       </c>
       <c r="C33" t="n">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D33" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E33" t="n">
         <v>61</v>
@@ -1016,13 +1016,13 @@
         <v>69</v>
       </c>
       <c r="C34" t="n">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D34" t="n">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E34" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="35">
@@ -1030,16 +1030,16 @@
         <v>43404</v>
       </c>
       <c r="B35" t="n">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C35" t="n">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D35" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E35" t="n">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="36">
@@ -1047,13 +1047,13 @@
         <v>43434</v>
       </c>
       <c r="B36" t="n">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C36" t="n">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D36" t="n">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E36" t="n">
         <v>73</v>
@@ -1064,16 +1064,16 @@
         <v>43465</v>
       </c>
       <c r="B37" t="n">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C37" t="n">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D37" t="n">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E37" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="38">
@@ -1084,13 +1084,13 @@
         <v>64</v>
       </c>
       <c r="C38" t="n">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D38" t="n">
         <v>76</v>
       </c>
       <c r="E38" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="39">
@@ -1098,16 +1098,16 @@
         <v>43524</v>
       </c>
       <c r="B39" t="n">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C39" t="n">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D39" t="n">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E39" t="n">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="40">
@@ -1115,16 +1115,16 @@
         <v>43555</v>
       </c>
       <c r="B40" t="n">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C40" t="n">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D40" t="n">
         <v>76</v>
       </c>
       <c r="E40" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="41">
@@ -1132,10 +1132,10 @@
         <v>43585</v>
       </c>
       <c r="B41" t="n">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C41" t="n">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D41" t="n">
         <v>88</v>
@@ -1149,13 +1149,13 @@
         <v>43616</v>
       </c>
       <c r="B42" t="n">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C42" t="n">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D42" t="n">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E42" t="n">
         <v>78</v>
@@ -1166,10 +1166,10 @@
         <v>43646</v>
       </c>
       <c r="B43" t="n">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C43" t="n">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="D43" t="n">
         <v>82</v>
@@ -1183,10 +1183,10 @@
         <v>43677</v>
       </c>
       <c r="B44" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C44" t="n">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D44" t="n">
         <v>60</v>
@@ -1200,13 +1200,13 @@
         <v>43708</v>
       </c>
       <c r="B45" t="n">
+        <v>59</v>
+      </c>
+      <c r="C45" t="n">
         <v>60</v>
       </c>
-      <c r="C45" t="n">
-        <v>64</v>
-      </c>
       <c r="D45" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E45" t="n">
         <v>56</v>
@@ -1217,10 +1217,10 @@
         <v>43738</v>
       </c>
       <c r="B46" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C46" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D46" t="n">
         <v>63</v>
@@ -1234,10 +1234,10 @@
         <v>43769</v>
       </c>
       <c r="B47" t="n">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C47" t="n">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D47" t="n">
         <v>66</v>
@@ -1251,7 +1251,7 @@
         <v>43799</v>
       </c>
       <c r="B48" t="n">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C48" t="n">
         <v>100</v>
@@ -1268,10 +1268,10 @@
         <v>43830</v>
       </c>
       <c r="B49" t="n">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C49" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D49" t="n">
         <v>76</v>
@@ -1285,13 +1285,13 @@
         <v>43861</v>
       </c>
       <c r="B50" t="n">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C50" t="n">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D50" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E50" t="n">
         <v>62</v>
@@ -1302,10 +1302,10 @@
         <v>43890</v>
       </c>
       <c r="B51" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C51" t="n">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="D51" t="n">
         <v>63</v>
@@ -1319,13 +1319,13 @@
         <v>43921</v>
       </c>
       <c r="B52" t="n">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C52" t="n">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D52" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E52" t="n">
         <v>52</v>
@@ -1336,10 +1336,10 @@
         <v>43951</v>
       </c>
       <c r="B53" t="n">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C53" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D53" t="n">
         <v>72</v>
@@ -1353,16 +1353,16 @@
         <v>43982</v>
       </c>
       <c r="B54" t="n">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C54" t="n">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="D54" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E54" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="55">
@@ -1370,16 +1370,16 @@
         <v>44012</v>
       </c>
       <c r="B55" t="n">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C55" t="n">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D55" t="n">
         <v>67</v>
       </c>
       <c r="E55" t="n">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="56">
@@ -1390,10 +1390,10 @@
         <v>51</v>
       </c>
       <c r="C56" t="n">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D56" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E56" t="n">
         <v>66</v>
@@ -1404,10 +1404,10 @@
         <v>44074</v>
       </c>
       <c r="B57" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C57" t="n">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="D57" t="n">
         <v>48</v>
@@ -1421,16 +1421,16 @@
         <v>44104</v>
       </c>
       <c r="B58" t="n">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C58" t="n">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D58" t="n">
         <v>43</v>
       </c>
       <c r="E58" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="59">
@@ -1438,10 +1438,10 @@
         <v>44135</v>
       </c>
       <c r="B59" t="n">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C59" t="n">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D59" t="n">
         <v>43</v>
@@ -1458,13 +1458,13 @@
         <v>60</v>
       </c>
       <c r="C60" t="n">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="D60" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E60" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="61">
@@ -1472,16 +1472,16 @@
         <v>44196</v>
       </c>
       <c r="B61" t="n">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C61" t="n">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D61" t="n">
         <v>47</v>
       </c>
       <c r="E61" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="62">
@@ -1489,10 +1489,10 @@
         <v>44227</v>
       </c>
       <c r="B62" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C62" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D62" t="n">
         <v>39</v>
@@ -1506,13 +1506,13 @@
         <v>44255</v>
       </c>
       <c r="B63" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C63" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D63" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E63" t="n">
         <v>45</v>
@@ -1526,13 +1526,13 @@
         <v>41</v>
       </c>
       <c r="C64" t="n">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D64" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E64" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="65">
@@ -1540,10 +1540,10 @@
         <v>44316</v>
       </c>
       <c r="B65" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C65" t="n">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="D65" t="n">
         <v>40</v>
@@ -1557,16 +1557,16 @@
         <v>44347</v>
       </c>
       <c r="B66" t="n">
+        <v>50</v>
+      </c>
+      <c r="C66" t="n">
         <v>51</v>
       </c>
-      <c r="C66" t="n">
-        <v>54</v>
-      </c>
       <c r="D66" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E66" t="n">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="67">
@@ -1574,10 +1574,10 @@
         <v>44377</v>
       </c>
       <c r="B67" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C67" t="n">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D67" t="n">
         <v>45</v>
@@ -1591,13 +1591,13 @@
         <v>44408</v>
       </c>
       <c r="B68" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C68" t="n">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D68" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E68" t="n">
         <v>53</v>
@@ -1608,16 +1608,16 @@
         <v>44439</v>
       </c>
       <c r="B69" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C69" t="n">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D69" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E69" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="70">
@@ -1625,10 +1625,10 @@
         <v>44469</v>
       </c>
       <c r="B70" t="n">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C70" t="n">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D70" t="n">
         <v>36</v>
@@ -1645,13 +1645,13 @@
         <v>46</v>
       </c>
       <c r="C71" t="n">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D71" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E71" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="72">
@@ -1659,10 +1659,10 @@
         <v>44530</v>
       </c>
       <c r="B72" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C72" t="n">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="D72" t="n">
         <v>49</v>
@@ -1676,13 +1676,13 @@
         <v>44561</v>
       </c>
       <c r="B73" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C73" t="n">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D73" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E73" t="n">
         <v>51</v>
@@ -1696,7 +1696,7 @@
         <v>39</v>
       </c>
       <c r="C74" t="n">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D74" t="n">
         <v>32</v>
@@ -1713,10 +1713,10 @@
         <v>35</v>
       </c>
       <c r="C75" t="n">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D75" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E75" t="n">
         <v>51</v>
@@ -1727,10 +1727,10 @@
         <v>44651</v>
       </c>
       <c r="B76" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C76" t="n">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D76" t="n">
         <v>43</v>
@@ -1744,13 +1744,13 @@
         <v>44681</v>
       </c>
       <c r="B77" t="n">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C77" t="n">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D77" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E77" t="n">
         <v>59</v>
@@ -1764,10 +1764,10 @@
         <v>50</v>
       </c>
       <c r="C78" t="n">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D78" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E78" t="n">
         <v>66</v>
@@ -1781,10 +1781,10 @@
         <v>41</v>
       </c>
       <c r="C79" t="n">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D79" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E79" t="n">
         <v>52</v>
@@ -1798,10 +1798,10 @@
         <v>30</v>
       </c>
       <c r="C80" t="n">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D80" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E80" t="n">
         <v>47</v>
@@ -1812,16 +1812,16 @@
         <v>44804</v>
       </c>
       <c r="B81" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C81" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D81" t="n">
         <v>28</v>
       </c>
       <c r="E81" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="82">
@@ -1829,13 +1829,13 @@
         <v>44834</v>
       </c>
       <c r="B82" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C82" t="n">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D82" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E82" t="n">
         <v>49</v>
@@ -1846,16 +1846,16 @@
         <v>44865</v>
       </c>
       <c r="B83" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C83" t="n">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D83" t="n">
         <v>30</v>
       </c>
       <c r="E83" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="84">
@@ -1863,16 +1863,16 @@
         <v>44895</v>
       </c>
       <c r="B84" t="n">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C84" t="n">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="D84" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E84" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="85">
@@ -1883,10 +1883,10 @@
         <v>39</v>
       </c>
       <c r="C85" t="n">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D85" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E85" t="n">
         <v>41</v>
@@ -1897,16 +1897,16 @@
         <v>44957</v>
       </c>
       <c r="B86" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C86" t="n">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D86" t="n">
         <v>32</v>
       </c>
       <c r="E86" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="87">
@@ -1914,10 +1914,10 @@
         <v>44985</v>
       </c>
       <c r="B87" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C87" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D87" t="n">
         <v>28</v>
@@ -1931,13 +1931,13 @@
         <v>45016</v>
       </c>
       <c r="B88" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C88" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D88" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E88" t="n">
         <v>48</v>
@@ -1948,13 +1948,13 @@
         <v>45046</v>
       </c>
       <c r="B89" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C89" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D89" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E89" t="n">
         <v>48</v>
@@ -1965,16 +1965,16 @@
         <v>45077</v>
       </c>
       <c r="B90" t="n">
+        <v>38</v>
+      </c>
+      <c r="C90" t="n">
         <v>39</v>
       </c>
-      <c r="C90" t="n">
-        <v>42</v>
-      </c>
       <c r="D90" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E90" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="91">
@@ -1982,10 +1982,10 @@
         <v>45107</v>
       </c>
       <c r="B91" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C91" t="n">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D91" t="n">
         <v>29</v>
@@ -1999,10 +1999,10 @@
         <v>45138</v>
       </c>
       <c r="B92" t="n">
+        <v>23</v>
+      </c>
+      <c r="C92" t="n">
         <v>24</v>
-      </c>
-      <c r="C92" t="n">
-        <v>26</v>
       </c>
       <c r="D92" t="n">
         <v>24</v>
@@ -2016,16 +2016,16 @@
         <v>45169</v>
       </c>
       <c r="B93" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C93" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D93" t="n">
         <v>24</v>
       </c>
       <c r="E93" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="94">
@@ -2033,16 +2033,16 @@
         <v>45199</v>
       </c>
       <c r="B94" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C94" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D94" t="n">
         <v>31</v>
       </c>
       <c r="E94" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="95">
@@ -2050,10 +2050,10 @@
         <v>45230</v>
       </c>
       <c r="B95" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C95" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D95" t="n">
         <v>34</v>
@@ -2067,13 +2067,13 @@
         <v>45260</v>
       </c>
       <c r="B96" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C96" t="n">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D96" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E96" t="n">
         <v>32</v>
@@ -2084,10 +2084,10 @@
         <v>45291</v>
       </c>
       <c r="B97" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C97" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D97" t="n">
         <v>38</v>
@@ -2101,10 +2101,10 @@
         <v>45322</v>
       </c>
       <c r="B98" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C98" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D98" t="n">
         <v>33</v>
@@ -2118,13 +2118,13 @@
         <v>45351</v>
       </c>
       <c r="B99" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C99" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D99" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E99" t="n">
         <v>27</v>
@@ -2135,13 +2135,13 @@
         <v>45382</v>
       </c>
       <c r="B100" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C100" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D100" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E100" t="n">
         <v>36</v>
@@ -2152,10 +2152,10 @@
         <v>45412</v>
       </c>
       <c r="B101" t="n">
+        <v>35</v>
+      </c>
+      <c r="C101" t="n">
         <v>37</v>
-      </c>
-      <c r="C101" t="n">
-        <v>39</v>
       </c>
       <c r="D101" t="n">
         <v>44</v>
@@ -2169,10 +2169,10 @@
         <v>45443</v>
       </c>
       <c r="B102" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C102" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D102" t="n">
         <v>49</v>
@@ -2186,16 +2186,16 @@
         <v>45473</v>
       </c>
       <c r="B103" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C103" t="n">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D103" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E103" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="104">
@@ -2206,7 +2206,7 @@
         <v>26</v>
       </c>
       <c r="C104" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D104" t="n">
         <v>27</v>
@@ -2223,13 +2223,13 @@
         <v>32</v>
       </c>
       <c r="C105" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D105" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E105" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="106">
@@ -2240,10 +2240,10 @@
         <v>33</v>
       </c>
       <c r="C106" t="n">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D106" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E106" t="n">
         <v>29</v>
@@ -2254,10 +2254,10 @@
         <v>45596</v>
       </c>
       <c r="B107" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C107" t="n">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D107" t="n">
         <v>54</v>
@@ -2271,10 +2271,10 @@
         <v>45626</v>
       </c>
       <c r="B108" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C108" t="n">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D108" t="n">
         <v>62</v>
@@ -2291,13 +2291,13 @@
         <v>36</v>
       </c>
       <c r="C109" t="n">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D109" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E109" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="110">
@@ -2305,13 +2305,13 @@
         <v>45688</v>
       </c>
       <c r="B110" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C110" t="n">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D110" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E110" t="n">
         <v>33</v>
@@ -2322,10 +2322,10 @@
         <v>45716</v>
       </c>
       <c r="B111" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C111" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D111" t="n">
         <v>45</v>
@@ -2342,13 +2342,13 @@
         <v>41</v>
       </c>
       <c r="C112" t="n">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D112" t="n">
         <v>53</v>
       </c>
       <c r="E112" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="113">
@@ -2356,13 +2356,13 @@
         <v>45777</v>
       </c>
       <c r="B113" t="n">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C113" t="n">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D113" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E113" t="n">
         <v>40</v>
@@ -2373,16 +2373,16 @@
         <v>45808</v>
       </c>
       <c r="B114" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C114" t="n">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D114" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E114" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="115">
@@ -2390,16 +2390,16 @@
         <v>45838</v>
       </c>
       <c r="B115" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C115" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D115" t="n">
         <v>43</v>
       </c>
       <c r="E115" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="116">
@@ -2407,10 +2407,10 @@
         <v>45869</v>
       </c>
       <c r="B116" t="n">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C116" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D116" t="n">
         <v>32</v>
@@ -2424,16 +2424,16 @@
         <v>45900</v>
       </c>
       <c r="B117" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C117" t="n">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D117" t="n">
         <v>53</v>
       </c>
       <c r="E117" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="118">
@@ -2441,16 +2441,16 @@
         <v>45930</v>
       </c>
       <c r="B118" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C118" t="n">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D118" t="n">
         <v>46</v>
       </c>
       <c r="E118" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="119">
@@ -2458,16 +2458,16 @@
         <v>45961</v>
       </c>
       <c r="B119" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C119" t="n">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D119" t="n">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E119" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/data/nelly_trends_monthly.xlsx
+++ b/data/nelly_trends_monthly.xlsx
@@ -472,13 +472,13 @@
         <v>72</v>
       </c>
       <c r="C2" t="n">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="D2" t="n">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E2" t="n">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3">
@@ -486,13 +486,13 @@
         <v>42429</v>
       </c>
       <c r="B3" t="n">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C3" t="n">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D3" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E3" t="n">
         <v>85</v>
@@ -503,13 +503,13 @@
         <v>42460</v>
       </c>
       <c r="B4" t="n">
+        <v>82</v>
+      </c>
+      <c r="C4" t="n">
+        <v>56</v>
+      </c>
+      <c r="D4" t="n">
         <v>81</v>
-      </c>
-      <c r="C4" t="n">
-        <v>54</v>
-      </c>
-      <c r="D4" t="n">
-        <v>83</v>
       </c>
       <c r="E4" t="n">
         <v>83</v>
@@ -523,13 +523,13 @@
         <v>90</v>
       </c>
       <c r="C5" t="n">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D5" t="n">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E5" t="n">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6">
@@ -540,10 +540,10 @@
         <v>100</v>
       </c>
       <c r="C6" t="n">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D6" t="n">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E6" t="n">
         <v>100</v>
@@ -554,16 +554,16 @@
         <v>42551</v>
       </c>
       <c r="B7" t="n">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C7" t="n">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D7" t="n">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E7" t="n">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8">
@@ -571,16 +571,16 @@
         <v>42582</v>
       </c>
       <c r="B8" t="n">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C8" t="n">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D8" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E8" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9">
@@ -588,13 +588,13 @@
         <v>42613</v>
       </c>
       <c r="B9" t="n">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C9" t="n">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D9" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E9" t="n">
         <v>71</v>
@@ -605,16 +605,16 @@
         <v>42643</v>
       </c>
       <c r="B10" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C10" t="n">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D10" t="n">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E10" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11">
@@ -622,16 +622,16 @@
         <v>42674</v>
       </c>
       <c r="B11" t="n">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C11" t="n">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D11" t="n">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E11" t="n">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12">
@@ -642,13 +642,13 @@
         <v>98</v>
       </c>
       <c r="C12" t="n">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="D12" t="n">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E12" t="n">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="13">
@@ -656,16 +656,16 @@
         <v>42735</v>
       </c>
       <c r="B13" t="n">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C13" t="n">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D13" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E13" t="n">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14">
@@ -676,13 +676,13 @@
         <v>70</v>
       </c>
       <c r="C14" t="n">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D14" t="n">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E14" t="n">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15">
@@ -690,13 +690,13 @@
         <v>42794</v>
       </c>
       <c r="B15" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C15" t="n">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D15" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E15" t="n">
         <v>69</v>
@@ -707,16 +707,16 @@
         <v>42825</v>
       </c>
       <c r="B16" t="n">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C16" t="n">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D16" t="n">
+        <v>73</v>
+      </c>
+      <c r="E16" t="n">
         <v>76</v>
-      </c>
-      <c r="E16" t="n">
-        <v>75</v>
       </c>
     </row>
     <row r="17">
@@ -724,13 +724,13 @@
         <v>42855</v>
       </c>
       <c r="B17" t="n">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C17" t="n">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D17" t="n">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E17" t="n">
         <v>84</v>
@@ -744,10 +744,10 @@
         <v>99</v>
       </c>
       <c r="C18" t="n">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D18" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E18" t="n">
         <v>91</v>
@@ -761,13 +761,13 @@
         <v>93</v>
       </c>
       <c r="C19" t="n">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D19" t="n">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E19" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20">
@@ -775,13 +775,13 @@
         <v>42947</v>
       </c>
       <c r="B20" t="n">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C20" t="n">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D20" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E20" t="n">
         <v>65</v>
@@ -792,16 +792,16 @@
         <v>42978</v>
       </c>
       <c r="B21" t="n">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C21" t="n">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D21" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E21" t="n">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22">
@@ -809,16 +809,16 @@
         <v>43008</v>
       </c>
       <c r="B22" t="n">
+        <v>74</v>
+      </c>
+      <c r="C22" t="n">
+        <v>65</v>
+      </c>
+      <c r="D22" t="n">
+        <v>70</v>
+      </c>
+      <c r="E22" t="n">
         <v>73</v>
-      </c>
-      <c r="C22" t="n">
-        <v>61</v>
-      </c>
-      <c r="D22" t="n">
-        <v>73</v>
-      </c>
-      <c r="E22" t="n">
-        <v>72</v>
       </c>
     </row>
     <row r="23">
@@ -826,16 +826,16 @@
         <v>43039</v>
       </c>
       <c r="B23" t="n">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C23" t="n">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D23" t="n">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E23" t="n">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="24">
@@ -843,13 +843,13 @@
         <v>43069</v>
       </c>
       <c r="B24" t="n">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C24" t="n">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D24" t="n">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E24" t="n">
         <v>96</v>
@@ -860,10 +860,10 @@
         <v>43100</v>
       </c>
       <c r="B25" t="n">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C25" t="n">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D25" t="n">
         <v>87</v>
@@ -877,16 +877,16 @@
         <v>43131</v>
       </c>
       <c r="B26" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C26" t="n">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D26" t="n">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E26" t="n">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="27">
@@ -894,13 +894,13 @@
         <v>43159</v>
       </c>
       <c r="B27" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C27" t="n">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D27" t="n">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E27" t="n">
         <v>63</v>
@@ -911,13 +911,13 @@
         <v>43190</v>
       </c>
       <c r="B28" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C28" t="n">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D28" t="n">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E28" t="n">
         <v>64</v>
@@ -928,10 +928,10 @@
         <v>43220</v>
       </c>
       <c r="B29" t="n">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C29" t="n">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D29" t="n">
         <v>100</v>
@@ -945,16 +945,16 @@
         <v>43251</v>
       </c>
       <c r="B30" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C30" t="n">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D30" t="n">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E30" t="n">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="31">
@@ -962,13 +962,13 @@
         <v>43281</v>
       </c>
       <c r="B31" t="n">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C31" t="n">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D31" t="n">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E31" t="n">
         <v>70</v>
@@ -982,13 +982,13 @@
         <v>63</v>
       </c>
       <c r="C32" t="n">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D32" t="n">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E32" t="n">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="33">
@@ -996,16 +996,16 @@
         <v>43343</v>
       </c>
       <c r="B33" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C33" t="n">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D33" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E33" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="34">
@@ -1013,13 +1013,13 @@
         <v>43373</v>
       </c>
       <c r="B34" t="n">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C34" t="n">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D34" t="n">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E34" t="n">
         <v>57</v>
@@ -1030,13 +1030,13 @@
         <v>43404</v>
       </c>
       <c r="B35" t="n">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C35" t="n">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D35" t="n">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E35" t="n">
         <v>69</v>
@@ -1047,13 +1047,13 @@
         <v>43434</v>
       </c>
       <c r="B36" t="n">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C36" t="n">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D36" t="n">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E36" t="n">
         <v>73</v>
@@ -1067,10 +1067,10 @@
         <v>74</v>
       </c>
       <c r="C37" t="n">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D37" t="n">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E37" t="n">
         <v>60</v>
@@ -1084,10 +1084,10 @@
         <v>64</v>
       </c>
       <c r="C38" t="n">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D38" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E38" t="n">
         <v>62</v>
@@ -1098,16 +1098,16 @@
         <v>43524</v>
       </c>
       <c r="B39" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C39" t="n">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D39" t="n">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E39" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="40">
@@ -1118,13 +1118,13 @@
         <v>70</v>
       </c>
       <c r="C40" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D40" t="n">
         <v>76</v>
       </c>
       <c r="E40" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="41">
@@ -1135,10 +1135,10 @@
         <v>78</v>
       </c>
       <c r="C41" t="n">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="D41" t="n">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E41" t="n">
         <v>65</v>
@@ -1149,13 +1149,13 @@
         <v>43616</v>
       </c>
       <c r="B42" t="n">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C42" t="n">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D42" t="n">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E42" t="n">
         <v>78</v>
@@ -1169,7 +1169,7 @@
         <v>77</v>
       </c>
       <c r="C43" t="n">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D43" t="n">
         <v>82</v>
@@ -1186,10 +1186,10 @@
         <v>62</v>
       </c>
       <c r="C44" t="n">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D44" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E44" t="n">
         <v>62</v>
@@ -1200,13 +1200,13 @@
         <v>43708</v>
       </c>
       <c r="B45" t="n">
+        <v>62</v>
+      </c>
+      <c r="C45" t="n">
+        <v>63</v>
+      </c>
+      <c r="D45" t="n">
         <v>59</v>
-      </c>
-      <c r="C45" t="n">
-        <v>60</v>
-      </c>
-      <c r="D45" t="n">
-        <v>61</v>
       </c>
       <c r="E45" t="n">
         <v>56</v>
@@ -1220,7 +1220,7 @@
         <v>67</v>
       </c>
       <c r="C46" t="n">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D46" t="n">
         <v>63</v>
@@ -1234,16 +1234,16 @@
         <v>43769</v>
       </c>
       <c r="B47" t="n">
+        <v>64</v>
+      </c>
+      <c r="C47" t="n">
+        <v>71</v>
+      </c>
+      <c r="D47" t="n">
         <v>65</v>
       </c>
-      <c r="C47" t="n">
-        <v>69</v>
-      </c>
-      <c r="D47" t="n">
-        <v>66</v>
-      </c>
       <c r="E47" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="48">
@@ -1251,16 +1251,16 @@
         <v>43799</v>
       </c>
       <c r="B48" t="n">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C48" t="n">
         <v>100</v>
       </c>
       <c r="D48" t="n">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E48" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="49">
@@ -1268,16 +1268,16 @@
         <v>43830</v>
       </c>
       <c r="B49" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C49" t="n">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D49" t="n">
         <v>76</v>
       </c>
       <c r="E49" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="50">
@@ -1285,13 +1285,13 @@
         <v>43861</v>
       </c>
       <c r="B50" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C50" t="n">
+        <v>65</v>
+      </c>
+      <c r="D50" t="n">
         <v>63</v>
-      </c>
-      <c r="D50" t="n">
-        <v>64</v>
       </c>
       <c r="E50" t="n">
         <v>62</v>
@@ -1302,10 +1302,10 @@
         <v>43890</v>
       </c>
       <c r="B51" t="n">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C51" t="n">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D51" t="n">
         <v>63</v>
@@ -1319,16 +1319,16 @@
         <v>43921</v>
       </c>
       <c r="B52" t="n">
+        <v>61</v>
+      </c>
+      <c r="C52" t="n">
+        <v>70</v>
+      </c>
+      <c r="D52" t="n">
         <v>57</v>
       </c>
-      <c r="C52" t="n">
-        <v>60</v>
-      </c>
-      <c r="D52" t="n">
-        <v>59</v>
-      </c>
       <c r="E52" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="53">
@@ -1336,13 +1336,13 @@
         <v>43951</v>
       </c>
       <c r="B53" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C53" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D53" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E53" t="n">
         <v>59</v>
@@ -1353,16 +1353,16 @@
         <v>43982</v>
       </c>
       <c r="B54" t="n">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C54" t="n">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="D54" t="n">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E54" t="n">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="55">
@@ -1370,13 +1370,13 @@
         <v>44012</v>
       </c>
       <c r="B55" t="n">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C55" t="n">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="D55" t="n">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E55" t="n">
         <v>73</v>
@@ -1393,10 +1393,10 @@
         <v>61</v>
       </c>
       <c r="D56" t="n">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E56" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="57">
@@ -1404,16 +1404,16 @@
         <v>44074</v>
       </c>
       <c r="B57" t="n">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C57" t="n">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D57" t="n">
         <v>48</v>
       </c>
       <c r="E57" t="n">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="58">
@@ -1421,16 +1421,16 @@
         <v>44104</v>
       </c>
       <c r="B58" t="n">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C58" t="n">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="D58" t="n">
         <v>43</v>
       </c>
       <c r="E58" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="59">
@@ -1438,16 +1438,16 @@
         <v>44135</v>
       </c>
       <c r="B59" t="n">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C59" t="n">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D59" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E59" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="60">
@@ -1458,13 +1458,13 @@
         <v>60</v>
       </c>
       <c r="C60" t="n">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="D60" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E60" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="61">
@@ -1475,13 +1475,13 @@
         <v>51</v>
       </c>
       <c r="C61" t="n">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D61" t="n">
         <v>47</v>
       </c>
       <c r="E61" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="62">
@@ -1489,13 +1489,13 @@
         <v>44227</v>
       </c>
       <c r="B62" t="n">
+        <v>37</v>
+      </c>
+      <c r="C62" t="n">
+        <v>45</v>
+      </c>
+      <c r="D62" t="n">
         <v>38</v>
-      </c>
-      <c r="C62" t="n">
-        <v>42</v>
-      </c>
-      <c r="D62" t="n">
-        <v>39</v>
       </c>
       <c r="E62" t="n">
         <v>51</v>
@@ -1506,16 +1506,16 @@
         <v>44255</v>
       </c>
       <c r="B63" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C63" t="n">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D63" t="n">
         <v>37</v>
       </c>
       <c r="E63" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="64">
@@ -1523,13 +1523,13 @@
         <v>44286</v>
       </c>
       <c r="B64" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C64" t="n">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D64" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E64" t="n">
         <v>50</v>
@@ -1543,13 +1543,13 @@
         <v>45</v>
       </c>
       <c r="C65" t="n">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D65" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E65" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="66">
@@ -1557,16 +1557,16 @@
         <v>44347</v>
       </c>
       <c r="B66" t="n">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C66" t="n">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D66" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E66" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="67">
@@ -1577,7 +1577,7 @@
         <v>52</v>
       </c>
       <c r="C67" t="n">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D67" t="n">
         <v>45</v>
@@ -1591,16 +1591,16 @@
         <v>44408</v>
       </c>
       <c r="B68" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C68" t="n">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D68" t="n">
         <v>30</v>
       </c>
       <c r="E68" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="69">
@@ -1611,10 +1611,10 @@
         <v>40</v>
       </c>
       <c r="C69" t="n">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D69" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E69" t="n">
         <v>52</v>
@@ -1625,16 +1625,16 @@
         <v>44469</v>
       </c>
       <c r="B70" t="n">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C70" t="n">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D70" t="n">
         <v>36</v>
       </c>
       <c r="E70" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="71">
@@ -1642,10 +1642,10 @@
         <v>44500</v>
       </c>
       <c r="B71" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C71" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D71" t="n">
         <v>43</v>
@@ -1659,13 +1659,13 @@
         <v>44530</v>
       </c>
       <c r="B72" t="n">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C72" t="n">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D72" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E72" t="n">
         <v>65</v>
@@ -1676,13 +1676,13 @@
         <v>44561</v>
       </c>
       <c r="B73" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C73" t="n">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="D73" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E73" t="n">
         <v>51</v>
@@ -1693,10 +1693,10 @@
         <v>44592</v>
       </c>
       <c r="B74" t="n">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C74" t="n">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D74" t="n">
         <v>32</v>
@@ -1713,10 +1713,10 @@
         <v>35</v>
       </c>
       <c r="C75" t="n">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D75" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E75" t="n">
         <v>51</v>
@@ -1727,16 +1727,16 @@
         <v>44651</v>
       </c>
       <c r="B76" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C76" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D76" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E76" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="77">
@@ -1747,10 +1747,10 @@
         <v>53</v>
       </c>
       <c r="C77" t="n">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D77" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E77" t="n">
         <v>59</v>
@@ -1761,13 +1761,13 @@
         <v>44712</v>
       </c>
       <c r="B78" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C78" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="D78" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E78" t="n">
         <v>66</v>
@@ -1778,16 +1778,16 @@
         <v>44742</v>
       </c>
       <c r="B79" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C79" t="n">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D79" t="n">
         <v>37</v>
       </c>
       <c r="E79" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="80">
@@ -1795,13 +1795,13 @@
         <v>44773</v>
       </c>
       <c r="B80" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C80" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D80" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E80" t="n">
         <v>47</v>
@@ -1812,10 +1812,10 @@
         <v>44804</v>
       </c>
       <c r="B81" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C81" t="n">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D81" t="n">
         <v>28</v>
@@ -1832,10 +1832,10 @@
         <v>38</v>
       </c>
       <c r="C82" t="n">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D82" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E82" t="n">
         <v>49</v>
@@ -1846,16 +1846,16 @@
         <v>44865</v>
       </c>
       <c r="B83" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C83" t="n">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D83" t="n">
         <v>30</v>
       </c>
       <c r="E83" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="84">
@@ -1863,10 +1863,10 @@
         <v>44895</v>
       </c>
       <c r="B84" t="n">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C84" t="n">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="D84" t="n">
         <v>39</v>
@@ -1880,16 +1880,16 @@
         <v>44926</v>
       </c>
       <c r="B85" t="n">
+        <v>37</v>
+      </c>
+      <c r="C85" t="n">
+        <v>47</v>
+      </c>
+      <c r="D85" t="n">
         <v>39</v>
       </c>
-      <c r="C85" t="n">
-        <v>45</v>
-      </c>
-      <c r="D85" t="n">
-        <v>40</v>
-      </c>
       <c r="E85" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="86">
@@ -1897,16 +1897,16 @@
         <v>44957</v>
       </c>
       <c r="B86" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C86" t="n">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D86" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E86" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="87">
@@ -1917,13 +1917,13 @@
         <v>30</v>
       </c>
       <c r="C87" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D87" t="n">
         <v>28</v>
       </c>
       <c r="E87" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="88">
@@ -1934,10 +1934,10 @@
         <v>32</v>
       </c>
       <c r="C88" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D88" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E88" t="n">
         <v>48</v>
@@ -1948,10 +1948,10 @@
         <v>45046</v>
       </c>
       <c r="B89" t="n">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C89" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D89" t="n">
         <v>39</v>
@@ -1965,13 +1965,13 @@
         <v>45077</v>
       </c>
       <c r="B90" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C90" t="n">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D90" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E90" t="n">
         <v>45</v>
@@ -1982,10 +1982,10 @@
         <v>45107</v>
       </c>
       <c r="B91" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C91" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D91" t="n">
         <v>29</v>
@@ -2002,7 +2002,7 @@
         <v>23</v>
       </c>
       <c r="C92" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D92" t="n">
         <v>24</v>
@@ -2016,16 +2016,16 @@
         <v>45169</v>
       </c>
       <c r="B93" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C93" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D93" t="n">
         <v>24</v>
       </c>
       <c r="E93" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="94">
@@ -2033,16 +2033,16 @@
         <v>45199</v>
       </c>
       <c r="B94" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C94" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D94" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E94" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="95">
@@ -2050,13 +2050,13 @@
         <v>45230</v>
       </c>
       <c r="B95" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C95" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D95" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E95" t="n">
         <v>30</v>
@@ -2067,13 +2067,13 @@
         <v>45260</v>
       </c>
       <c r="B96" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C96" t="n">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D96" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E96" t="n">
         <v>32</v>
@@ -2087,10 +2087,10 @@
         <v>31</v>
       </c>
       <c r="C97" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D97" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E97" t="n">
         <v>24</v>
@@ -2101,16 +2101,16 @@
         <v>45322</v>
       </c>
       <c r="B98" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C98" t="n">
+        <v>34</v>
+      </c>
+      <c r="D98" t="n">
         <v>32</v>
       </c>
-      <c r="D98" t="n">
-        <v>33</v>
-      </c>
       <c r="E98" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="99">
@@ -2118,13 +2118,13 @@
         <v>45351</v>
       </c>
       <c r="B99" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C99" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D99" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E99" t="n">
         <v>27</v>
@@ -2138,10 +2138,10 @@
         <v>31</v>
       </c>
       <c r="C100" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D100" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E100" t="n">
         <v>36</v>
@@ -2152,16 +2152,16 @@
         <v>45412</v>
       </c>
       <c r="B101" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C101" t="n">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D101" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E101" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="102">
@@ -2169,10 +2169,10 @@
         <v>45443</v>
       </c>
       <c r="B102" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C102" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D102" t="n">
         <v>49</v>
@@ -2186,16 +2186,16 @@
         <v>45473</v>
       </c>
       <c r="B103" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C103" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D103" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E103" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="104">
@@ -2206,10 +2206,10 @@
         <v>26</v>
       </c>
       <c r="C104" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D104" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E104" t="n">
         <v>33</v>
@@ -2220,16 +2220,16 @@
         <v>45535</v>
       </c>
       <c r="B105" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C105" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D105" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E105" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="106">
@@ -2237,13 +2237,13 @@
         <v>45565</v>
       </c>
       <c r="B106" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C106" t="n">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D106" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E106" t="n">
         <v>29</v>
@@ -2254,10 +2254,10 @@
         <v>45596</v>
       </c>
       <c r="B107" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C107" t="n">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D107" t="n">
         <v>54</v>
@@ -2271,13 +2271,13 @@
         <v>45626</v>
       </c>
       <c r="B108" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C108" t="n">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D108" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E108" t="n">
         <v>35</v>
@@ -2288,13 +2288,13 @@
         <v>45657</v>
       </c>
       <c r="B109" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C109" t="n">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D109" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E109" t="n">
         <v>27</v>
@@ -2308,13 +2308,13 @@
         <v>31</v>
       </c>
       <c r="C110" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D110" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E110" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="111">
@@ -2322,10 +2322,10 @@
         <v>45716</v>
       </c>
       <c r="B111" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C111" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D111" t="n">
         <v>45</v>
@@ -2339,13 +2339,13 @@
         <v>45747</v>
       </c>
       <c r="B112" t="n">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C112" t="n">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D112" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E112" t="n">
         <v>36</v>
@@ -2356,13 +2356,13 @@
         <v>45777</v>
       </c>
       <c r="B113" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C113" t="n">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D113" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E113" t="n">
         <v>40</v>
@@ -2373,13 +2373,13 @@
         <v>45808</v>
       </c>
       <c r="B114" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C114" t="n">
+        <v>53</v>
+      </c>
+      <c r="D114" t="n">
         <v>51</v>
-      </c>
-      <c r="D114" t="n">
-        <v>53</v>
       </c>
       <c r="E114" t="n">
         <v>38</v>
@@ -2390,13 +2390,13 @@
         <v>45838</v>
       </c>
       <c r="B115" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C115" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D115" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E115" t="n">
         <v>34</v>
@@ -2410,7 +2410,7 @@
         <v>31</v>
       </c>
       <c r="C116" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D116" t="n">
         <v>32</v>
@@ -2424,16 +2424,16 @@
         <v>45900</v>
       </c>
       <c r="B117" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C117" t="n">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D117" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E117" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="118">
@@ -2441,13 +2441,13 @@
         <v>45930</v>
       </c>
       <c r="B118" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C118" t="n">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D118" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E118" t="n">
         <v>35</v>
@@ -2458,13 +2458,13 @@
         <v>45961</v>
       </c>
       <c r="B119" t="n">
+        <v>44</v>
+      </c>
+      <c r="C119" t="n">
         <v>45</v>
       </c>
-      <c r="C119" t="n">
-        <v>41</v>
-      </c>
       <c r="D119" t="n">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E119" t="n">
         <v>35</v>

--- a/data/nelly_trends_monthly.xlsx
+++ b/data/nelly_trends_monthly.xlsx
@@ -469,16 +469,16 @@
         <v>42400</v>
       </c>
       <c r="B2" t="n">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C2" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D2" t="n">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E2" t="n">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3">
@@ -486,7 +486,7 @@
         <v>42429</v>
       </c>
       <c r="B3" t="n">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C3" t="n">
         <v>53</v>
@@ -503,16 +503,16 @@
         <v>42460</v>
       </c>
       <c r="B4" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C4" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D4" t="n">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E4" t="n">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5">
@@ -520,16 +520,16 @@
         <v>42490</v>
       </c>
       <c r="B5" t="n">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C5" t="n">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D5" t="n">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E5" t="n">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6">
@@ -540,10 +540,10 @@
         <v>100</v>
       </c>
       <c r="C6" t="n">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D6" t="n">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E6" t="n">
         <v>100</v>
@@ -554,16 +554,16 @@
         <v>42551</v>
       </c>
       <c r="B7" t="n">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C7" t="n">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D7" t="n">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E7" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8">
@@ -571,16 +571,16 @@
         <v>42582</v>
       </c>
       <c r="B8" t="n">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C8" t="n">
         <v>54</v>
       </c>
       <c r="D8" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E8" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9">
@@ -588,10 +588,10 @@
         <v>42613</v>
       </c>
       <c r="B9" t="n">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C9" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D9" t="n">
         <v>51</v>
@@ -608,13 +608,13 @@
         <v>74</v>
       </c>
       <c r="C10" t="n">
+        <v>61</v>
+      </c>
+      <c r="D10" t="n">
         <v>60</v>
       </c>
-      <c r="D10" t="n">
-        <v>59</v>
-      </c>
       <c r="E10" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11">
@@ -622,16 +622,16 @@
         <v>42674</v>
       </c>
       <c r="B11" t="n">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C11" t="n">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D11" t="n">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E11" t="n">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12">
@@ -639,16 +639,16 @@
         <v>42704</v>
       </c>
       <c r="B12" t="n">
+        <v>99</v>
+      </c>
+      <c r="C12" t="n">
+        <v>93</v>
+      </c>
+      <c r="D12" t="n">
+        <v>82</v>
+      </c>
+      <c r="E12" t="n">
         <v>98</v>
-      </c>
-      <c r="C12" t="n">
-        <v>90</v>
-      </c>
-      <c r="D12" t="n">
-        <v>80</v>
-      </c>
-      <c r="E12" t="n">
-        <v>99</v>
       </c>
     </row>
     <row r="13">
@@ -656,16 +656,16 @@
         <v>42735</v>
       </c>
       <c r="B13" t="n">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="C13" t="n">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D13" t="n">
         <v>76</v>
       </c>
       <c r="E13" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14">
@@ -673,16 +673,16 @@
         <v>42766</v>
       </c>
       <c r="B14" t="n">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C14" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D14" t="n">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E14" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15">
@@ -690,10 +690,10 @@
         <v>42794</v>
       </c>
       <c r="B15" t="n">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C15" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D15" t="n">
         <v>65</v>
@@ -707,16 +707,16 @@
         <v>42825</v>
       </c>
       <c r="B16" t="n">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="C16" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D16" t="n">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E16" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17">
@@ -724,13 +724,13 @@
         <v>42855</v>
       </c>
       <c r="B17" t="n">
+        <v>90</v>
+      </c>
+      <c r="C17" t="n">
+        <v>67</v>
+      </c>
+      <c r="D17" t="n">
         <v>87</v>
-      </c>
-      <c r="C17" t="n">
-        <v>66</v>
-      </c>
-      <c r="D17" t="n">
-        <v>86</v>
       </c>
       <c r="E17" t="n">
         <v>84</v>
@@ -744,10 +744,10 @@
         <v>99</v>
       </c>
       <c r="C18" t="n">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D18" t="n">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E18" t="n">
         <v>91</v>
@@ -758,16 +758,16 @@
         <v>42916</v>
       </c>
       <c r="B19" t="n">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C19" t="n">
+        <v>72</v>
+      </c>
+      <c r="D19" t="n">
+        <v>73</v>
+      </c>
+      <c r="E19" t="n">
         <v>71</v>
-      </c>
-      <c r="D19" t="n">
-        <v>71</v>
-      </c>
-      <c r="E19" t="n">
-        <v>72</v>
       </c>
     </row>
     <row r="20">
@@ -775,16 +775,16 @@
         <v>42947</v>
       </c>
       <c r="B20" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C20" t="n">
         <v>60</v>
       </c>
       <c r="D20" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E20" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21">
@@ -795,13 +795,13 @@
         <v>71</v>
       </c>
       <c r="C21" t="n">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D21" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E21" t="n">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22">
@@ -809,16 +809,16 @@
         <v>43008</v>
       </c>
       <c r="B22" t="n">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C22" t="n">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D22" t="n">
         <v>70</v>
       </c>
       <c r="E22" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="23">
@@ -826,16 +826,16 @@
         <v>43039</v>
       </c>
       <c r="B23" t="n">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C23" t="n">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D23" t="n">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E23" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="24">
@@ -843,10 +843,10 @@
         <v>43069</v>
       </c>
       <c r="B24" t="n">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C24" t="n">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D24" t="n">
         <v>91</v>
@@ -863,13 +863,13 @@
         <v>88</v>
       </c>
       <c r="C25" t="n">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D25" t="n">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E25" t="n">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="26">
@@ -877,13 +877,13 @@
         <v>43131</v>
       </c>
       <c r="B26" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C26" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D26" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E26" t="n">
         <v>66</v>
@@ -894,13 +894,13 @@
         <v>43159</v>
       </c>
       <c r="B27" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C27" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D27" t="n">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E27" t="n">
         <v>63</v>
@@ -911,16 +911,16 @@
         <v>43190</v>
       </c>
       <c r="B28" t="n">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C28" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D28" t="n">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E28" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="29">
@@ -928,16 +928,16 @@
         <v>43220</v>
       </c>
       <c r="B29" t="n">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C29" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D29" t="n">
         <v>100</v>
       </c>
       <c r="E29" t="n">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="30">
@@ -945,16 +945,16 @@
         <v>43251</v>
       </c>
       <c r="B30" t="n">
+        <v>91</v>
+      </c>
+      <c r="C30" t="n">
+        <v>70</v>
+      </c>
+      <c r="D30" t="n">
+        <v>94</v>
+      </c>
+      <c r="E30" t="n">
         <v>90</v>
-      </c>
-      <c r="C30" t="n">
-        <v>68</v>
-      </c>
-      <c r="D30" t="n">
-        <v>91</v>
-      </c>
-      <c r="E30" t="n">
-        <v>92</v>
       </c>
     </row>
     <row r="31">
@@ -962,10 +962,10 @@
         <v>43281</v>
       </c>
       <c r="B31" t="n">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C31" t="n">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D31" t="n">
         <v>91</v>
@@ -979,13 +979,13 @@
         <v>43312</v>
       </c>
       <c r="B32" t="n">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C32" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D32" t="n">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="E32" t="n">
         <v>66</v>
@@ -996,16 +996,16 @@
         <v>43343</v>
       </c>
       <c r="B33" t="n">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C33" t="n">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D33" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E33" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="34">
@@ -1013,16 +1013,16 @@
         <v>43373</v>
       </c>
       <c r="B34" t="n">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="C34" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D34" t="n">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E34" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="35">
@@ -1030,13 +1030,13 @@
         <v>43404</v>
       </c>
       <c r="B35" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C35" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D35" t="n">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E35" t="n">
         <v>69</v>
@@ -1047,16 +1047,16 @@
         <v>43434</v>
       </c>
       <c r="B36" t="n">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C36" t="n">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="D36" t="n">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E36" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="37">
@@ -1067,13 +1067,13 @@
         <v>74</v>
       </c>
       <c r="C37" t="n">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D37" t="n">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E37" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="38">
@@ -1081,16 +1081,16 @@
         <v>43496</v>
       </c>
       <c r="B38" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C38" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D38" t="n">
         <v>75</v>
       </c>
       <c r="E38" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="39">
@@ -1098,13 +1098,13 @@
         <v>43524</v>
       </c>
       <c r="B39" t="n">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C39" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D39" t="n">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E39" t="n">
         <v>63</v>
@@ -1115,16 +1115,16 @@
         <v>43555</v>
       </c>
       <c r="B40" t="n">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C40" t="n">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D40" t="n">
         <v>76</v>
       </c>
       <c r="E40" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="41">
@@ -1132,16 +1132,16 @@
         <v>43585</v>
       </c>
       <c r="B41" t="n">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C41" t="n">
         <v>61</v>
       </c>
       <c r="D41" t="n">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E41" t="n">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="42">
@@ -1149,16 +1149,16 @@
         <v>43616</v>
       </c>
       <c r="B42" t="n">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C42" t="n">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="D42" t="n">
+        <v>78</v>
+      </c>
+      <c r="E42" t="n">
         <v>77</v>
-      </c>
-      <c r="E42" t="n">
-        <v>78</v>
       </c>
     </row>
     <row r="43">
@@ -1166,13 +1166,13 @@
         <v>43646</v>
       </c>
       <c r="B43" t="n">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C43" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D43" t="n">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E43" t="n">
         <v>77</v>
@@ -1183,13 +1183,13 @@
         <v>43677</v>
       </c>
       <c r="B44" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C44" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D44" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E44" t="n">
         <v>62</v>
@@ -1200,13 +1200,13 @@
         <v>43708</v>
       </c>
       <c r="B45" t="n">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C45" t="n">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D45" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E45" t="n">
         <v>56</v>
@@ -1220,10 +1220,10 @@
         <v>67</v>
       </c>
       <c r="C46" t="n">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D46" t="n">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E46" t="n">
         <v>64</v>
@@ -1234,16 +1234,16 @@
         <v>43769</v>
       </c>
       <c r="B47" t="n">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C47" t="n">
         <v>71</v>
       </c>
       <c r="D47" t="n">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E47" t="n">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="48">
@@ -1251,16 +1251,16 @@
         <v>43799</v>
       </c>
       <c r="B48" t="n">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C48" t="n">
         <v>100</v>
       </c>
       <c r="D48" t="n">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E48" t="n">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="49">
@@ -1268,16 +1268,16 @@
         <v>43830</v>
       </c>
       <c r="B49" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C49" t="n">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D49" t="n">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E49" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="50">
@@ -1285,13 +1285,13 @@
         <v>43861</v>
       </c>
       <c r="B50" t="n">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C50" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D50" t="n">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E50" t="n">
         <v>62</v>
@@ -1322,13 +1322,13 @@
         <v>61</v>
       </c>
       <c r="C52" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D52" t="n">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E52" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="53">
@@ -1336,13 +1336,13 @@
         <v>43951</v>
       </c>
       <c r="B53" t="n">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C53" t="n">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D53" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E53" t="n">
         <v>59</v>
@@ -1353,16 +1353,16 @@
         <v>43982</v>
       </c>
       <c r="B54" t="n">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C54" t="n">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="D54" t="n">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E54" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="55">
@@ -1370,13 +1370,13 @@
         <v>44012</v>
       </c>
       <c r="B55" t="n">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C55" t="n">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D55" t="n">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E55" t="n">
         <v>73</v>
@@ -1387,16 +1387,16 @@
         <v>44043</v>
       </c>
       <c r="B56" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C56" t="n">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D56" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E56" t="n">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="57">
@@ -1404,16 +1404,16 @@
         <v>44074</v>
       </c>
       <c r="B57" t="n">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C57" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D57" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E57" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="58">
@@ -1421,7 +1421,7 @@
         <v>44104</v>
       </c>
       <c r="B58" t="n">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C58" t="n">
         <v>67</v>
@@ -1430,7 +1430,7 @@
         <v>43</v>
       </c>
       <c r="E58" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="59">
@@ -1438,13 +1438,13 @@
         <v>44135</v>
       </c>
       <c r="B59" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C59" t="n">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D59" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E59" t="n">
         <v>52</v>
@@ -1458,10 +1458,10 @@
         <v>60</v>
       </c>
       <c r="C60" t="n">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D60" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E60" t="n">
         <v>62</v>
@@ -1472,10 +1472,10 @@
         <v>44196</v>
       </c>
       <c r="B61" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C61" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D61" t="n">
         <v>47</v>
@@ -1489,16 +1489,16 @@
         <v>44227</v>
       </c>
       <c r="B62" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C62" t="n">
         <v>45</v>
       </c>
       <c r="D62" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E62" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="63">
@@ -1506,16 +1506,16 @@
         <v>44255</v>
       </c>
       <c r="B63" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C63" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D63" t="n">
         <v>37</v>
       </c>
       <c r="E63" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="64">
@@ -1523,13 +1523,13 @@
         <v>44286</v>
       </c>
       <c r="B64" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C64" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D64" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E64" t="n">
         <v>50</v>
@@ -1540,16 +1540,16 @@
         <v>44316</v>
       </c>
       <c r="B65" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C65" t="n">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D65" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E65" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="66">
@@ -1560,13 +1560,13 @@
         <v>53</v>
       </c>
       <c r="C66" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D66" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E66" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="67">
@@ -1574,16 +1574,16 @@
         <v>44377</v>
       </c>
       <c r="B67" t="n">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C67" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D67" t="n">
         <v>45</v>
       </c>
       <c r="E67" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="68">
@@ -1591,7 +1591,7 @@
         <v>44408</v>
       </c>
       <c r="B68" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C68" t="n">
         <v>45</v>
@@ -1600,7 +1600,7 @@
         <v>30</v>
       </c>
       <c r="E68" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="69">
@@ -1608,16 +1608,16 @@
         <v>44439</v>
       </c>
       <c r="B69" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C69" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D69" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E69" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="70">
@@ -1628,13 +1628,13 @@
         <v>58</v>
       </c>
       <c r="C70" t="n">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D70" t="n">
         <v>36</v>
       </c>
       <c r="E70" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="71">
@@ -1642,16 +1642,16 @@
         <v>44500</v>
       </c>
       <c r="B71" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C71" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D71" t="n">
         <v>43</v>
       </c>
       <c r="E71" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="72">
@@ -1659,16 +1659,16 @@
         <v>44530</v>
       </c>
       <c r="B72" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C72" t="n">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D72" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E72" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="73">
@@ -1676,13 +1676,13 @@
         <v>44561</v>
       </c>
       <c r="B73" t="n">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C73" t="n">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D73" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E73" t="n">
         <v>51</v>
@@ -1693,10 +1693,10 @@
         <v>44592</v>
       </c>
       <c r="B74" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C74" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D74" t="n">
         <v>32</v>
@@ -1710,10 +1710,10 @@
         <v>44620</v>
       </c>
       <c r="B75" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C75" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D75" t="n">
         <v>39</v>
@@ -1727,13 +1727,13 @@
         <v>44651</v>
       </c>
       <c r="B76" t="n">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C76" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D76" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E76" t="n">
         <v>58</v>
@@ -1744,13 +1744,13 @@
         <v>44681</v>
       </c>
       <c r="B77" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C77" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D77" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E77" t="n">
         <v>59</v>
@@ -1761,13 +1761,13 @@
         <v>44712</v>
       </c>
       <c r="B78" t="n">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C78" t="n">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D78" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E78" t="n">
         <v>66</v>
@@ -1781,13 +1781,13 @@
         <v>42</v>
       </c>
       <c r="C79" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D79" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E79" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="80">
@@ -1795,13 +1795,13 @@
         <v>44773</v>
       </c>
       <c r="B80" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C80" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D80" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E80" t="n">
         <v>47</v>
@@ -1812,7 +1812,7 @@
         <v>44804</v>
       </c>
       <c r="B81" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C81" t="n">
         <v>43</v>
@@ -1821,7 +1821,7 @@
         <v>28</v>
       </c>
       <c r="E81" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="82">
@@ -1829,13 +1829,13 @@
         <v>44834</v>
       </c>
       <c r="B82" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C82" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D82" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E82" t="n">
         <v>49</v>
@@ -1846,10 +1846,10 @@
         <v>44865</v>
       </c>
       <c r="B83" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C83" t="n">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D83" t="n">
         <v>30</v>
@@ -1866,13 +1866,13 @@
         <v>52</v>
       </c>
       <c r="C84" t="n">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="D84" t="n">
         <v>39</v>
       </c>
       <c r="E84" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="85">
@@ -1880,16 +1880,16 @@
         <v>44926</v>
       </c>
       <c r="B85" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C85" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D85" t="n">
         <v>39</v>
       </c>
       <c r="E85" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="86">
@@ -1897,16 +1897,16 @@
         <v>44957</v>
       </c>
       <c r="B86" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C86" t="n">
         <v>43</v>
       </c>
       <c r="D86" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E86" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="87">
@@ -1914,7 +1914,7 @@
         <v>44985</v>
       </c>
       <c r="B87" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C87" t="n">
         <v>37</v>
@@ -1923,7 +1923,7 @@
         <v>28</v>
       </c>
       <c r="E87" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="88">
@@ -1948,13 +1948,13 @@
         <v>45046</v>
       </c>
       <c r="B89" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C89" t="n">
         <v>36</v>
       </c>
       <c r="D89" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E89" t="n">
         <v>48</v>
@@ -1965,13 +1965,13 @@
         <v>45077</v>
       </c>
       <c r="B90" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C90" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D90" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E90" t="n">
         <v>45</v>
@@ -1982,10 +1982,10 @@
         <v>45107</v>
       </c>
       <c r="B91" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C91" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D91" t="n">
         <v>29</v>
@@ -2016,10 +2016,10 @@
         <v>45169</v>
       </c>
       <c r="B93" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C93" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D93" t="n">
         <v>24</v>
@@ -2039,7 +2039,7 @@
         <v>34</v>
       </c>
       <c r="D94" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E94" t="n">
         <v>34</v>
@@ -2056,10 +2056,10 @@
         <v>34</v>
       </c>
       <c r="D95" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E95" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="96">
@@ -2067,13 +2067,13 @@
         <v>45260</v>
       </c>
       <c r="B96" t="n">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C96" t="n">
         <v>52</v>
       </c>
       <c r="D96" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E96" t="n">
         <v>32</v>
@@ -2084,13 +2084,13 @@
         <v>45291</v>
       </c>
       <c r="B97" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C97" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D97" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E97" t="n">
         <v>24</v>
@@ -2107,10 +2107,10 @@
         <v>34</v>
       </c>
       <c r="D98" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E98" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="99">
@@ -2121,7 +2121,7 @@
         <v>27</v>
       </c>
       <c r="C99" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D99" t="n">
         <v>31</v>
@@ -2135,16 +2135,16 @@
         <v>45382</v>
       </c>
       <c r="B100" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C100" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D100" t="n">
         <v>39</v>
       </c>
       <c r="E100" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="101">
@@ -2152,13 +2152,13 @@
         <v>45412</v>
       </c>
       <c r="B101" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C101" t="n">
         <v>39</v>
       </c>
       <c r="D101" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E101" t="n">
         <v>36</v>
@@ -2169,16 +2169,16 @@
         <v>45443</v>
       </c>
       <c r="B102" t="n">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C102" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D102" t="n">
         <v>49</v>
       </c>
       <c r="E102" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="103">
@@ -2186,16 +2186,16 @@
         <v>45473</v>
       </c>
       <c r="B103" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C103" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D103" t="n">
         <v>41</v>
       </c>
       <c r="E103" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="104">
@@ -2203,13 +2203,13 @@
         <v>45504</v>
       </c>
       <c r="B104" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C104" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D104" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E104" t="n">
         <v>33</v>
@@ -2220,7 +2220,7 @@
         <v>45535</v>
       </c>
       <c r="B105" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C105" t="n">
         <v>36</v>
@@ -2237,7 +2237,7 @@
         <v>45565</v>
       </c>
       <c r="B106" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C106" t="n">
         <v>41</v>
@@ -2254,7 +2254,7 @@
         <v>45596</v>
       </c>
       <c r="B107" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C107" t="n">
         <v>45</v>
@@ -2271,13 +2271,13 @@
         <v>45626</v>
       </c>
       <c r="B108" t="n">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C108" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D108" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E108" t="n">
         <v>35</v>
@@ -2288,13 +2288,13 @@
         <v>45657</v>
       </c>
       <c r="B109" t="n">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C109" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D109" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E109" t="n">
         <v>27</v>
@@ -2305,16 +2305,16 @@
         <v>45688</v>
       </c>
       <c r="B110" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C110" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D110" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E110" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="111">
@@ -2322,13 +2322,13 @@
         <v>45716</v>
       </c>
       <c r="B111" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C111" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D111" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E111" t="n">
         <v>30</v>
@@ -2339,16 +2339,16 @@
         <v>45747</v>
       </c>
       <c r="B112" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C112" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D112" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E112" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="113">
@@ -2356,13 +2356,13 @@
         <v>45777</v>
       </c>
       <c r="B113" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C113" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D113" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E113" t="n">
         <v>40</v>
@@ -2376,10 +2376,10 @@
         <v>43</v>
       </c>
       <c r="C114" t="n">
+        <v>54</v>
+      </c>
+      <c r="D114" t="n">
         <v>53</v>
-      </c>
-      <c r="D114" t="n">
-        <v>51</v>
       </c>
       <c r="E114" t="n">
         <v>38</v>
@@ -2396,10 +2396,10 @@
         <v>46</v>
       </c>
       <c r="D115" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E115" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="116">
@@ -2407,10 +2407,10 @@
         <v>45869</v>
       </c>
       <c r="B116" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C116" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D116" t="n">
         <v>32</v>
@@ -2424,16 +2424,16 @@
         <v>45900</v>
       </c>
       <c r="B117" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C117" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D117" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E117" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="118">
@@ -2441,16 +2441,16 @@
         <v>45930</v>
       </c>
       <c r="B118" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C118" t="n">
         <v>45</v>
       </c>
       <c r="D118" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E118" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="119">
@@ -2458,13 +2458,13 @@
         <v>45961</v>
       </c>
       <c r="B119" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C119" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D119" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E119" t="n">
         <v>35</v>

--- a/data/nelly_trends_monthly.xlsx
+++ b/data/nelly_trends_monthly.xlsx
@@ -469,16 +469,16 @@
         <v>42400</v>
       </c>
       <c r="B2" t="n">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C2" t="n">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D2" t="n">
         <v>84</v>
       </c>
       <c r="E2" t="n">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3">
@@ -486,10 +486,10 @@
         <v>42429</v>
       </c>
       <c r="B3" t="n">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C3" t="n">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D3" t="n">
         <v>78</v>
@@ -503,13 +503,13 @@
         <v>42460</v>
       </c>
       <c r="B4" t="n">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C4" t="n">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D4" t="n">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E4" t="n">
         <v>84</v>
@@ -520,10 +520,10 @@
         <v>42490</v>
       </c>
       <c r="B5" t="n">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C5" t="n">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D5" t="n">
         <v>89</v>
@@ -540,7 +540,7 @@
         <v>100</v>
       </c>
       <c r="C6" t="n">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D6" t="n">
         <v>84</v>
@@ -554,10 +554,10 @@
         <v>42551</v>
       </c>
       <c r="B7" t="n">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="C7" t="n">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D7" t="n">
         <v>71</v>
@@ -571,16 +571,16 @@
         <v>42582</v>
       </c>
       <c r="B8" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C8" t="n">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D8" t="n">
         <v>56</v>
       </c>
       <c r="E8" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9">
@@ -588,10 +588,10 @@
         <v>42613</v>
       </c>
       <c r="B9" t="n">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C9" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D9" t="n">
         <v>51</v>
@@ -605,10 +605,10 @@
         <v>42643</v>
       </c>
       <c r="B10" t="n">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C10" t="n">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D10" t="n">
         <v>60</v>
@@ -622,13 +622,13 @@
         <v>42674</v>
       </c>
       <c r="B11" t="n">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C11" t="n">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D11" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E11" t="n">
         <v>82</v>
@@ -639,10 +639,10 @@
         <v>42704</v>
       </c>
       <c r="B12" t="n">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="C12" t="n">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="D12" t="n">
         <v>82</v>
@@ -656,13 +656,13 @@
         <v>42735</v>
       </c>
       <c r="B13" t="n">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="C13" t="n">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D13" t="n">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E13" t="n">
         <v>77</v>
@@ -673,16 +673,16 @@
         <v>42766</v>
       </c>
       <c r="B14" t="n">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C14" t="n">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D14" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E14" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15">
@@ -690,10 +690,10 @@
         <v>42794</v>
       </c>
       <c r="B15" t="n">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C15" t="n">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D15" t="n">
         <v>65</v>
@@ -707,16 +707,16 @@
         <v>42825</v>
       </c>
       <c r="B16" t="n">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C16" t="n">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D16" t="n">
         <v>76</v>
       </c>
       <c r="E16" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17">
@@ -724,10 +724,10 @@
         <v>42855</v>
       </c>
       <c r="B17" t="n">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="C17" t="n">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D17" t="n">
         <v>87</v>
@@ -741,16 +741,16 @@
         <v>42886</v>
       </c>
       <c r="B18" t="n">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="C18" t="n">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D18" t="n">
         <v>76</v>
       </c>
       <c r="E18" t="n">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="19">
@@ -758,16 +758,16 @@
         <v>42916</v>
       </c>
       <c r="B19" t="n">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C19" t="n">
+        <v>74</v>
+      </c>
+      <c r="D19" t="n">
         <v>72</v>
       </c>
-      <c r="D19" t="n">
-        <v>73</v>
-      </c>
       <c r="E19" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20">
@@ -775,10 +775,10 @@
         <v>42947</v>
       </c>
       <c r="B20" t="n">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C20" t="n">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D20" t="n">
         <v>61</v>
@@ -792,16 +792,16 @@
         <v>42978</v>
       </c>
       <c r="B21" t="n">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C21" t="n">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D21" t="n">
         <v>62</v>
       </c>
       <c r="E21" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22">
@@ -809,16 +809,16 @@
         <v>43008</v>
       </c>
       <c r="B22" t="n">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C22" t="n">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D22" t="n">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E22" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="23">
@@ -826,16 +826,16 @@
         <v>43039</v>
       </c>
       <c r="B23" t="n">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C23" t="n">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D23" t="n">
         <v>78</v>
       </c>
       <c r="E23" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="24">
@@ -843,16 +843,16 @@
         <v>43069</v>
       </c>
       <c r="B24" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C24" t="n">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D24" t="n">
         <v>91</v>
       </c>
       <c r="E24" t="n">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="25">
@@ -860,16 +860,16 @@
         <v>43100</v>
       </c>
       <c r="B25" t="n">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="C25" t="n">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D25" t="n">
         <v>88</v>
       </c>
       <c r="E25" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="26">
@@ -877,16 +877,16 @@
         <v>43131</v>
       </c>
       <c r="B26" t="n">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C26" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D26" t="n">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E26" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="27">
@@ -894,10 +894,10 @@
         <v>43159</v>
       </c>
       <c r="B27" t="n">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C27" t="n">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D27" t="n">
         <v>79</v>
@@ -911,13 +911,13 @@
         <v>43190</v>
       </c>
       <c r="B28" t="n">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="C28" t="n">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D28" t="n">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E28" t="n">
         <v>63</v>
@@ -928,16 +928,16 @@
         <v>43220</v>
       </c>
       <c r="B29" t="n">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C29" t="n">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D29" t="n">
         <v>100</v>
       </c>
       <c r="E29" t="n">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="30">
@@ -945,16 +945,16 @@
         <v>43251</v>
       </c>
       <c r="B30" t="n">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C30" t="n">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D30" t="n">
         <v>94</v>
       </c>
       <c r="E30" t="n">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="31">
@@ -962,16 +962,16 @@
         <v>43281</v>
       </c>
       <c r="B31" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C31" t="n">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D31" t="n">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E31" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="32">
@@ -979,10 +979,10 @@
         <v>43312</v>
       </c>
       <c r="B32" t="n">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C32" t="n">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D32" t="n">
         <v>75</v>
@@ -996,10 +996,10 @@
         <v>43343</v>
       </c>
       <c r="B33" t="n">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C33" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D33" t="n">
         <v>72</v>
@@ -1013,16 +1013,16 @@
         <v>43373</v>
       </c>
       <c r="B34" t="n">
+        <v>66</v>
+      </c>
+      <c r="C34" t="n">
         <v>70</v>
       </c>
-      <c r="C34" t="n">
-        <v>67</v>
-      </c>
       <c r="D34" t="n">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E34" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="35">
@@ -1030,10 +1030,10 @@
         <v>43404</v>
       </c>
       <c r="B35" t="n">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C35" t="n">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D35" t="n">
         <v>82</v>
@@ -1047,16 +1047,16 @@
         <v>43434</v>
       </c>
       <c r="B36" t="n">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C36" t="n">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D36" t="n">
         <v>87</v>
       </c>
       <c r="E36" t="n">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="37">
@@ -1064,13 +1064,13 @@
         <v>43465</v>
       </c>
       <c r="B37" t="n">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C37" t="n">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="D37" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E37" t="n">
         <v>59</v>
@@ -1081,16 +1081,16 @@
         <v>43496</v>
       </c>
       <c r="B38" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C38" t="n">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D38" t="n">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E38" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="39">
@@ -1098,13 +1098,13 @@
         <v>43524</v>
       </c>
       <c r="B39" t="n">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C39" t="n">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D39" t="n">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E39" t="n">
         <v>63</v>
@@ -1115,10 +1115,10 @@
         <v>43555</v>
       </c>
       <c r="B40" t="n">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C40" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D40" t="n">
         <v>76</v>
@@ -1132,16 +1132,16 @@
         <v>43585</v>
       </c>
       <c r="B41" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C41" t="n">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D41" t="n">
         <v>88</v>
       </c>
       <c r="E41" t="n">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="42">
@@ -1149,10 +1149,10 @@
         <v>43616</v>
       </c>
       <c r="B42" t="n">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C42" t="n">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="D42" t="n">
         <v>78</v>
@@ -1166,16 +1166,16 @@
         <v>43646</v>
       </c>
       <c r="B43" t="n">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C43" t="n">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="D43" t="n">
         <v>83</v>
       </c>
       <c r="E43" t="n">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="44">
@@ -1186,7 +1186,7 @@
         <v>61</v>
       </c>
       <c r="C44" t="n">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D44" t="n">
         <v>60</v>
@@ -1200,13 +1200,13 @@
         <v>43708</v>
       </c>
       <c r="B45" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C45" t="n">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D45" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E45" t="n">
         <v>56</v>
@@ -1217,16 +1217,16 @@
         <v>43738</v>
       </c>
       <c r="B46" t="n">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C46" t="n">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D46" t="n">
         <v>64</v>
       </c>
       <c r="E46" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="47">
@@ -1234,13 +1234,13 @@
         <v>43769</v>
       </c>
       <c r="B47" t="n">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C47" t="n">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D47" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E47" t="n">
         <v>66</v>
@@ -1251,16 +1251,16 @@
         <v>43799</v>
       </c>
       <c r="B48" t="n">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="C48" t="n">
         <v>100</v>
       </c>
       <c r="D48" t="n">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E48" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="49">
@@ -1268,13 +1268,13 @@
         <v>43830</v>
       </c>
       <c r="B49" t="n">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C49" t="n">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="D49" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E49" t="n">
         <v>58</v>
@@ -1285,7 +1285,7 @@
         <v>43861</v>
       </c>
       <c r="B50" t="n">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C50" t="n">
         <v>70</v>
@@ -1302,16 +1302,16 @@
         <v>43890</v>
       </c>
       <c r="B51" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C51" t="n">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="D51" t="n">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E51" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="52">
@@ -1319,13 +1319,13 @@
         <v>43921</v>
       </c>
       <c r="B52" t="n">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="C52" t="n">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D52" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E52" t="n">
         <v>52</v>
@@ -1336,16 +1336,16 @@
         <v>43951</v>
       </c>
       <c r="B53" t="n">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C53" t="n">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D53" t="n">
         <v>72</v>
       </c>
       <c r="E53" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="54">
@@ -1353,16 +1353,16 @@
         <v>43982</v>
       </c>
       <c r="B54" t="n">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C54" t="n">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D54" t="n">
         <v>63</v>
       </c>
       <c r="E54" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="55">
@@ -1373,13 +1373,13 @@
         <v>69</v>
       </c>
       <c r="C55" t="n">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D55" t="n">
         <v>67</v>
       </c>
       <c r="E55" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="56">
@@ -1387,16 +1387,16 @@
         <v>44043</v>
       </c>
       <c r="B56" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C56" t="n">
         <v>65</v>
       </c>
       <c r="D56" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E56" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="57">
@@ -1404,10 +1404,10 @@
         <v>44074</v>
       </c>
       <c r="B57" t="n">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C57" t="n">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D57" t="n">
         <v>49</v>
@@ -1421,7 +1421,7 @@
         <v>44104</v>
       </c>
       <c r="B58" t="n">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C58" t="n">
         <v>67</v>
@@ -1438,10 +1438,10 @@
         <v>44135</v>
       </c>
       <c r="B59" t="n">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C59" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D59" t="n">
         <v>43</v>
@@ -1455,10 +1455,10 @@
         <v>44165</v>
       </c>
       <c r="B60" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C60" t="n">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="D60" t="n">
         <v>50</v>
@@ -1472,16 +1472,16 @@
         <v>44196</v>
       </c>
       <c r="B61" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C61" t="n">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D61" t="n">
+        <v>48</v>
+      </c>
+      <c r="E61" t="n">
         <v>47</v>
-      </c>
-      <c r="E61" t="n">
-        <v>48</v>
       </c>
     </row>
     <row r="62">
@@ -1489,16 +1489,16 @@
         <v>44227</v>
       </c>
       <c r="B62" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C62" t="n">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D62" t="n">
         <v>39</v>
       </c>
       <c r="E62" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="63">
@@ -1506,16 +1506,16 @@
         <v>44255</v>
       </c>
       <c r="B63" t="n">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C63" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D63" t="n">
         <v>37</v>
       </c>
       <c r="E63" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="64">
@@ -1523,13 +1523,13 @@
         <v>44286</v>
       </c>
       <c r="B64" t="n">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C64" t="n">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D64" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E64" t="n">
         <v>50</v>
@@ -1540,13 +1540,13 @@
         <v>44316</v>
       </c>
       <c r="B65" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C65" t="n">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="D65" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E65" t="n">
         <v>58</v>
@@ -1557,10 +1557,10 @@
         <v>44347</v>
       </c>
       <c r="B66" t="n">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C66" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D66" t="n">
         <v>43</v>
@@ -1574,10 +1574,10 @@
         <v>44377</v>
       </c>
       <c r="B67" t="n">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C67" t="n">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D67" t="n">
         <v>45</v>
@@ -1594,13 +1594,13 @@
         <v>36</v>
       </c>
       <c r="C68" t="n">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D68" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E68" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="69">
@@ -1608,10 +1608,10 @@
         <v>44439</v>
       </c>
       <c r="B69" t="n">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C69" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D69" t="n">
         <v>39</v>
@@ -1625,10 +1625,10 @@
         <v>44469</v>
       </c>
       <c r="B70" t="n">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C70" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D70" t="n">
         <v>36</v>
@@ -1642,10 +1642,10 @@
         <v>44500</v>
       </c>
       <c r="B71" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C71" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D71" t="n">
         <v>43</v>
@@ -1659,10 +1659,10 @@
         <v>44530</v>
       </c>
       <c r="B72" t="n">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C72" t="n">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="D72" t="n">
         <v>49</v>
@@ -1676,16 +1676,16 @@
         <v>44561</v>
       </c>
       <c r="B73" t="n">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C73" t="n">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D73" t="n">
         <v>44</v>
       </c>
       <c r="E73" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="74">
@@ -1696,13 +1696,13 @@
         <v>36</v>
       </c>
       <c r="C74" t="n">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D74" t="n">
         <v>32</v>
       </c>
       <c r="E74" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="75">
@@ -1710,13 +1710,13 @@
         <v>44620</v>
       </c>
       <c r="B75" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C75" t="n">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D75" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E75" t="n">
         <v>51</v>
@@ -1727,16 +1727,16 @@
         <v>44651</v>
       </c>
       <c r="B76" t="n">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C76" t="n">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D76" t="n">
         <v>43</v>
       </c>
       <c r="E76" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="77">
@@ -1744,10 +1744,10 @@
         <v>44681</v>
       </c>
       <c r="B77" t="n">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C77" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D77" t="n">
         <v>46</v>
@@ -1761,10 +1761,10 @@
         <v>44712</v>
       </c>
       <c r="B78" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C78" t="n">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D78" t="n">
         <v>43</v>
@@ -1778,10 +1778,10 @@
         <v>44742</v>
       </c>
       <c r="B79" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C79" t="n">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D79" t="n">
         <v>38</v>
@@ -1804,7 +1804,7 @@
         <v>27</v>
       </c>
       <c r="E80" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="81">
@@ -1812,10 +1812,10 @@
         <v>44804</v>
       </c>
       <c r="B81" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C81" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D81" t="n">
         <v>28</v>
@@ -1829,16 +1829,16 @@
         <v>44834</v>
       </c>
       <c r="B82" t="n">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C82" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D82" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E82" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="83">
@@ -1846,7 +1846,7 @@
         <v>44865</v>
       </c>
       <c r="B83" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C83" t="n">
         <v>51</v>
@@ -1855,7 +1855,7 @@
         <v>30</v>
       </c>
       <c r="E83" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="84">
@@ -1863,13 +1863,13 @@
         <v>44895</v>
       </c>
       <c r="B84" t="n">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C84" t="n">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="D84" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E84" t="n">
         <v>57</v>
@@ -1880,13 +1880,13 @@
         <v>44926</v>
       </c>
       <c r="B85" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C85" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D85" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E85" t="n">
         <v>41</v>
@@ -1900,7 +1900,7 @@
         <v>32</v>
       </c>
       <c r="C86" t="n">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D86" t="n">
         <v>32</v>
@@ -1914,10 +1914,10 @@
         <v>44985</v>
       </c>
       <c r="B87" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C87" t="n">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D87" t="n">
         <v>28</v>
@@ -1931,16 +1931,16 @@
         <v>45016</v>
       </c>
       <c r="B88" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C88" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D88" t="n">
         <v>33</v>
       </c>
       <c r="E88" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="89">
@@ -1948,10 +1948,10 @@
         <v>45046</v>
       </c>
       <c r="B89" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C89" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D89" t="n">
         <v>40</v>
@@ -1965,16 +1965,16 @@
         <v>45077</v>
       </c>
       <c r="B90" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C90" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D90" t="n">
         <v>32</v>
       </c>
       <c r="E90" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="91">
@@ -1982,13 +1982,13 @@
         <v>45107</v>
       </c>
       <c r="B91" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C91" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D91" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E91" t="n">
         <v>39</v>
@@ -2002,7 +2002,7 @@
         <v>23</v>
       </c>
       <c r="C92" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D92" t="n">
         <v>24</v>
@@ -2016,10 +2016,10 @@
         <v>45169</v>
       </c>
       <c r="B93" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C93" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D93" t="n">
         <v>24</v>
@@ -2033,10 +2033,10 @@
         <v>45199</v>
       </c>
       <c r="B94" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C94" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D94" t="n">
         <v>31</v>
@@ -2050,16 +2050,16 @@
         <v>45230</v>
       </c>
       <c r="B95" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C95" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D95" t="n">
         <v>34</v>
       </c>
       <c r="E95" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="96">
@@ -2067,10 +2067,10 @@
         <v>45260</v>
       </c>
       <c r="B96" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C96" t="n">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D96" t="n">
         <v>42</v>
@@ -2084,10 +2084,10 @@
         <v>45291</v>
       </c>
       <c r="B97" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C97" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D97" t="n">
         <v>38</v>
@@ -2101,10 +2101,10 @@
         <v>45322</v>
       </c>
       <c r="B98" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C98" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D98" t="n">
         <v>33</v>
@@ -2118,16 +2118,16 @@
         <v>45351</v>
       </c>
       <c r="B99" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C99" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D99" t="n">
         <v>31</v>
       </c>
       <c r="E99" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="100">
@@ -2138,13 +2138,13 @@
         <v>30</v>
       </c>
       <c r="C100" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D100" t="n">
         <v>39</v>
       </c>
       <c r="E100" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="101">
@@ -2152,16 +2152,16 @@
         <v>45412</v>
       </c>
       <c r="B101" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C101" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D101" t="n">
         <v>44</v>
       </c>
       <c r="E101" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="102">
@@ -2169,16 +2169,16 @@
         <v>45443</v>
       </c>
       <c r="B102" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C102" t="n">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D102" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E102" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="103">
@@ -2186,10 +2186,10 @@
         <v>45473</v>
       </c>
       <c r="B103" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C103" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D103" t="n">
         <v>41</v>
@@ -2203,16 +2203,16 @@
         <v>45504</v>
       </c>
       <c r="B104" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C104" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D104" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E104" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="105">
@@ -2220,16 +2220,16 @@
         <v>45535</v>
       </c>
       <c r="B105" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C105" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D105" t="n">
         <v>37</v>
       </c>
       <c r="E105" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="106">
@@ -2237,10 +2237,10 @@
         <v>45565</v>
       </c>
       <c r="B106" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C106" t="n">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D106" t="n">
         <v>47</v>
@@ -2254,13 +2254,13 @@
         <v>45596</v>
       </c>
       <c r="B107" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C107" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D107" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E107" t="n">
         <v>30</v>
@@ -2271,16 +2271,16 @@
         <v>45626</v>
       </c>
       <c r="B108" t="n">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C108" t="n">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D108" t="n">
         <v>62</v>
       </c>
       <c r="E108" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="109">
@@ -2288,16 +2288,16 @@
         <v>45657</v>
       </c>
       <c r="B109" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="C109" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D109" t="n">
         <v>55</v>
       </c>
       <c r="E109" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="110">
@@ -2305,13 +2305,13 @@
         <v>45688</v>
       </c>
       <c r="B110" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C110" t="n">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D110" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E110" t="n">
         <v>33</v>
@@ -2322,16 +2322,16 @@
         <v>45716</v>
       </c>
       <c r="B111" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C111" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D111" t="n">
         <v>46</v>
       </c>
       <c r="E111" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="112">
@@ -2339,10 +2339,10 @@
         <v>45747</v>
       </c>
       <c r="B112" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C112" t="n">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D112" t="n">
         <v>53</v>
@@ -2356,10 +2356,10 @@
         <v>45777</v>
       </c>
       <c r="B113" t="n">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C113" t="n">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D113" t="n">
         <v>52</v>
@@ -2373,13 +2373,13 @@
         <v>45808</v>
       </c>
       <c r="B114" t="n">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C114" t="n">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D114" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E114" t="n">
         <v>38</v>
@@ -2390,10 +2390,10 @@
         <v>45838</v>
       </c>
       <c r="B115" t="n">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C115" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D115" t="n">
         <v>43</v>
@@ -2407,7 +2407,7 @@
         <v>45869</v>
       </c>
       <c r="B116" t="n">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C116" t="n">
         <v>40</v>
@@ -2416,7 +2416,7 @@
         <v>32</v>
       </c>
       <c r="E116" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="117">
@@ -2424,10 +2424,10 @@
         <v>45900</v>
       </c>
       <c r="B117" t="n">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C117" t="n">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D117" t="n">
         <v>53</v>
@@ -2441,10 +2441,10 @@
         <v>45930</v>
       </c>
       <c r="B118" t="n">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C118" t="n">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D118" t="n">
         <v>45</v>
@@ -2458,13 +2458,13 @@
         <v>45961</v>
       </c>
       <c r="B119" t="n">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C119" t="n">
         <v>46</v>
       </c>
       <c r="D119" t="n">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E119" t="n">
         <v>35</v>

--- a/data/nelly_trends_monthly.xlsx
+++ b/data/nelly_trends_monthly.xlsx
@@ -469,16 +469,16 @@
         <v>42400</v>
       </c>
       <c r="B2" t="n">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C2" t="n">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D2" t="n">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E2" t="n">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         <v>42429</v>
       </c>
       <c r="B3" t="n">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C3" t="n">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D3" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E3" t="n">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4">
@@ -506,13 +506,13 @@
         <v>78</v>
       </c>
       <c r="C4" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D4" t="n">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E4" t="n">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5">
@@ -520,16 +520,16 @@
         <v>42490</v>
       </c>
       <c r="B5" t="n">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C5" t="n">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D5" t="n">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E5" t="n">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6">
@@ -540,10 +540,10 @@
         <v>100</v>
       </c>
       <c r="C6" t="n">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D6" t="n">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E6" t="n">
         <v>100</v>
@@ -554,16 +554,16 @@
         <v>42551</v>
       </c>
       <c r="B7" t="n">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C7" t="n">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D7" t="n">
         <v>71</v>
       </c>
       <c r="E7" t="n">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8">
@@ -571,13 +571,13 @@
         <v>42582</v>
       </c>
       <c r="B8" t="n">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C8" t="n">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D8" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E8" t="n">
         <v>70</v>
@@ -588,16 +588,16 @@
         <v>42613</v>
       </c>
       <c r="B9" t="n">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C9" t="n">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D9" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E9" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10">
@@ -605,10 +605,10 @@
         <v>42643</v>
       </c>
       <c r="B10" t="n">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C10" t="n">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D10" t="n">
         <v>60</v>
@@ -622,13 +622,13 @@
         <v>42674</v>
       </c>
       <c r="B11" t="n">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C11" t="n">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D11" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E11" t="n">
         <v>82</v>
@@ -639,13 +639,13 @@
         <v>42704</v>
       </c>
       <c r="B12" t="n">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C12" t="n">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="D12" t="n">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E12" t="n">
         <v>98</v>
@@ -656,13 +656,13 @@
         <v>42735</v>
       </c>
       <c r="B13" t="n">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C13" t="n">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D13" t="n">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E13" t="n">
         <v>77</v>
@@ -673,13 +673,13 @@
         <v>42766</v>
       </c>
       <c r="B14" t="n">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C14" t="n">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D14" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E14" t="n">
         <v>74</v>
@@ -690,16 +690,16 @@
         <v>42794</v>
       </c>
       <c r="B15" t="n">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C15" t="n">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D15" t="n">
         <v>65</v>
       </c>
       <c r="E15" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16">
@@ -710,13 +710,13 @@
         <v>81</v>
       </c>
       <c r="C16" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D16" t="n">
+        <v>75</v>
+      </c>
+      <c r="E16" t="n">
         <v>76</v>
-      </c>
-      <c r="E16" t="n">
-        <v>74</v>
       </c>
     </row>
     <row r="17">
@@ -724,13 +724,13 @@
         <v>42855</v>
       </c>
       <c r="B17" t="n">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C17" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D17" t="n">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E17" t="n">
         <v>84</v>
@@ -741,16 +741,16 @@
         <v>42886</v>
       </c>
       <c r="B18" t="n">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C18" t="n">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="D18" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E18" t="n">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="19">
@@ -758,16 +758,16 @@
         <v>42916</v>
       </c>
       <c r="B19" t="n">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C19" t="n">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D19" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E19" t="n">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20">
@@ -775,16 +775,16 @@
         <v>42947</v>
       </c>
       <c r="B20" t="n">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C20" t="n">
+        <v>57</v>
+      </c>
+      <c r="D20" t="n">
+        <v>60</v>
+      </c>
+      <c r="E20" t="n">
         <v>63</v>
-      </c>
-      <c r="D20" t="n">
-        <v>61</v>
-      </c>
-      <c r="E20" t="n">
-        <v>64</v>
       </c>
     </row>
     <row r="21">
@@ -792,16 +792,16 @@
         <v>42978</v>
       </c>
       <c r="B21" t="n">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C21" t="n">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="D21" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E21" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22">
@@ -809,16 +809,16 @@
         <v>43008</v>
       </c>
       <c r="B22" t="n">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C22" t="n">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="D22" t="n">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E22" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23">
@@ -826,13 +826,13 @@
         <v>43039</v>
       </c>
       <c r="B23" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C23" t="n">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D23" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E23" t="n">
         <v>73</v>
@@ -843,16 +843,16 @@
         <v>43069</v>
       </c>
       <c r="B24" t="n">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C24" t="n">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="D24" t="n">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E24" t="n">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="25">
@@ -860,16 +860,16 @@
         <v>43100</v>
       </c>
       <c r="B25" t="n">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="C25" t="n">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="D25" t="n">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E25" t="n">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="26">
@@ -880,10 +880,10 @@
         <v>59</v>
       </c>
       <c r="C26" t="n">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D26" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E26" t="n">
         <v>65</v>
@@ -894,16 +894,16 @@
         <v>43159</v>
       </c>
       <c r="B27" t="n">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C27" t="n">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D27" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E27" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="28">
@@ -911,16 +911,16 @@
         <v>43190</v>
       </c>
       <c r="B28" t="n">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C28" t="n">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D28" t="n">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E28" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="29">
@@ -928,16 +928,16 @@
         <v>43220</v>
       </c>
       <c r="B29" t="n">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C29" t="n">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D29" t="n">
         <v>100</v>
       </c>
       <c r="E29" t="n">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="30">
@@ -945,16 +945,16 @@
         <v>43251</v>
       </c>
       <c r="B30" t="n">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C30" t="n">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D30" t="n">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E30" t="n">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="31">
@@ -962,13 +962,13 @@
         <v>43281</v>
       </c>
       <c r="B31" t="n">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C31" t="n">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="D31" t="n">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E31" t="n">
         <v>69</v>
@@ -979,13 +979,13 @@
         <v>43312</v>
       </c>
       <c r="B32" t="n">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C32" t="n">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="D32" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E32" t="n">
         <v>66</v>
@@ -996,16 +996,16 @@
         <v>43343</v>
       </c>
       <c r="B33" t="n">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C33" t="n">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D33" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E33" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="34">
@@ -1013,13 +1013,13 @@
         <v>43373</v>
       </c>
       <c r="B34" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C34" t="n">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="D34" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E34" t="n">
         <v>57</v>
@@ -1030,16 +1030,16 @@
         <v>43404</v>
       </c>
       <c r="B35" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C35" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D35" t="n">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E35" t="n">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="36">
@@ -1047,13 +1047,13 @@
         <v>43434</v>
       </c>
       <c r="B36" t="n">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C36" t="n">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="D36" t="n">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E36" t="n">
         <v>72</v>
@@ -1064,13 +1064,13 @@
         <v>43465</v>
       </c>
       <c r="B37" t="n">
+        <v>71</v>
+      </c>
+      <c r="C37" t="n">
         <v>69</v>
       </c>
-      <c r="C37" t="n">
-        <v>79</v>
-      </c>
       <c r="D37" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E37" t="n">
         <v>59</v>
@@ -1081,16 +1081,16 @@
         <v>43496</v>
       </c>
       <c r="B38" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C38" t="n">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="D38" t="n">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E38" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="39">
@@ -1098,16 +1098,16 @@
         <v>43524</v>
       </c>
       <c r="B39" t="n">
+        <v>63</v>
+      </c>
+      <c r="C39" t="n">
+        <v>53</v>
+      </c>
+      <c r="D39" t="n">
+        <v>76</v>
+      </c>
+      <c r="E39" t="n">
         <v>62</v>
-      </c>
-      <c r="C39" t="n">
-        <v>57</v>
-      </c>
-      <c r="D39" t="n">
-        <v>77</v>
-      </c>
-      <c r="E39" t="n">
-        <v>63</v>
       </c>
     </row>
     <row r="40">
@@ -1115,16 +1115,16 @@
         <v>43555</v>
       </c>
       <c r="B40" t="n">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C40" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D40" t="n">
         <v>76</v>
       </c>
       <c r="E40" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="41">
@@ -1132,13 +1132,13 @@
         <v>43585</v>
       </c>
       <c r="B41" t="n">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C41" t="n">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D41" t="n">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E41" t="n">
         <v>64</v>
@@ -1149,16 +1149,16 @@
         <v>43616</v>
       </c>
       <c r="B42" t="n">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C42" t="n">
         <v>75</v>
       </c>
       <c r="D42" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E42" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="43">
@@ -1166,16 +1166,16 @@
         <v>43646</v>
       </c>
       <c r="B43" t="n">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C43" t="n">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="D43" t="n">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E43" t="n">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="44">
@@ -1183,16 +1183,16 @@
         <v>43677</v>
       </c>
       <c r="B44" t="n">
+        <v>62</v>
+      </c>
+      <c r="C44" t="n">
+        <v>59</v>
+      </c>
+      <c r="D44" t="n">
+        <v>59</v>
+      </c>
+      <c r="E44" t="n">
         <v>61</v>
-      </c>
-      <c r="C44" t="n">
-        <v>64</v>
-      </c>
-      <c r="D44" t="n">
-        <v>60</v>
-      </c>
-      <c r="E44" t="n">
-        <v>62</v>
       </c>
     </row>
     <row r="45">
@@ -1200,13 +1200,13 @@
         <v>43708</v>
       </c>
       <c r="B45" t="n">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C45" t="n">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="D45" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E45" t="n">
         <v>56</v>
@@ -1217,13 +1217,13 @@
         <v>43738</v>
       </c>
       <c r="B46" t="n">
+        <v>66</v>
+      </c>
+      <c r="C46" t="n">
+        <v>68</v>
+      </c>
+      <c r="D46" t="n">
         <v>63</v>
-      </c>
-      <c r="C46" t="n">
-        <v>75</v>
-      </c>
-      <c r="D46" t="n">
-        <v>64</v>
       </c>
       <c r="E46" t="n">
         <v>63</v>
@@ -1234,13 +1234,13 @@
         <v>43769</v>
       </c>
       <c r="B47" t="n">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C47" t="n">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="D47" t="n">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E47" t="n">
         <v>66</v>
@@ -1251,13 +1251,13 @@
         <v>43799</v>
       </c>
       <c r="B48" t="n">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C48" t="n">
         <v>100</v>
       </c>
       <c r="D48" t="n">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E48" t="n">
         <v>68</v>
@@ -1268,16 +1268,16 @@
         <v>43830</v>
       </c>
       <c r="B49" t="n">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C49" t="n">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="D49" t="n">
         <v>76</v>
       </c>
       <c r="E49" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="50">
@@ -1285,16 +1285,16 @@
         <v>43861</v>
       </c>
       <c r="B50" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C50" t="n">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D50" t="n">
         <v>64</v>
       </c>
       <c r="E50" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="51">
@@ -1302,16 +1302,16 @@
         <v>43890</v>
       </c>
       <c r="B51" t="n">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C51" t="n">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="D51" t="n">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E51" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="52">
@@ -1319,10 +1319,10 @@
         <v>43921</v>
       </c>
       <c r="B52" t="n">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C52" t="n">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D52" t="n">
         <v>58</v>
@@ -1336,16 +1336,16 @@
         <v>43951</v>
       </c>
       <c r="B53" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C53" t="n">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="D53" t="n">
         <v>72</v>
       </c>
       <c r="E53" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="54">
@@ -1356,10 +1356,10 @@
         <v>73</v>
       </c>
       <c r="C54" t="n">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="D54" t="n">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E54" t="n">
         <v>71</v>
@@ -1373,10 +1373,10 @@
         <v>69</v>
       </c>
       <c r="C55" t="n">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D55" t="n">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E55" t="n">
         <v>72</v>
@@ -1387,13 +1387,13 @@
         <v>44043</v>
       </c>
       <c r="B56" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C56" t="n">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="D56" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E56" t="n">
         <v>65</v>
@@ -1404,13 +1404,13 @@
         <v>44074</v>
       </c>
       <c r="B57" t="n">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C57" t="n">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D57" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E57" t="n">
         <v>63</v>
@@ -1421,13 +1421,13 @@
         <v>44104</v>
       </c>
       <c r="B58" t="n">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C58" t="n">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D58" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E58" t="n">
         <v>56</v>
@@ -1438,16 +1438,16 @@
         <v>44135</v>
       </c>
       <c r="B59" t="n">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C59" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D59" t="n">
         <v>43</v>
       </c>
       <c r="E59" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="60">
@@ -1455,13 +1455,13 @@
         <v>44165</v>
       </c>
       <c r="B60" t="n">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C60" t="n">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="D60" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E60" t="n">
         <v>62</v>
@@ -1472,13 +1472,13 @@
         <v>44196</v>
       </c>
       <c r="B61" t="n">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C61" t="n">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D61" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E61" t="n">
         <v>47</v>
@@ -1489,10 +1489,10 @@
         <v>44227</v>
       </c>
       <c r="B62" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C62" t="n">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D62" t="n">
         <v>39</v>
@@ -1506,16 +1506,16 @@
         <v>44255</v>
       </c>
       <c r="B63" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C63" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D63" t="n">
         <v>37</v>
       </c>
       <c r="E63" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="64">
@@ -1523,10 +1523,10 @@
         <v>44286</v>
       </c>
       <c r="B64" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C64" t="n">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D64" t="n">
         <v>37</v>
@@ -1540,13 +1540,13 @@
         <v>44316</v>
       </c>
       <c r="B65" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C65" t="n">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="D65" t="n">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E65" t="n">
         <v>58</v>
@@ -1557,13 +1557,13 @@
         <v>44347</v>
       </c>
       <c r="B66" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C66" t="n">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D66" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E66" t="n">
         <v>64</v>
@@ -1577,7 +1577,7 @@
         <v>47</v>
       </c>
       <c r="C67" t="n">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D67" t="n">
         <v>45</v>
@@ -1591,16 +1591,16 @@
         <v>44408</v>
       </c>
       <c r="B68" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C68" t="n">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D68" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E68" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="69">
@@ -1611,13 +1611,13 @@
         <v>37</v>
       </c>
       <c r="C69" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D69" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E69" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="70">
@@ -1625,16 +1625,16 @@
         <v>44469</v>
       </c>
       <c r="B70" t="n">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C70" t="n">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D70" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E70" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="71">
@@ -1642,10 +1642,10 @@
         <v>44500</v>
       </c>
       <c r="B71" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C71" t="n">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D71" t="n">
         <v>43</v>
@@ -1659,10 +1659,10 @@
         <v>44530</v>
       </c>
       <c r="B72" t="n">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C72" t="n">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="D72" t="n">
         <v>49</v>
@@ -1679,13 +1679,13 @@
         <v>52</v>
       </c>
       <c r="C73" t="n">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="D73" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E73" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="74">
@@ -1693,13 +1693,13 @@
         <v>44592</v>
       </c>
       <c r="B74" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C74" t="n">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D74" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E74" t="n">
         <v>45</v>
@@ -1710,13 +1710,13 @@
         <v>44620</v>
       </c>
       <c r="B75" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C75" t="n">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D75" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E75" t="n">
         <v>51</v>
@@ -1727,16 +1727,16 @@
         <v>44651</v>
       </c>
       <c r="B76" t="n">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C76" t="n">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D76" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E76" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="77">
@@ -1744,16 +1744,16 @@
         <v>44681</v>
       </c>
       <c r="B77" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C77" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D77" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E77" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="78">
@@ -1764,7 +1764,7 @@
         <v>48</v>
       </c>
       <c r="C78" t="n">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D78" t="n">
         <v>43</v>
@@ -1778,13 +1778,13 @@
         <v>44742</v>
       </c>
       <c r="B79" t="n">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C79" t="n">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D79" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E79" t="n">
         <v>52</v>
@@ -1798,7 +1798,7 @@
         <v>31</v>
       </c>
       <c r="C80" t="n">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D80" t="n">
         <v>27</v>
@@ -1812,10 +1812,10 @@
         <v>44804</v>
       </c>
       <c r="B81" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C81" t="n">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D81" t="n">
         <v>28</v>
@@ -1832,7 +1832,7 @@
         <v>36</v>
       </c>
       <c r="C82" t="n">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D82" t="n">
         <v>29</v>
@@ -1846,16 +1846,16 @@
         <v>44865</v>
       </c>
       <c r="B83" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C83" t="n">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D83" t="n">
         <v>30</v>
       </c>
       <c r="E83" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="84">
@@ -1863,10 +1863,10 @@
         <v>44895</v>
       </c>
       <c r="B84" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C84" t="n">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="D84" t="n">
         <v>40</v>
@@ -1880,13 +1880,13 @@
         <v>44926</v>
       </c>
       <c r="B85" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C85" t="n">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D85" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E85" t="n">
         <v>41</v>
@@ -1897,13 +1897,13 @@
         <v>44957</v>
       </c>
       <c r="B86" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C86" t="n">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D86" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E86" t="n">
         <v>41</v>
@@ -1917,7 +1917,7 @@
         <v>29</v>
       </c>
       <c r="C87" t="n">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D87" t="n">
         <v>28</v>
@@ -1931,16 +1931,16 @@
         <v>45016</v>
       </c>
       <c r="B88" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C88" t="n">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D88" t="n">
         <v>33</v>
       </c>
       <c r="E88" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="89">
@@ -1948,16 +1948,16 @@
         <v>45046</v>
       </c>
       <c r="B89" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C89" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D89" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E89" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="90">
@@ -1965,13 +1965,13 @@
         <v>45077</v>
       </c>
       <c r="B90" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C90" t="n">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D90" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E90" t="n">
         <v>44</v>
@@ -1982,13 +1982,13 @@
         <v>45107</v>
       </c>
       <c r="B91" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C91" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D91" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E91" t="n">
         <v>39</v>
@@ -1999,16 +1999,16 @@
         <v>45138</v>
       </c>
       <c r="B92" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C92" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D92" t="n">
         <v>24</v>
       </c>
       <c r="E92" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="93">
@@ -2016,10 +2016,10 @@
         <v>45169</v>
       </c>
       <c r="B93" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C93" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D93" t="n">
         <v>24</v>
@@ -2036,13 +2036,13 @@
         <v>28</v>
       </c>
       <c r="C94" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D94" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E94" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="95">
@@ -2050,13 +2050,13 @@
         <v>45230</v>
       </c>
       <c r="B95" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C95" t="n">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D95" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E95" t="n">
         <v>30</v>
@@ -2067,13 +2067,13 @@
         <v>45260</v>
       </c>
       <c r="B96" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C96" t="n">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D96" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E96" t="n">
         <v>32</v>
@@ -2084,13 +2084,13 @@
         <v>45291</v>
       </c>
       <c r="B97" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C97" t="n">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D97" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E97" t="n">
         <v>24</v>
@@ -2104,7 +2104,7 @@
         <v>25</v>
       </c>
       <c r="C98" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D98" t="n">
         <v>33</v>
@@ -2118,16 +2118,16 @@
         <v>45351</v>
       </c>
       <c r="B99" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C99" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D99" t="n">
         <v>31</v>
       </c>
       <c r="E99" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="100">
@@ -2135,10 +2135,10 @@
         <v>45382</v>
       </c>
       <c r="B100" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C100" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D100" t="n">
         <v>39</v>
@@ -2152,13 +2152,13 @@
         <v>45412</v>
       </c>
       <c r="B101" t="n">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="C101" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D101" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E101" t="n">
         <v>35</v>
@@ -2169,16 +2169,16 @@
         <v>45443</v>
       </c>
       <c r="B102" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C102" t="n">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D102" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E102" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="103">
@@ -2189,7 +2189,7 @@
         <v>31</v>
       </c>
       <c r="C103" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D103" t="n">
         <v>41</v>
@@ -2206,7 +2206,7 @@
         <v>26</v>
       </c>
       <c r="C104" t="n">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D104" t="n">
         <v>26</v>
@@ -2220,16 +2220,16 @@
         <v>45535</v>
       </c>
       <c r="B105" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C105" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D105" t="n">
         <v>37</v>
       </c>
       <c r="E105" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="106">
@@ -2237,13 +2237,13 @@
         <v>45565</v>
       </c>
       <c r="B106" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C106" t="n">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D106" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E106" t="n">
         <v>29</v>
@@ -2254,13 +2254,13 @@
         <v>45596</v>
       </c>
       <c r="B107" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C107" t="n">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D107" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E107" t="n">
         <v>30</v>
@@ -2271,16 +2271,16 @@
         <v>45626</v>
       </c>
       <c r="B108" t="n">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C108" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D108" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E108" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="109">
@@ -2288,13 +2288,13 @@
         <v>45657</v>
       </c>
       <c r="B109" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C109" t="n">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D109" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E109" t="n">
         <v>26</v>
@@ -2305,16 +2305,16 @@
         <v>45688</v>
       </c>
       <c r="B110" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C110" t="n">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D110" t="n">
         <v>51</v>
       </c>
       <c r="E110" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="111">
@@ -2325,13 +2325,13 @@
         <v>31</v>
       </c>
       <c r="C111" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D111" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E111" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="112">
@@ -2339,13 +2339,13 @@
         <v>45747</v>
       </c>
       <c r="B112" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C112" t="n">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D112" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E112" t="n">
         <v>35</v>
@@ -2356,13 +2356,13 @@
         <v>45777</v>
       </c>
       <c r="B113" t="n">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C113" t="n">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D113" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E113" t="n">
         <v>40</v>
@@ -2373,16 +2373,16 @@
         <v>45808</v>
       </c>
       <c r="B114" t="n">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C114" t="n">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D114" t="n">
         <v>52</v>
       </c>
       <c r="E114" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="115">
@@ -2390,10 +2390,10 @@
         <v>45838</v>
       </c>
       <c r="B115" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C115" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D115" t="n">
         <v>43</v>
@@ -2410,7 +2410,7 @@
         <v>30</v>
       </c>
       <c r="C116" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D116" t="n">
         <v>32</v>
@@ -2424,13 +2424,13 @@
         <v>45900</v>
       </c>
       <c r="B117" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C117" t="n">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D117" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E117" t="n">
         <v>44</v>
@@ -2444,13 +2444,13 @@
         <v>33</v>
       </c>
       <c r="C118" t="n">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D118" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E118" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="119">
@@ -2461,13 +2461,13 @@
         <v>39</v>
       </c>
       <c r="C119" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D119" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E119" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/data/nelly_trends_monthly.xlsx
+++ b/data/nelly_trends_monthly.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E119"/>
+  <dimension ref="A1:E122"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,16 @@
         <v>42400</v>
       </c>
       <c r="B2" t="n">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C2" t="n">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D2" t="n">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E2" t="n">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3">
@@ -486,13 +486,13 @@
         <v>42429</v>
       </c>
       <c r="B3" t="n">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C3" t="n">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D3" t="n">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E3" t="n">
         <v>86</v>
@@ -503,13 +503,13 @@
         <v>42460</v>
       </c>
       <c r="B4" t="n">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C4" t="n">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D4" t="n">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E4" t="n">
         <v>82</v>
@@ -520,13 +520,13 @@
         <v>42490</v>
       </c>
       <c r="B5" t="n">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C5" t="n">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D5" t="n">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E5" t="n">
         <v>93</v>
@@ -540,10 +540,10 @@
         <v>100</v>
       </c>
       <c r="C6" t="n">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D6" t="n">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E6" t="n">
         <v>100</v>
@@ -554,16 +554,16 @@
         <v>42551</v>
       </c>
       <c r="B7" t="n">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C7" t="n">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D7" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E7" t="n">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8">
@@ -571,13 +571,13 @@
         <v>42582</v>
       </c>
       <c r="B8" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C8" t="n">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D8" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E8" t="n">
         <v>70</v>
@@ -588,13 +588,13 @@
         <v>42613</v>
       </c>
       <c r="B9" t="n">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C9" t="n">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D9" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E9" t="n">
         <v>70</v>
@@ -608,7 +608,7 @@
         <v>73</v>
       </c>
       <c r="C10" t="n">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D10" t="n">
         <v>60</v>
@@ -622,13 +622,13 @@
         <v>42674</v>
       </c>
       <c r="B11" t="n">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C11" t="n">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D11" t="n">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E11" t="n">
         <v>82</v>
@@ -639,16 +639,16 @@
         <v>42704</v>
       </c>
       <c r="B12" t="n">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C12" t="n">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D12" t="n">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E12" t="n">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="13">
@@ -656,13 +656,13 @@
         <v>42735</v>
       </c>
       <c r="B13" t="n">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C13" t="n">
         <v>81</v>
       </c>
       <c r="D13" t="n">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E13" t="n">
         <v>77</v>
@@ -673,13 +673,13 @@
         <v>42766</v>
       </c>
       <c r="B14" t="n">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C14" t="n">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D14" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E14" t="n">
         <v>74</v>
@@ -690,16 +690,16 @@
         <v>42794</v>
       </c>
       <c r="B15" t="n">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C15" t="n">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D15" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E15" t="n">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="16">
@@ -707,16 +707,16 @@
         <v>42825</v>
       </c>
       <c r="B16" t="n">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C16" t="n">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D16" t="n">
         <v>75</v>
       </c>
       <c r="E16" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17">
@@ -724,10 +724,10 @@
         <v>42855</v>
       </c>
       <c r="B17" t="n">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C17" t="n">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D17" t="n">
         <v>86</v>
@@ -741,13 +741,13 @@
         <v>42886</v>
       </c>
       <c r="B18" t="n">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C18" t="n">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D18" t="n">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E18" t="n">
         <v>91</v>
@@ -758,16 +758,16 @@
         <v>42916</v>
       </c>
       <c r="B19" t="n">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C19" t="n">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D19" t="n">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E19" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20">
@@ -775,16 +775,16 @@
         <v>42947</v>
       </c>
       <c r="B20" t="n">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C20" t="n">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D20" t="n">
         <v>60</v>
       </c>
       <c r="E20" t="n">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21">
@@ -792,10 +792,10 @@
         <v>42978</v>
       </c>
       <c r="B21" t="n">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C21" t="n">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D21" t="n">
         <v>61</v>
@@ -809,16 +809,16 @@
         <v>43008</v>
       </c>
       <c r="B22" t="n">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C22" t="n">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D22" t="n">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E22" t="n">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="23">
@@ -826,16 +826,16 @@
         <v>43039</v>
       </c>
       <c r="B23" t="n">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C23" t="n">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D23" t="n">
         <v>77</v>
       </c>
       <c r="E23" t="n">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="24">
@@ -843,16 +843,16 @@
         <v>43069</v>
       </c>
       <c r="B24" t="n">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C24" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D24" t="n">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E24" t="n">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="25">
@@ -860,13 +860,13 @@
         <v>43100</v>
       </c>
       <c r="B25" t="n">
+        <v>89</v>
+      </c>
+      <c r="C25" t="n">
+        <v>68</v>
+      </c>
+      <c r="D25" t="n">
         <v>87</v>
-      </c>
-      <c r="C25" t="n">
-        <v>65</v>
-      </c>
-      <c r="D25" t="n">
-        <v>86</v>
       </c>
       <c r="E25" t="n">
         <v>66</v>
@@ -877,13 +877,13 @@
         <v>43131</v>
       </c>
       <c r="B26" t="n">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C26" t="n">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D26" t="n">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E26" t="n">
         <v>65</v>
@@ -894,10 +894,10 @@
         <v>43159</v>
       </c>
       <c r="B27" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C27" t="n">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D27" t="n">
         <v>78</v>
@@ -911,16 +911,16 @@
         <v>43190</v>
       </c>
       <c r="B28" t="n">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C28" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D28" t="n">
         <v>90</v>
       </c>
       <c r="E28" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="29">
@@ -928,16 +928,16 @@
         <v>43220</v>
       </c>
       <c r="B29" t="n">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C29" t="n">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D29" t="n">
         <v>100</v>
       </c>
       <c r="E29" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="30">
@@ -945,13 +945,13 @@
         <v>43251</v>
       </c>
       <c r="B30" t="n">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="C30" t="n">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D30" t="n">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E30" t="n">
         <v>89</v>
@@ -962,16 +962,16 @@
         <v>43281</v>
       </c>
       <c r="B31" t="n">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C31" t="n">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D31" t="n">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E31" t="n">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="32">
@@ -979,10 +979,10 @@
         <v>43312</v>
       </c>
       <c r="B32" t="n">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C32" t="n">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D32" t="n">
         <v>74</v>
@@ -996,16 +996,16 @@
         <v>43343</v>
       </c>
       <c r="B33" t="n">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C33" t="n">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D33" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E33" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="34">
@@ -1013,10 +1013,10 @@
         <v>43373</v>
       </c>
       <c r="B34" t="n">
+        <v>66</v>
+      </c>
+      <c r="C34" t="n">
         <v>67</v>
-      </c>
-      <c r="C34" t="n">
-        <v>63</v>
       </c>
       <c r="D34" t="n">
         <v>75</v>
@@ -1030,16 +1030,16 @@
         <v>43404</v>
       </c>
       <c r="B35" t="n">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C35" t="n">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D35" t="n">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E35" t="n">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="36">
@@ -1047,16 +1047,16 @@
         <v>43434</v>
       </c>
       <c r="B36" t="n">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C36" t="n">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D36" t="n">
         <v>86</v>
       </c>
       <c r="E36" t="n">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="37">
@@ -1064,13 +1064,13 @@
         <v>43465</v>
       </c>
       <c r="B37" t="n">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C37" t="n">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="D37" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E37" t="n">
         <v>59</v>
@@ -1081,13 +1081,13 @@
         <v>43496</v>
       </c>
       <c r="B38" t="n">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C38" t="n">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D38" t="n">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E38" t="n">
         <v>61</v>
@@ -1098,16 +1098,16 @@
         <v>43524</v>
       </c>
       <c r="B39" t="n">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C39" t="n">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D39" t="n">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E39" t="n">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="40">
@@ -1115,16 +1115,16 @@
         <v>43555</v>
       </c>
       <c r="B40" t="n">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C40" t="n">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D40" t="n">
         <v>76</v>
       </c>
       <c r="E40" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="41">
@@ -1132,13 +1132,13 @@
         <v>43585</v>
       </c>
       <c r="B41" t="n">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C41" t="n">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D41" t="n">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E41" t="n">
         <v>64</v>
@@ -1149,16 +1149,16 @@
         <v>43616</v>
       </c>
       <c r="B42" t="n">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C42" t="n">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D42" t="n">
         <v>77</v>
       </c>
       <c r="E42" t="n">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="43">
@@ -1166,16 +1166,16 @@
         <v>43646</v>
       </c>
       <c r="B43" t="n">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C43" t="n">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="D43" t="n">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E43" t="n">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="44">
@@ -1183,16 +1183,16 @@
         <v>43677</v>
       </c>
       <c r="B44" t="n">
+        <v>63</v>
+      </c>
+      <c r="C44" t="n">
         <v>62</v>
       </c>
-      <c r="C44" t="n">
-        <v>59</v>
-      </c>
       <c r="D44" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E44" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="45">
@@ -1203,13 +1203,13 @@
         <v>59</v>
       </c>
       <c r="C45" t="n">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D45" t="n">
         <v>60</v>
       </c>
       <c r="E45" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="46">
@@ -1217,16 +1217,16 @@
         <v>43738</v>
       </c>
       <c r="B46" t="n">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C46" t="n">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D46" t="n">
         <v>63</v>
       </c>
       <c r="E46" t="n">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="47">
@@ -1234,10 +1234,10 @@
         <v>43769</v>
       </c>
       <c r="B47" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C47" t="n">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="D47" t="n">
         <v>66</v>
@@ -1257,10 +1257,10 @@
         <v>100</v>
       </c>
       <c r="D48" t="n">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E48" t="n">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="49">
@@ -1268,16 +1268,16 @@
         <v>43830</v>
       </c>
       <c r="B49" t="n">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C49" t="n">
+        <v>80</v>
+      </c>
+      <c r="D49" t="n">
         <v>75</v>
       </c>
-      <c r="D49" t="n">
-        <v>76</v>
-      </c>
       <c r="E49" t="n">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="50">
@@ -1285,7 +1285,7 @@
         <v>43861</v>
       </c>
       <c r="B50" t="n">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C50" t="n">
         <v>66</v>
@@ -1294,7 +1294,7 @@
         <v>64</v>
       </c>
       <c r="E50" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="51">
@@ -1302,16 +1302,16 @@
         <v>43890</v>
       </c>
       <c r="B51" t="n">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C51" t="n">
+        <v>65</v>
+      </c>
+      <c r="D51" t="n">
         <v>63</v>
       </c>
-      <c r="D51" t="n">
-        <v>62</v>
-      </c>
       <c r="E51" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="52">
@@ -1319,16 +1319,16 @@
         <v>43921</v>
       </c>
       <c r="B52" t="n">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C52" t="n">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D52" t="n">
         <v>58</v>
       </c>
       <c r="E52" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="53">
@@ -1336,10 +1336,10 @@
         <v>43951</v>
       </c>
       <c r="B53" t="n">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C53" t="n">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D53" t="n">
         <v>72</v>
@@ -1353,13 +1353,13 @@
         <v>43982</v>
       </c>
       <c r="B54" t="n">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C54" t="n">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="D54" t="n">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E54" t="n">
         <v>71</v>
@@ -1370,16 +1370,16 @@
         <v>44012</v>
       </c>
       <c r="B55" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C55" t="n">
         <v>81</v>
       </c>
       <c r="D55" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E55" t="n">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="56">
@@ -1390,7 +1390,7 @@
         <v>49</v>
       </c>
       <c r="C56" t="n">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D56" t="n">
         <v>44</v>
@@ -1407,7 +1407,7 @@
         <v>53</v>
       </c>
       <c r="C57" t="n">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D57" t="n">
         <v>48</v>
@@ -1421,16 +1421,16 @@
         <v>44104</v>
       </c>
       <c r="B58" t="n">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C58" t="n">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="D58" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E58" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="59">
@@ -1438,13 +1438,13 @@
         <v>44135</v>
       </c>
       <c r="B59" t="n">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C59" t="n">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D59" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E59" t="n">
         <v>51</v>
@@ -1455,13 +1455,13 @@
         <v>44165</v>
       </c>
       <c r="B60" t="n">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C60" t="n">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D60" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E60" t="n">
         <v>62</v>
@@ -1472,16 +1472,16 @@
         <v>44196</v>
       </c>
       <c r="B61" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C61" t="n">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D61" t="n">
         <v>47</v>
       </c>
       <c r="E61" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="62">
@@ -1489,13 +1489,13 @@
         <v>44227</v>
       </c>
       <c r="B62" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C62" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D62" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E62" t="n">
         <v>51</v>
@@ -1506,10 +1506,10 @@
         <v>44255</v>
       </c>
       <c r="B63" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C63" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D63" t="n">
         <v>37</v>
@@ -1523,10 +1523,10 @@
         <v>44286</v>
       </c>
       <c r="B64" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C64" t="n">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D64" t="n">
         <v>37</v>
@@ -1540,13 +1540,13 @@
         <v>44316</v>
       </c>
       <c r="B65" t="n">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C65" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D65" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E65" t="n">
         <v>58</v>
@@ -1557,10 +1557,10 @@
         <v>44347</v>
       </c>
       <c r="B66" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C66" t="n">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D66" t="n">
         <v>42</v>
@@ -1574,10 +1574,10 @@
         <v>44377</v>
       </c>
       <c r="B67" t="n">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="C67" t="n">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D67" t="n">
         <v>45</v>
@@ -1594,13 +1594,13 @@
         <v>35</v>
       </c>
       <c r="C68" t="n">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D68" t="n">
         <v>30</v>
       </c>
       <c r="E68" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="69">
@@ -1608,13 +1608,13 @@
         <v>44439</v>
       </c>
       <c r="B69" t="n">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C69" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D69" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E69" t="n">
         <v>52</v>
@@ -1625,16 +1625,16 @@
         <v>44469</v>
       </c>
       <c r="B70" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C70" t="n">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D70" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E70" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="71">
@@ -1642,13 +1642,13 @@
         <v>44500</v>
       </c>
       <c r="B71" t="n">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C71" t="n">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D71" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E71" t="n">
         <v>53</v>
@@ -1659,13 +1659,13 @@
         <v>44530</v>
       </c>
       <c r="B72" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C72" t="n">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D72" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E72" t="n">
         <v>64</v>
@@ -1676,16 +1676,16 @@
         <v>44561</v>
       </c>
       <c r="B73" t="n">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C73" t="n">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="D73" t="n">
         <v>43</v>
       </c>
       <c r="E73" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="74">
@@ -1696,10 +1696,10 @@
         <v>37</v>
       </c>
       <c r="C74" t="n">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D74" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E74" t="n">
         <v>45</v>
@@ -1710,16 +1710,16 @@
         <v>44620</v>
       </c>
       <c r="B75" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C75" t="n">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D75" t="n">
         <v>39</v>
       </c>
       <c r="E75" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="76">
@@ -1727,13 +1727,13 @@
         <v>44651</v>
       </c>
       <c r="B76" t="n">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C76" t="n">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D76" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E76" t="n">
         <v>56</v>
@@ -1744,10 +1744,10 @@
         <v>44681</v>
       </c>
       <c r="B77" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C77" t="n">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D77" t="n">
         <v>45</v>
@@ -1761,16 +1761,16 @@
         <v>44712</v>
       </c>
       <c r="B78" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C78" t="n">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D78" t="n">
         <v>43</v>
       </c>
       <c r="E78" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="79">
@@ -1778,13 +1778,13 @@
         <v>44742</v>
       </c>
       <c r="B79" t="n">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C79" t="n">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D79" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E79" t="n">
         <v>52</v>
@@ -1795,10 +1795,10 @@
         <v>44773</v>
       </c>
       <c r="B80" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C80" t="n">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D80" t="n">
         <v>27</v>
@@ -1812,10 +1812,10 @@
         <v>44804</v>
       </c>
       <c r="B81" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C81" t="n">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D81" t="n">
         <v>28</v>
@@ -1829,10 +1829,10 @@
         <v>44834</v>
       </c>
       <c r="B82" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C82" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D82" t="n">
         <v>29</v>
@@ -1849,13 +1849,13 @@
         <v>38</v>
       </c>
       <c r="C83" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D83" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E83" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="84">
@@ -1866,10 +1866,10 @@
         <v>50</v>
       </c>
       <c r="C84" t="n">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="D84" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E84" t="n">
         <v>57</v>
@@ -1880,13 +1880,13 @@
         <v>44926</v>
       </c>
       <c r="B85" t="n">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C85" t="n">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D85" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E85" t="n">
         <v>41</v>
@@ -1897,10 +1897,10 @@
         <v>44957</v>
       </c>
       <c r="B86" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C86" t="n">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D86" t="n">
         <v>31</v>
@@ -1914,13 +1914,13 @@
         <v>44985</v>
       </c>
       <c r="B87" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C87" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D87" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E87" t="n">
         <v>38</v>
@@ -1934,7 +1934,7 @@
         <v>32</v>
       </c>
       <c r="C88" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D88" t="n">
         <v>33</v>
@@ -1948,13 +1948,13 @@
         <v>45046</v>
       </c>
       <c r="B89" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C89" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D89" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E89" t="n">
         <v>47</v>
@@ -1965,13 +1965,13 @@
         <v>45077</v>
       </c>
       <c r="B90" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C90" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D90" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E90" t="n">
         <v>44</v>
@@ -1982,10 +1982,10 @@
         <v>45107</v>
       </c>
       <c r="B91" t="n">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C91" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D91" t="n">
         <v>29</v>
@@ -1999,16 +1999,16 @@
         <v>45138</v>
       </c>
       <c r="B92" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C92" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D92" t="n">
         <v>24</v>
       </c>
       <c r="E92" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="93">
@@ -2016,10 +2016,10 @@
         <v>45169</v>
       </c>
       <c r="B93" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C93" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D93" t="n">
         <v>24</v>
@@ -2036,10 +2036,10 @@
         <v>28</v>
       </c>
       <c r="C94" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D94" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E94" t="n">
         <v>33</v>
@@ -2050,13 +2050,13 @@
         <v>45230</v>
       </c>
       <c r="B95" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C95" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D95" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E95" t="n">
         <v>30</v>
@@ -2067,10 +2067,10 @@
         <v>45260</v>
       </c>
       <c r="B96" t="n">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C96" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D96" t="n">
         <v>41</v>
@@ -2090,7 +2090,7 @@
         <v>36</v>
       </c>
       <c r="D97" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E97" t="n">
         <v>24</v>
@@ -2101,10 +2101,10 @@
         <v>45322</v>
       </c>
       <c r="B98" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C98" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D98" t="n">
         <v>33</v>
@@ -2121,7 +2121,7 @@
         <v>26</v>
       </c>
       <c r="C99" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D99" t="n">
         <v>31</v>
@@ -2135,16 +2135,16 @@
         <v>45382</v>
       </c>
       <c r="B100" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C100" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D100" t="n">
         <v>39</v>
       </c>
       <c r="E100" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="101">
@@ -2152,16 +2152,16 @@
         <v>45412</v>
       </c>
       <c r="B101" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C101" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D101" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E101" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="102">
@@ -2172,10 +2172,10 @@
         <v>42</v>
       </c>
       <c r="C102" t="n">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D102" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E102" t="n">
         <v>43</v>
@@ -2186,10 +2186,10 @@
         <v>45473</v>
       </c>
       <c r="B103" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C103" t="n">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D103" t="n">
         <v>41</v>
@@ -2206,13 +2206,13 @@
         <v>26</v>
       </c>
       <c r="C104" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D104" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E104" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="105">
@@ -2220,13 +2220,13 @@
         <v>45535</v>
       </c>
       <c r="B105" t="n">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C105" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D105" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E105" t="n">
         <v>33</v>
@@ -2237,16 +2237,16 @@
         <v>45565</v>
       </c>
       <c r="B106" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C106" t="n">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D106" t="n">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="E106" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="107">
@@ -2254,10 +2254,10 @@
         <v>45596</v>
       </c>
       <c r="B107" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C107" t="n">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D107" t="n">
         <v>54</v>
@@ -2271,13 +2271,13 @@
         <v>45626</v>
       </c>
       <c r="B108" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C108" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D108" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E108" t="n">
         <v>35</v>
@@ -2288,16 +2288,16 @@
         <v>45657</v>
       </c>
       <c r="B109" t="n">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C109" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D109" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E109" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="110">
@@ -2305,10 +2305,10 @@
         <v>45688</v>
       </c>
       <c r="B110" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C110" t="n">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D110" t="n">
         <v>51</v>
@@ -2322,10 +2322,10 @@
         <v>45716</v>
       </c>
       <c r="B111" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C111" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D111" t="n">
         <v>45</v>
@@ -2342,10 +2342,10 @@
         <v>42</v>
       </c>
       <c r="C112" t="n">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D112" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E112" t="n">
         <v>35</v>
@@ -2356,16 +2356,16 @@
         <v>45777</v>
       </c>
       <c r="B113" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C113" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D113" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E113" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="114">
@@ -2376,13 +2376,13 @@
         <v>41</v>
       </c>
       <c r="C114" t="n">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D114" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E114" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="115">
@@ -2393,7 +2393,7 @@
         <v>35</v>
       </c>
       <c r="C115" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D115" t="n">
         <v>43</v>
@@ -2407,10 +2407,10 @@
         <v>45869</v>
       </c>
       <c r="B116" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C116" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D116" t="n">
         <v>32</v>
@@ -2424,13 +2424,13 @@
         <v>45900</v>
       </c>
       <c r="B117" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C117" t="n">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D117" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E117" t="n">
         <v>44</v>
@@ -2441,16 +2441,16 @@
         <v>45930</v>
       </c>
       <c r="B118" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C118" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D118" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E118" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="119">
@@ -2458,16 +2458,67 @@
         <v>45961</v>
       </c>
       <c r="B119" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C119" t="n">
         <v>42</v>
       </c>
       <c r="D119" t="n">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="E119" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>45991</v>
+      </c>
+      <c r="B120" t="n">
+        <v>44</v>
+      </c>
+      <c r="C120" t="n">
+        <v>59</v>
+      </c>
+      <c r="D120" t="n">
+        <v>57</v>
+      </c>
+      <c r="E120" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>46022</v>
+      </c>
+      <c r="B121" t="n">
         <v>37</v>
+      </c>
+      <c r="C121" t="n">
+        <v>47</v>
+      </c>
+      <c r="D121" t="n">
+        <v>44</v>
+      </c>
+      <c r="E121" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>46053</v>
+      </c>
+      <c r="B122" t="n">
+        <v>38</v>
+      </c>
+      <c r="C122" t="n">
+        <v>49</v>
+      </c>
+      <c r="D122" t="n">
+        <v>41</v>
+      </c>
+      <c r="E122" t="n">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/data/nelly_trends_monthly.xlsx
+++ b/data/nelly_trends_monthly.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E122"/>
+  <dimension ref="A1:E123"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,10 +475,10 @@
         <v>66</v>
       </c>
       <c r="D2" t="n">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E2" t="n">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         <v>42429</v>
       </c>
       <c r="B3" t="n">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C3" t="n">
         <v>54</v>
       </c>
       <c r="D3" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E3" t="n">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4">
@@ -503,16 +503,16 @@
         <v>42460</v>
       </c>
       <c r="B4" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C4" t="n">
         <v>57</v>
       </c>
       <c r="D4" t="n">
+        <v>82</v>
+      </c>
+      <c r="E4" t="n">
         <v>83</v>
-      </c>
-      <c r="E4" t="n">
-        <v>82</v>
       </c>
     </row>
     <row r="5">
@@ -526,10 +526,10 @@
         <v>63</v>
       </c>
       <c r="D5" t="n">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E5" t="n">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6">
@@ -540,10 +540,10 @@
         <v>100</v>
       </c>
       <c r="C6" t="n">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D6" t="n">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E6" t="n">
         <v>100</v>
@@ -554,7 +554,7 @@
         <v>42551</v>
       </c>
       <c r="B7" t="n">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C7" t="n">
         <v>69</v>
@@ -571,16 +571,16 @@
         <v>42582</v>
       </c>
       <c r="B8" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C8" t="n">
+        <v>54</v>
+      </c>
+      <c r="D8" t="n">
         <v>55</v>
       </c>
-      <c r="D8" t="n">
-        <v>56</v>
-      </c>
       <c r="E8" t="n">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9">
@@ -591,10 +591,10 @@
         <v>69</v>
       </c>
       <c r="C9" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D9" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E9" t="n">
         <v>70</v>
@@ -605,13 +605,13 @@
         <v>42643</v>
       </c>
       <c r="B10" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C10" t="n">
         <v>61</v>
       </c>
       <c r="D10" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E10" t="n">
         <v>71</v>
@@ -622,16 +622,16 @@
         <v>42674</v>
       </c>
       <c r="B11" t="n">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C11" t="n">
         <v>64</v>
       </c>
       <c r="D11" t="n">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E11" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12">
@@ -639,13 +639,13 @@
         <v>42704</v>
       </c>
       <c r="B12" t="n">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C12" t="n">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D12" t="n">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E12" t="n">
         <v>97</v>
@@ -656,16 +656,16 @@
         <v>42735</v>
       </c>
       <c r="B13" t="n">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C13" t="n">
         <v>81</v>
       </c>
       <c r="D13" t="n">
+        <v>73</v>
+      </c>
+      <c r="E13" t="n">
         <v>76</v>
-      </c>
-      <c r="E13" t="n">
-        <v>77</v>
       </c>
     </row>
     <row r="14">
@@ -673,10 +673,10 @@
         <v>42766</v>
       </c>
       <c r="B14" t="n">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C14" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D14" t="n">
         <v>61</v>
@@ -690,16 +690,16 @@
         <v>42794</v>
       </c>
       <c r="B15" t="n">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C15" t="n">
         <v>54</v>
       </c>
       <c r="D15" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E15" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16">
@@ -707,16 +707,16 @@
         <v>42825</v>
       </c>
       <c r="B16" t="n">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C16" t="n">
         <v>62</v>
       </c>
       <c r="D16" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E16" t="n">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17">
@@ -724,16 +724,16 @@
         <v>42855</v>
       </c>
       <c r="B17" t="n">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C17" t="n">
         <v>67</v>
       </c>
       <c r="D17" t="n">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E17" t="n">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18">
@@ -744,10 +744,10 @@
         <v>96</v>
       </c>
       <c r="C18" t="n">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D18" t="n">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E18" t="n">
         <v>91</v>
@@ -761,10 +761,10 @@
         <v>91</v>
       </c>
       <c r="C19" t="n">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D19" t="n">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E19" t="n">
         <v>72</v>
@@ -775,10 +775,10 @@
         <v>42947</v>
       </c>
       <c r="B20" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C20" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D20" t="n">
         <v>60</v>
@@ -792,7 +792,7 @@
         <v>42978</v>
       </c>
       <c r="B21" t="n">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C21" t="n">
         <v>61</v>
@@ -801,7 +801,7 @@
         <v>61</v>
       </c>
       <c r="E21" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22">
@@ -809,16 +809,16 @@
         <v>43008</v>
       </c>
       <c r="B22" t="n">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C22" t="n">
         <v>66</v>
       </c>
       <c r="D22" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E22" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23">
@@ -832,10 +832,10 @@
         <v>69</v>
       </c>
       <c r="D23" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E23" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="24">
@@ -843,16 +843,16 @@
         <v>43069</v>
       </c>
       <c r="B24" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="C24" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D24" t="n">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E24" t="n">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="25">
@@ -860,13 +860,13 @@
         <v>43100</v>
       </c>
       <c r="B25" t="n">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C25" t="n">
         <v>68</v>
       </c>
       <c r="D25" t="n">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E25" t="n">
         <v>66</v>
@@ -877,13 +877,13 @@
         <v>43131</v>
       </c>
       <c r="B26" t="n">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C26" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D26" t="n">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E26" t="n">
         <v>65</v>
@@ -894,16 +894,16 @@
         <v>43159</v>
       </c>
       <c r="B27" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C27" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D27" t="n">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E27" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="28">
@@ -911,7 +911,7 @@
         <v>43190</v>
       </c>
       <c r="B28" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C28" t="n">
         <v>50</v>
@@ -920,7 +920,7 @@
         <v>90</v>
       </c>
       <c r="E28" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="29">
@@ -928,10 +928,10 @@
         <v>43220</v>
       </c>
       <c r="B29" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C29" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D29" t="n">
         <v>100</v>
@@ -945,16 +945,16 @@
         <v>43251</v>
       </c>
       <c r="B30" t="n">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C30" t="n">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D30" t="n">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E30" t="n">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="31">
@@ -962,13 +962,13 @@
         <v>43281</v>
       </c>
       <c r="B31" t="n">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C31" t="n">
         <v>67</v>
       </c>
       <c r="D31" t="n">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E31" t="n">
         <v>70</v>
@@ -985,7 +985,7 @@
         <v>56</v>
       </c>
       <c r="D32" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E32" t="n">
         <v>66</v>
@@ -1002,10 +1002,10 @@
         <v>53</v>
       </c>
       <c r="D33" t="n">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E33" t="n">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="34">
@@ -1013,13 +1013,13 @@
         <v>43373</v>
       </c>
       <c r="B34" t="n">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C34" t="n">
         <v>67</v>
       </c>
       <c r="D34" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E34" t="n">
         <v>57</v>
@@ -1036,10 +1036,10 @@
         <v>62</v>
       </c>
       <c r="D35" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E35" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="36">
@@ -1047,16 +1047,16 @@
         <v>43434</v>
       </c>
       <c r="B36" t="n">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C36" t="n">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D36" t="n">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E36" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="37">
@@ -1064,13 +1064,13 @@
         <v>43465</v>
       </c>
       <c r="B37" t="n">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C37" t="n">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D37" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E37" t="n">
         <v>59</v>
@@ -1081,16 +1081,16 @@
         <v>43496</v>
       </c>
       <c r="B38" t="n">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C38" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D38" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E38" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="39">
@@ -1098,13 +1098,13 @@
         <v>43524</v>
       </c>
       <c r="B39" t="n">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C39" t="n">
         <v>55</v>
       </c>
       <c r="D39" t="n">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E39" t="n">
         <v>64</v>
@@ -1115,13 +1115,13 @@
         <v>43555</v>
       </c>
       <c r="B40" t="n">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C40" t="n">
         <v>63</v>
       </c>
       <c r="D40" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E40" t="n">
         <v>62</v>
@@ -1132,13 +1132,13 @@
         <v>43585</v>
       </c>
       <c r="B41" t="n">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C41" t="n">
         <v>61</v>
       </c>
       <c r="D41" t="n">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E41" t="n">
         <v>64</v>
@@ -1149,16 +1149,16 @@
         <v>43616</v>
       </c>
       <c r="B42" t="n">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C42" t="n">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D42" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E42" t="n">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="43">
@@ -1169,13 +1169,13 @@
         <v>77</v>
       </c>
       <c r="C43" t="n">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="D43" t="n">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E43" t="n">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="44">
@@ -1183,13 +1183,13 @@
         <v>43677</v>
       </c>
       <c r="B44" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C44" t="n">
         <v>62</v>
       </c>
       <c r="D44" t="n">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E44" t="n">
         <v>62</v>
@@ -1203,13 +1203,13 @@
         <v>59</v>
       </c>
       <c r="C45" t="n">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D45" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E45" t="n">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="46">
@@ -1217,16 +1217,16 @@
         <v>43738</v>
       </c>
       <c r="B46" t="n">
+        <v>67</v>
+      </c>
+      <c r="C46" t="n">
         <v>69</v>
-      </c>
-      <c r="C46" t="n">
-        <v>71</v>
       </c>
       <c r="D46" t="n">
         <v>63</v>
       </c>
       <c r="E46" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="47">
@@ -1234,10 +1234,10 @@
         <v>43769</v>
       </c>
       <c r="B47" t="n">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C47" t="n">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D47" t="n">
         <v>66</v>
@@ -1251,16 +1251,16 @@
         <v>43799</v>
       </c>
       <c r="B48" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C48" t="n">
         <v>100</v>
       </c>
       <c r="D48" t="n">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E48" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="49">
@@ -1268,16 +1268,16 @@
         <v>43830</v>
       </c>
       <c r="B49" t="n">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C49" t="n">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D49" t="n">
         <v>75</v>
       </c>
       <c r="E49" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="50">
@@ -1285,16 +1285,16 @@
         <v>43861</v>
       </c>
       <c r="B50" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C50" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D50" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E50" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="51">
@@ -1305,13 +1305,13 @@
         <v>59</v>
       </c>
       <c r="C51" t="n">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D51" t="n">
         <v>63</v>
       </c>
       <c r="E51" t="n">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="52">
@@ -1319,16 +1319,16 @@
         <v>43921</v>
       </c>
       <c r="B52" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C52" t="n">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D52" t="n">
         <v>58</v>
       </c>
       <c r="E52" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="53">
@@ -1336,16 +1336,16 @@
         <v>43951</v>
       </c>
       <c r="B53" t="n">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C53" t="n">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="D53" t="n">
         <v>72</v>
       </c>
       <c r="E53" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="54">
@@ -1353,13 +1353,13 @@
         <v>43982</v>
       </c>
       <c r="B54" t="n">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C54" t="n">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D54" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E54" t="n">
         <v>71</v>
@@ -1370,16 +1370,16 @@
         <v>44012</v>
       </c>
       <c r="B55" t="n">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C55" t="n">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D55" t="n">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E55" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="56">
@@ -1387,16 +1387,16 @@
         <v>44043</v>
       </c>
       <c r="B56" t="n">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C56" t="n">
         <v>62</v>
       </c>
       <c r="D56" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E56" t="n">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="57">
@@ -1404,13 +1404,13 @@
         <v>44074</v>
       </c>
       <c r="B57" t="n">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C57" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D57" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E57" t="n">
         <v>63</v>
@@ -1421,16 +1421,16 @@
         <v>44104</v>
       </c>
       <c r="B58" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C58" t="n">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="D58" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E58" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="59">
@@ -1438,16 +1438,16 @@
         <v>44135</v>
       </c>
       <c r="B59" t="n">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C59" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D59" t="n">
         <v>42</v>
       </c>
       <c r="E59" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="60">
@@ -1455,16 +1455,16 @@
         <v>44165</v>
       </c>
       <c r="B60" t="n">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C60" t="n">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D60" t="n">
         <v>48</v>
       </c>
       <c r="E60" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="61">
@@ -1472,16 +1472,16 @@
         <v>44196</v>
       </c>
       <c r="B61" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C61" t="n">
         <v>55</v>
       </c>
       <c r="D61" t="n">
+        <v>46</v>
+      </c>
+      <c r="E61" t="n">
         <v>47</v>
-      </c>
-      <c r="E61" t="n">
-        <v>48</v>
       </c>
     </row>
     <row r="62">
@@ -1492,10 +1492,10 @@
         <v>37</v>
       </c>
       <c r="C62" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D62" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E62" t="n">
         <v>51</v>
@@ -1506,10 +1506,10 @@
         <v>44255</v>
       </c>
       <c r="B63" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C63" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D63" t="n">
         <v>37</v>
@@ -1523,7 +1523,7 @@
         <v>44286</v>
       </c>
       <c r="B64" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C64" t="n">
         <v>51</v>
@@ -1540,10 +1540,10 @@
         <v>44316</v>
       </c>
       <c r="B65" t="n">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C65" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D65" t="n">
         <v>40</v>
@@ -1557,16 +1557,16 @@
         <v>44347</v>
       </c>
       <c r="B66" t="n">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C66" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D66" t="n">
         <v>42</v>
       </c>
       <c r="E66" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="67">
@@ -1574,7 +1574,7 @@
         <v>44377</v>
       </c>
       <c r="B67" t="n">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C67" t="n">
         <v>59</v>
@@ -1591,13 +1591,13 @@
         <v>44408</v>
       </c>
       <c r="B68" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C68" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D68" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E68" t="n">
         <v>52</v>
@@ -1608,16 +1608,16 @@
         <v>44439</v>
       </c>
       <c r="B69" t="n">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C69" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D69" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E69" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="70">
@@ -1625,7 +1625,7 @@
         <v>44469</v>
       </c>
       <c r="B70" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C70" t="n">
         <v>60</v>
@@ -1642,13 +1642,13 @@
         <v>44500</v>
       </c>
       <c r="B71" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C71" t="n">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D71" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E71" t="n">
         <v>53</v>
@@ -1659,16 +1659,16 @@
         <v>44530</v>
       </c>
       <c r="B72" t="n">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C72" t="n">
         <v>78</v>
       </c>
       <c r="D72" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E72" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="73">
@@ -1679,10 +1679,10 @@
         <v>55</v>
       </c>
       <c r="C73" t="n">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D73" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E73" t="n">
         <v>50</v>
@@ -1693,13 +1693,13 @@
         <v>44592</v>
       </c>
       <c r="B74" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C74" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D74" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E74" t="n">
         <v>45</v>
@@ -1713,13 +1713,13 @@
         <v>35</v>
       </c>
       <c r="C75" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D75" t="n">
         <v>39</v>
       </c>
       <c r="E75" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="76">
@@ -1727,13 +1727,13 @@
         <v>44651</v>
       </c>
       <c r="B76" t="n">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C76" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D76" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E76" t="n">
         <v>56</v>
@@ -1744,10 +1744,10 @@
         <v>44681</v>
       </c>
       <c r="B77" t="n">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C77" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D77" t="n">
         <v>45</v>
@@ -1761,10 +1761,10 @@
         <v>44712</v>
       </c>
       <c r="B78" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C78" t="n">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="D78" t="n">
         <v>43</v>
@@ -1778,13 +1778,13 @@
         <v>44742</v>
       </c>
       <c r="B79" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C79" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D79" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E79" t="n">
         <v>52</v>
@@ -1798,7 +1798,7 @@
         <v>32</v>
       </c>
       <c r="C80" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D80" t="n">
         <v>27</v>
@@ -1812,7 +1812,7 @@
         <v>44804</v>
       </c>
       <c r="B81" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C81" t="n">
         <v>43</v>
@@ -1829,7 +1829,7 @@
         <v>44834</v>
       </c>
       <c r="B82" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C82" t="n">
         <v>46</v>
@@ -1846,13 +1846,13 @@
         <v>44865</v>
       </c>
       <c r="B83" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C83" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D83" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E83" t="n">
         <v>46</v>
@@ -1863,10 +1863,10 @@
         <v>44895</v>
       </c>
       <c r="B84" t="n">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C84" t="n">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D84" t="n">
         <v>39</v>
@@ -1880,13 +1880,13 @@
         <v>44926</v>
       </c>
       <c r="B85" t="n">
+        <v>37</v>
+      </c>
+      <c r="C85" t="n">
+        <v>48</v>
+      </c>
+      <c r="D85" t="n">
         <v>39</v>
-      </c>
-      <c r="C85" t="n">
-        <v>47</v>
-      </c>
-      <c r="D85" t="n">
-        <v>40</v>
       </c>
       <c r="E85" t="n">
         <v>41</v>
@@ -1906,7 +1906,7 @@
         <v>31</v>
       </c>
       <c r="E86" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="87">
@@ -1914,13 +1914,13 @@
         <v>44985</v>
       </c>
       <c r="B87" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C87" t="n">
         <v>37</v>
       </c>
       <c r="D87" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E87" t="n">
         <v>38</v>
@@ -1934,10 +1934,10 @@
         <v>32</v>
       </c>
       <c r="C88" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D88" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E88" t="n">
         <v>48</v>
@@ -1948,16 +1948,16 @@
         <v>45046</v>
       </c>
       <c r="B89" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C89" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D89" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E89" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="90">
@@ -1965,13 +1965,13 @@
         <v>45077</v>
       </c>
       <c r="B90" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C90" t="n">
         <v>42</v>
       </c>
       <c r="D90" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E90" t="n">
         <v>44</v>
@@ -1982,13 +1982,13 @@
         <v>45107</v>
       </c>
       <c r="B91" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C91" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D91" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E91" t="n">
         <v>39</v>
@@ -2005,10 +2005,10 @@
         <v>26</v>
       </c>
       <c r="D92" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E92" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="93">
@@ -2033,13 +2033,13 @@
         <v>45199</v>
       </c>
       <c r="B94" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C94" t="n">
         <v>34</v>
       </c>
       <c r="D94" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E94" t="n">
         <v>33</v>
@@ -2050,13 +2050,13 @@
         <v>45230</v>
       </c>
       <c r="B95" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C95" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D95" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E95" t="n">
         <v>30</v>
@@ -2070,13 +2070,13 @@
         <v>39</v>
       </c>
       <c r="C96" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D96" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E96" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="97">
@@ -2084,13 +2084,13 @@
         <v>45291</v>
       </c>
       <c r="B97" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C97" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D97" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E97" t="n">
         <v>24</v>
@@ -2101,10 +2101,10 @@
         <v>45322</v>
       </c>
       <c r="B98" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C98" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D98" t="n">
         <v>33</v>
@@ -2124,7 +2124,7 @@
         <v>34</v>
       </c>
       <c r="D99" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E99" t="n">
         <v>27</v>
@@ -2135,16 +2135,16 @@
         <v>45382</v>
       </c>
       <c r="B100" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C100" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D100" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E100" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="101">
@@ -2152,13 +2152,13 @@
         <v>45412</v>
       </c>
       <c r="B101" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C101" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D101" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E101" t="n">
         <v>36</v>
@@ -2169,10 +2169,10 @@
         <v>45443</v>
       </c>
       <c r="B102" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C102" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D102" t="n">
         <v>49</v>
@@ -2186,13 +2186,13 @@
         <v>45473</v>
       </c>
       <c r="B103" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C103" t="n">
         <v>39</v>
       </c>
       <c r="D103" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E103" t="n">
         <v>37</v>
@@ -2203,13 +2203,13 @@
         <v>45504</v>
       </c>
       <c r="B104" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C104" t="n">
         <v>33</v>
       </c>
       <c r="D104" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E104" t="n">
         <v>33</v>
@@ -2220,16 +2220,16 @@
         <v>45535</v>
       </c>
       <c r="B105" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C105" t="n">
         <v>36</v>
       </c>
       <c r="D105" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E105" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="106">
@@ -2240,10 +2240,10 @@
         <v>35</v>
       </c>
       <c r="C106" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D106" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E106" t="n">
         <v>28</v>
@@ -2254,13 +2254,13 @@
         <v>45596</v>
       </c>
       <c r="B107" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C107" t="n">
         <v>45</v>
       </c>
       <c r="D107" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E107" t="n">
         <v>30</v>
@@ -2274,7 +2274,7 @@
         <v>41</v>
       </c>
       <c r="C108" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D108" t="n">
         <v>62</v>
@@ -2288,13 +2288,13 @@
         <v>45657</v>
       </c>
       <c r="B109" t="n">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C109" t="n">
         <v>44</v>
       </c>
       <c r="D109" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E109" t="n">
         <v>27</v>
@@ -2305,13 +2305,13 @@
         <v>45688</v>
       </c>
       <c r="B110" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C110" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D110" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E110" t="n">
         <v>32</v>
@@ -2322,10 +2322,10 @@
         <v>45716</v>
       </c>
       <c r="B111" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C111" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D111" t="n">
         <v>45</v>
@@ -2345,7 +2345,7 @@
         <v>53</v>
       </c>
       <c r="D112" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E112" t="n">
         <v>35</v>
@@ -2356,16 +2356,16 @@
         <v>45777</v>
       </c>
       <c r="B113" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C113" t="n">
         <v>50</v>
       </c>
       <c r="D113" t="n">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E113" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="114">
@@ -2379,7 +2379,7 @@
         <v>54</v>
       </c>
       <c r="D114" t="n">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E114" t="n">
         <v>38</v>
@@ -2390,13 +2390,13 @@
         <v>45838</v>
       </c>
       <c r="B115" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C115" t="n">
         <v>46</v>
       </c>
       <c r="D115" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E115" t="n">
         <v>33</v>
@@ -2407,7 +2407,7 @@
         <v>45869</v>
       </c>
       <c r="B116" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C116" t="n">
         <v>38</v>
@@ -2424,13 +2424,13 @@
         <v>45900</v>
       </c>
       <c r="B117" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C117" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D117" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E117" t="n">
         <v>44</v>
@@ -2447,10 +2447,10 @@
         <v>46</v>
       </c>
       <c r="D118" t="n">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E118" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="119">
@@ -2458,13 +2458,13 @@
         <v>45961</v>
       </c>
       <c r="B119" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C119" t="n">
         <v>42</v>
       </c>
       <c r="D119" t="n">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E119" t="n">
         <v>33</v>
@@ -2475,10 +2475,10 @@
         <v>45991</v>
       </c>
       <c r="B120" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C120" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D120" t="n">
         <v>57</v>
@@ -2492,10 +2492,10 @@
         <v>46022</v>
       </c>
       <c r="B121" t="n">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C121" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D121" t="n">
         <v>44</v>
@@ -2509,16 +2509,33 @@
         <v>46053</v>
       </c>
       <c r="B122" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C122" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D122" t="n">
+        <v>39</v>
+      </c>
+      <c r="E122" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>46081</v>
+      </c>
+      <c r="B123" t="n">
+        <v>35</v>
+      </c>
+      <c r="C123" t="n">
         <v>41</v>
       </c>
-      <c r="E122" t="n">
-        <v>35</v>
+      <c r="D123" t="n">
+        <v>34</v>
+      </c>
+      <c r="E123" t="n">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
